--- a/1 MONTH CREDIT.xlsx
+++ b/1 MONTH CREDIT.xlsx
@@ -3298,6 +3298,30 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3329,30 +3353,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8964,34 +8964,34 @@
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
-      <c r="I3" s="160" t="s">
+      <c r="I3" s="149" t="s">
         <v>231</v>
       </c>
-      <c r="J3" s="160"/>
+      <c r="J3" s="149"/>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="156" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="148"/>
+      <c r="B4" s="156"/>
       <c r="C4" s="47"/>
       <c r="D4" s="29"/>
-      <c r="E4" s="149" t="s">
+      <c r="E4" s="157" t="s">
         <v>230</v>
       </c>
-      <c r="F4" s="149"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="M4" s="147"/>
-      <c r="N4" s="147"/>
-      <c r="O4" s="147"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="155"/>
+      <c r="O4" s="155"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="150" t="s">
+      <c r="A5" s="158" t="s">
         <v>240</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -9035,7 +9035,7 @@
       <c r="S5" s="29"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="151"/>
+      <c r="A6" s="159"/>
       <c r="B6" s="30" t="s">
         <v>242</v>
       </c>
@@ -9069,7 +9069,7 @@
       <c r="S6" s="27"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="152"/>
+      <c r="A7" s="160"/>
       <c r="B7" s="31" t="s">
         <v>243</v>
       </c>
@@ -9158,7 +9158,7 @@
       <c r="S9" s="27"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="163" t="s">
+      <c r="A10" s="152" t="s">
         <v>248</v>
       </c>
       <c r="B10" s="30" t="s">
@@ -9186,7 +9186,7 @@
       <c r="S10" s="27"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="165"/>
+      <c r="A11" s="154"/>
       <c r="B11" s="31" t="s">
         <v>32</v>
       </c>
@@ -9216,7 +9216,7 @@
       <c r="S11" s="27"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="163" t="s">
+      <c r="A12" s="152" t="s">
         <v>250</v>
       </c>
       <c r="B12" s="30" t="s">
@@ -9246,7 +9246,7 @@
       <c r="S12" s="27"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="164"/>
+      <c r="A13" s="153"/>
       <c r="B13" s="31" t="s">
         <v>183</v>
       </c>
@@ -9272,7 +9272,7 @@
       <c r="S13" s="27"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="165"/>
+      <c r="A14" s="154"/>
       <c r="B14" s="31" t="s">
         <v>90</v>
       </c>
@@ -9354,7 +9354,7 @@
       <c r="S16" s="27"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="163" t="s">
+      <c r="A17" s="152" t="s">
         <v>255</v>
       </c>
       <c r="B17" s="30" t="s">
@@ -9382,7 +9382,7 @@
       <c r="S17" s="27"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="164"/>
+      <c r="A18" s="153"/>
       <c r="B18" s="31" t="s">
         <v>249</v>
       </c>
@@ -9408,7 +9408,7 @@
       <c r="S18" s="27"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="165"/>
+      <c r="A19" s="154"/>
       <c r="B19" s="31" t="s">
         <v>14</v>
       </c>
@@ -9434,7 +9434,7 @@
       <c r="S19" s="27"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="155" t="s">
+      <c r="A20" s="163" t="s">
         <v>263</v>
       </c>
       <c r="B20" s="30" t="s">
@@ -9462,7 +9462,7 @@
       <c r="S20" s="27"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="156"/>
+      <c r="A21" s="164"/>
       <c r="B21" s="30" t="s">
         <v>215</v>
       </c>
@@ -9487,7 +9487,7 @@
       <c r="S21" s="27"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="156"/>
+      <c r="A22" s="164"/>
       <c r="B22" s="30" t="s">
         <v>264</v>
       </c>
@@ -9513,7 +9513,7 @@
       <c r="S22" s="27"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="157"/>
+      <c r="A23" s="165"/>
       <c r="B23" s="30" t="s">
         <v>265</v>
       </c>
@@ -9612,10 +9612,10 @@
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="39"/>
-      <c r="F27" s="161" t="s">
+      <c r="F27" s="150" t="s">
         <v>232</v>
       </c>
-      <c r="G27" s="161"/>
+      <c r="G27" s="150"/>
       <c r="H27" s="45"/>
       <c r="K27" s="57" t="s">
         <v>280</v>
@@ -9627,7 +9627,7 @@
       <c r="C28" s="12"/>
       <c r="D28" s="32"/>
       <c r="E28" s="39"/>
-      <c r="F28" s="153" t="s">
+      <c r="F28" s="161" t="s">
         <v>233</v>
       </c>
       <c r="G28" s="41" t="s">
@@ -9661,7 +9661,7 @@
       <c r="C29" s="12"/>
       <c r="D29" s="32"/>
       <c r="E29" s="27"/>
-      <c r="F29" s="154"/>
+      <c r="F29" s="162"/>
       <c r="G29" s="40" t="s">
         <v>235</v>
       </c>
@@ -10011,10 +10011,10 @@
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C49" s="58"/>
       <c r="G49" s="59"/>
-      <c r="H49" s="158">
+      <c r="H49" s="147">
         <v>325000</v>
       </c>
-      <c r="I49" s="159"/>
+      <c r="I49" s="148"/>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E53" s="4" t="s">
@@ -10023,6 +10023,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="F27:G27"/>
@@ -10030,12 +10036,6 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A20:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -11475,6 +11475,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A48:B48"/>
@@ -11487,18 +11499,6 @@
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -12959,7 +12959,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/1 MONTH CREDIT.xlsx
+++ b/1 MONTH CREDIT.xlsx
@@ -13557,6 +13557,9 @@
       <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>1</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="12"/>

--- a/1 MONTH CREDIT.xlsx
+++ b/1 MONTH CREDIT.xlsx
@@ -3298,30 +3298,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3353,6 +3329,30 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8964,34 +8964,34 @@
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
-      <c r="I3" s="149" t="s">
+      <c r="I3" s="160" t="s">
         <v>231</v>
       </c>
-      <c r="J3" s="149"/>
+      <c r="J3" s="160"/>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="156" t="s">
+      <c r="A4" s="148" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="156"/>
+      <c r="B4" s="148"/>
       <c r="C4" s="47"/>
       <c r="D4" s="29"/>
-      <c r="E4" s="157" t="s">
+      <c r="E4" s="149" t="s">
         <v>230</v>
       </c>
-      <c r="F4" s="157"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151"/>
-      <c r="M4" s="155"/>
-      <c r="N4" s="155"/>
-      <c r="O4" s="155"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="162"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="162"/>
+      <c r="M4" s="147"/>
+      <c r="N4" s="147"/>
+      <c r="O4" s="147"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="158" t="s">
+      <c r="A5" s="150" t="s">
         <v>240</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -9035,7 +9035,7 @@
       <c r="S5" s="29"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="159"/>
+      <c r="A6" s="151"/>
       <c r="B6" s="30" t="s">
         <v>242</v>
       </c>
@@ -9069,7 +9069,7 @@
       <c r="S6" s="27"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="160"/>
+      <c r="A7" s="152"/>
       <c r="B7" s="31" t="s">
         <v>243</v>
       </c>
@@ -9158,7 +9158,7 @@
       <c r="S9" s="27"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="152" t="s">
+      <c r="A10" s="163" t="s">
         <v>248</v>
       </c>
       <c r="B10" s="30" t="s">
@@ -9186,7 +9186,7 @@
       <c r="S10" s="27"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="154"/>
+      <c r="A11" s="165"/>
       <c r="B11" s="31" t="s">
         <v>32</v>
       </c>
@@ -9216,7 +9216,7 @@
       <c r="S11" s="27"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="152" t="s">
+      <c r="A12" s="163" t="s">
         <v>250</v>
       </c>
       <c r="B12" s="30" t="s">
@@ -9246,7 +9246,7 @@
       <c r="S12" s="27"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="153"/>
+      <c r="A13" s="164"/>
       <c r="B13" s="31" t="s">
         <v>183</v>
       </c>
@@ -9272,7 +9272,7 @@
       <c r="S13" s="27"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="154"/>
+      <c r="A14" s="165"/>
       <c r="B14" s="31" t="s">
         <v>90</v>
       </c>
@@ -9354,7 +9354,7 @@
       <c r="S16" s="27"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="152" t="s">
+      <c r="A17" s="163" t="s">
         <v>255</v>
       </c>
       <c r="B17" s="30" t="s">
@@ -9382,7 +9382,7 @@
       <c r="S17" s="27"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="153"/>
+      <c r="A18" s="164"/>
       <c r="B18" s="31" t="s">
         <v>249</v>
       </c>
@@ -9408,7 +9408,7 @@
       <c r="S18" s="27"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="154"/>
+      <c r="A19" s="165"/>
       <c r="B19" s="31" t="s">
         <v>14</v>
       </c>
@@ -9434,7 +9434,7 @@
       <c r="S19" s="27"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="163" t="s">
+      <c r="A20" s="155" t="s">
         <v>263</v>
       </c>
       <c r="B20" s="30" t="s">
@@ -9462,7 +9462,7 @@
       <c r="S20" s="27"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="164"/>
+      <c r="A21" s="156"/>
       <c r="B21" s="30" t="s">
         <v>215</v>
       </c>
@@ -9487,7 +9487,7 @@
       <c r="S21" s="27"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="164"/>
+      <c r="A22" s="156"/>
       <c r="B22" s="30" t="s">
         <v>264</v>
       </c>
@@ -9513,7 +9513,7 @@
       <c r="S22" s="27"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="165"/>
+      <c r="A23" s="157"/>
       <c r="B23" s="30" t="s">
         <v>265</v>
       </c>
@@ -9612,10 +9612,10 @@
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="39"/>
-      <c r="F27" s="150" t="s">
+      <c r="F27" s="161" t="s">
         <v>232</v>
       </c>
-      <c r="G27" s="150"/>
+      <c r="G27" s="161"/>
       <c r="H27" s="45"/>
       <c r="K27" s="57" t="s">
         <v>280</v>
@@ -9627,7 +9627,7 @@
       <c r="C28" s="12"/>
       <c r="D28" s="32"/>
       <c r="E28" s="39"/>
-      <c r="F28" s="161" t="s">
+      <c r="F28" s="153" t="s">
         <v>233</v>
       </c>
       <c r="G28" s="41" t="s">
@@ -9661,7 +9661,7 @@
       <c r="C29" s="12"/>
       <c r="D29" s="32"/>
       <c r="E29" s="27"/>
-      <c r="F29" s="162"/>
+      <c r="F29" s="154"/>
       <c r="G29" s="40" t="s">
         <v>235</v>
       </c>
@@ -10011,10 +10011,10 @@
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C49" s="58"/>
       <c r="G49" s="59"/>
-      <c r="H49" s="147">
+      <c r="H49" s="158">
         <v>325000</v>
       </c>
-      <c r="I49" s="148"/>
+      <c r="I49" s="159"/>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E53" s="4" t="s">
@@ -10023,12 +10023,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="F27:G27"/>
@@ -10036,6 +10030,12 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A17:A19"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A20:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -11475,6 +11475,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="L1:M1"/>
@@ -11487,18 +11499,6 @@
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -12959,7 +12959,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13558,7 +13558,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>

--- a/1 MONTH CREDIT.xlsx
+++ b/1 MONTH CREDIT.xlsx
@@ -3298,6 +3298,30 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3329,30 +3353,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8964,34 +8964,34 @@
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
-      <c r="I3" s="160" t="s">
+      <c r="I3" s="149" t="s">
         <v>231</v>
       </c>
-      <c r="J3" s="160"/>
+      <c r="J3" s="149"/>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="156" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="148"/>
+      <c r="B4" s="156"/>
       <c r="C4" s="47"/>
       <c r="D4" s="29"/>
-      <c r="E4" s="149" t="s">
+      <c r="E4" s="157" t="s">
         <v>230</v>
       </c>
-      <c r="F4" s="149"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="M4" s="147"/>
-      <c r="N4" s="147"/>
-      <c r="O4" s="147"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="155"/>
+      <c r="O4" s="155"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="150" t="s">
+      <c r="A5" s="158" t="s">
         <v>240</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -9035,7 +9035,7 @@
       <c r="S5" s="29"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="151"/>
+      <c r="A6" s="159"/>
       <c r="B6" s="30" t="s">
         <v>242</v>
       </c>
@@ -9069,7 +9069,7 @@
       <c r="S6" s="27"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="152"/>
+      <c r="A7" s="160"/>
       <c r="B7" s="31" t="s">
         <v>243</v>
       </c>
@@ -9158,7 +9158,7 @@
       <c r="S9" s="27"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="163" t="s">
+      <c r="A10" s="152" t="s">
         <v>248</v>
       </c>
       <c r="B10" s="30" t="s">
@@ -9186,7 +9186,7 @@
       <c r="S10" s="27"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="165"/>
+      <c r="A11" s="154"/>
       <c r="B11" s="31" t="s">
         <v>32</v>
       </c>
@@ -9216,7 +9216,7 @@
       <c r="S11" s="27"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="163" t="s">
+      <c r="A12" s="152" t="s">
         <v>250</v>
       </c>
       <c r="B12" s="30" t="s">
@@ -9246,7 +9246,7 @@
       <c r="S12" s="27"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="164"/>
+      <c r="A13" s="153"/>
       <c r="B13" s="31" t="s">
         <v>183</v>
       </c>
@@ -9272,7 +9272,7 @@
       <c r="S13" s="27"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="165"/>
+      <c r="A14" s="154"/>
       <c r="B14" s="31" t="s">
         <v>90</v>
       </c>
@@ -9354,7 +9354,7 @@
       <c r="S16" s="27"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="163" t="s">
+      <c r="A17" s="152" t="s">
         <v>255</v>
       </c>
       <c r="B17" s="30" t="s">
@@ -9382,7 +9382,7 @@
       <c r="S17" s="27"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="164"/>
+      <c r="A18" s="153"/>
       <c r="B18" s="31" t="s">
         <v>249</v>
       </c>
@@ -9408,7 +9408,7 @@
       <c r="S18" s="27"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="165"/>
+      <c r="A19" s="154"/>
       <c r="B19" s="31" t="s">
         <v>14</v>
       </c>
@@ -9434,7 +9434,7 @@
       <c r="S19" s="27"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="155" t="s">
+      <c r="A20" s="163" t="s">
         <v>263</v>
       </c>
       <c r="B20" s="30" t="s">
@@ -9462,7 +9462,7 @@
       <c r="S20" s="27"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="156"/>
+      <c r="A21" s="164"/>
       <c r="B21" s="30" t="s">
         <v>215</v>
       </c>
@@ -9487,7 +9487,7 @@
       <c r="S21" s="27"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="156"/>
+      <c r="A22" s="164"/>
       <c r="B22" s="30" t="s">
         <v>264</v>
       </c>
@@ -9513,7 +9513,7 @@
       <c r="S22" s="27"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="157"/>
+      <c r="A23" s="165"/>
       <c r="B23" s="30" t="s">
         <v>265</v>
       </c>
@@ -9612,10 +9612,10 @@
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="39"/>
-      <c r="F27" s="161" t="s">
+      <c r="F27" s="150" t="s">
         <v>232</v>
       </c>
-      <c r="G27" s="161"/>
+      <c r="G27" s="150"/>
       <c r="H27" s="45"/>
       <c r="K27" s="57" t="s">
         <v>280</v>
@@ -9627,7 +9627,7 @@
       <c r="C28" s="12"/>
       <c r="D28" s="32"/>
       <c r="E28" s="39"/>
-      <c r="F28" s="153" t="s">
+      <c r="F28" s="161" t="s">
         <v>233</v>
       </c>
       <c r="G28" s="41" t="s">
@@ -9661,7 +9661,7 @@
       <c r="C29" s="12"/>
       <c r="D29" s="32"/>
       <c r="E29" s="27"/>
-      <c r="F29" s="154"/>
+      <c r="F29" s="162"/>
       <c r="G29" s="40" t="s">
         <v>235</v>
       </c>
@@ -10011,10 +10011,10 @@
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C49" s="58"/>
       <c r="G49" s="59"/>
-      <c r="H49" s="158">
+      <c r="H49" s="147">
         <v>325000</v>
       </c>
-      <c r="I49" s="159"/>
+      <c r="I49" s="148"/>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E53" s="4" t="s">
@@ -10023,6 +10023,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="F27:G27"/>
@@ -10030,12 +10036,6 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A20:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -11475,6 +11475,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A48:B48"/>
@@ -11487,18 +11499,6 @@
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -12958,8 +12958,8 @@
   </sheetPr>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13557,9 +13557,6 @@
       <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D24">
-        <v>2</v>
-      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="12"/>

--- a/1 MONTH CREDIT.xlsx
+++ b/1 MONTH CREDIT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="870" windowWidth="18195" windowHeight="11025" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="870" windowWidth="18195" windowHeight="11025" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Oct;2017" sheetId="1" r:id="rId1"/>
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="705">
   <si>
     <t>Date</t>
   </si>
@@ -2378,6 +2378,12 @@
   </si>
   <si>
     <t>Paid 9.8.2018</t>
+  </si>
+  <si>
+    <t>9.8.2018</t>
+  </si>
+  <si>
+    <t>4E-6978/Hino</t>
   </si>
 </sst>
 </file>
@@ -3040,7 +3046,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3298,30 +3304,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3353,6 +3335,30 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3395,6 +3401,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5639,9 +5648,9 @@
   </sheetPr>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6061,10 +6070,18 @@
       <c r="A22" s="101">
         <v>21</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
+      <c r="B22" s="101" t="s">
+        <v>703</v>
+      </c>
+      <c r="C22" s="180" t="s">
+        <v>704</v>
+      </c>
+      <c r="D22" s="101" t="s">
+        <v>677</v>
+      </c>
+      <c r="E22" s="101">
+        <v>8000</v>
+      </c>
       <c r="F22" s="122"/>
     </row>
     <row r="23" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -8964,34 +8981,34 @@
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
-      <c r="I3" s="149" t="s">
+      <c r="I3" s="160" t="s">
         <v>231</v>
       </c>
-      <c r="J3" s="149"/>
+      <c r="J3" s="160"/>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="156" t="s">
+      <c r="A4" s="148" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="156"/>
+      <c r="B4" s="148"/>
       <c r="C4" s="47"/>
       <c r="D4" s="29"/>
-      <c r="E4" s="157" t="s">
+      <c r="E4" s="149" t="s">
         <v>230</v>
       </c>
-      <c r="F4" s="157"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151"/>
-      <c r="M4" s="155"/>
-      <c r="N4" s="155"/>
-      <c r="O4" s="155"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="162"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="162"/>
+      <c r="M4" s="147"/>
+      <c r="N4" s="147"/>
+      <c r="O4" s="147"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="158" t="s">
+      <c r="A5" s="150" t="s">
         <v>240</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -9035,7 +9052,7 @@
       <c r="S5" s="29"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="159"/>
+      <c r="A6" s="151"/>
       <c r="B6" s="30" t="s">
         <v>242</v>
       </c>
@@ -9069,7 +9086,7 @@
       <c r="S6" s="27"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="160"/>
+      <c r="A7" s="152"/>
       <c r="B7" s="31" t="s">
         <v>243</v>
       </c>
@@ -9158,7 +9175,7 @@
       <c r="S9" s="27"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="152" t="s">
+      <c r="A10" s="163" t="s">
         <v>248</v>
       </c>
       <c r="B10" s="30" t="s">
@@ -9186,7 +9203,7 @@
       <c r="S10" s="27"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="154"/>
+      <c r="A11" s="165"/>
       <c r="B11" s="31" t="s">
         <v>32</v>
       </c>
@@ -9216,7 +9233,7 @@
       <c r="S11" s="27"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="152" t="s">
+      <c r="A12" s="163" t="s">
         <v>250</v>
       </c>
       <c r="B12" s="30" t="s">
@@ -9246,7 +9263,7 @@
       <c r="S12" s="27"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="153"/>
+      <c r="A13" s="164"/>
       <c r="B13" s="31" t="s">
         <v>183</v>
       </c>
@@ -9272,7 +9289,7 @@
       <c r="S13" s="27"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="154"/>
+      <c r="A14" s="165"/>
       <c r="B14" s="31" t="s">
         <v>90</v>
       </c>
@@ -9354,7 +9371,7 @@
       <c r="S16" s="27"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="152" t="s">
+      <c r="A17" s="163" t="s">
         <v>255</v>
       </c>
       <c r="B17" s="30" t="s">
@@ -9382,7 +9399,7 @@
       <c r="S17" s="27"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="153"/>
+      <c r="A18" s="164"/>
       <c r="B18" s="31" t="s">
         <v>249</v>
       </c>
@@ -9408,7 +9425,7 @@
       <c r="S18" s="27"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="154"/>
+      <c r="A19" s="165"/>
       <c r="B19" s="31" t="s">
         <v>14</v>
       </c>
@@ -9434,7 +9451,7 @@
       <c r="S19" s="27"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="163" t="s">
+      <c r="A20" s="155" t="s">
         <v>263</v>
       </c>
       <c r="B20" s="30" t="s">
@@ -9462,7 +9479,7 @@
       <c r="S20" s="27"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="164"/>
+      <c r="A21" s="156"/>
       <c r="B21" s="30" t="s">
         <v>215</v>
       </c>
@@ -9487,7 +9504,7 @@
       <c r="S21" s="27"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="164"/>
+      <c r="A22" s="156"/>
       <c r="B22" s="30" t="s">
         <v>264</v>
       </c>
@@ -9513,7 +9530,7 @@
       <c r="S22" s="27"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="165"/>
+      <c r="A23" s="157"/>
       <c r="B23" s="30" t="s">
         <v>265</v>
       </c>
@@ -9612,10 +9629,10 @@
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="39"/>
-      <c r="F27" s="150" t="s">
+      <c r="F27" s="161" t="s">
         <v>232</v>
       </c>
-      <c r="G27" s="150"/>
+      <c r="G27" s="161"/>
       <c r="H27" s="45"/>
       <c r="K27" s="57" t="s">
         <v>280</v>
@@ -9627,7 +9644,7 @@
       <c r="C28" s="12"/>
       <c r="D28" s="32"/>
       <c r="E28" s="39"/>
-      <c r="F28" s="161" t="s">
+      <c r="F28" s="153" t="s">
         <v>233</v>
       </c>
       <c r="G28" s="41" t="s">
@@ -9661,7 +9678,7 @@
       <c r="C29" s="12"/>
       <c r="D29" s="32"/>
       <c r="E29" s="27"/>
-      <c r="F29" s="162"/>
+      <c r="F29" s="154"/>
       <c r="G29" s="40" t="s">
         <v>235</v>
       </c>
@@ -10011,10 +10028,10 @@
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C49" s="58"/>
       <c r="G49" s="59"/>
-      <c r="H49" s="147">
+      <c r="H49" s="158">
         <v>325000</v>
       </c>
-      <c r="I49" s="148"/>
+      <c r="I49" s="159"/>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E53" s="4" t="s">
@@ -10023,12 +10040,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="F27:G27"/>
@@ -10036,6 +10047,12 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A17:A19"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A20:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -11475,6 +11492,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="L1:M1"/>
@@ -11487,18 +11516,6 @@
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -12958,7 +12975,7 @@
   </sheetPr>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>

--- a/1 MONTH CREDIT.xlsx
+++ b/1 MONTH CREDIT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="870" windowWidth="18195" windowHeight="11025" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="870" windowWidth="18195" windowHeight="11025" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Oct;2017" sheetId="1" r:id="rId1"/>
@@ -3286,6 +3286,9 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3303,6 +3306,30 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3335,30 +3362,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3401,9 +3404,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3727,18 +3727,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
     </row>
     <row r="2" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -4175,7 +4175,7 @@
   </sheetPr>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L33" sqref="L33"/>
     </sheetView>
@@ -5648,8 +5648,8 @@
   </sheetPr>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -6073,7 +6073,7 @@
       <c r="B22" s="101" t="s">
         <v>703</v>
       </c>
-      <c r="C22" s="180" t="s">
+      <c r="C22" s="141" t="s">
         <v>704</v>
       </c>
       <c r="D22" s="101" t="s">
@@ -6581,11 +6581,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="180" t="s">
         <v>697</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
     </row>
     <row r="2" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="138" t="s">
@@ -6768,18 +6768,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
     </row>
     <row r="2" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
     </row>
     <row r="3" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
@@ -7159,11 +7159,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
     </row>
     <row r="2" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -7525,21 +7525,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="E1" s="145" t="s">
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="E1" s="146" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="J1" s="146" t="s">
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="J1" s="147" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
     </row>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -8203,21 +8203,21 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="144" t="s">
+      <c r="A4" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="144"/>
-      <c r="C4" s="144"/>
-      <c r="E4" s="145" t="s">
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="E4" s="146" t="s">
         <v>129</v>
       </c>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="J4" s="146" t="s">
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="J4" s="147" t="s">
         <v>147</v>
       </c>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
     </row>
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
@@ -8981,34 +8981,34 @@
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
-      <c r="I3" s="160" t="s">
+      <c r="I3" s="150" t="s">
         <v>231</v>
       </c>
-      <c r="J3" s="160"/>
+      <c r="J3" s="150"/>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="157" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="148"/>
+      <c r="B4" s="157"/>
       <c r="C4" s="47"/>
       <c r="D4" s="29"/>
-      <c r="E4" s="149" t="s">
+      <c r="E4" s="158" t="s">
         <v>230</v>
       </c>
-      <c r="F4" s="149"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="M4" s="147"/>
-      <c r="N4" s="147"/>
-      <c r="O4" s="147"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="M4" s="156"/>
+      <c r="N4" s="156"/>
+      <c r="O4" s="156"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="150" t="s">
+      <c r="A5" s="159" t="s">
         <v>240</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -9052,7 +9052,7 @@
       <c r="S5" s="29"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="151"/>
+      <c r="A6" s="160"/>
       <c r="B6" s="30" t="s">
         <v>242</v>
       </c>
@@ -9086,7 +9086,7 @@
       <c r="S6" s="27"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="152"/>
+      <c r="A7" s="161"/>
       <c r="B7" s="31" t="s">
         <v>243</v>
       </c>
@@ -9175,7 +9175,7 @@
       <c r="S9" s="27"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="163" t="s">
+      <c r="A10" s="153" t="s">
         <v>248</v>
       </c>
       <c r="B10" s="30" t="s">
@@ -9203,7 +9203,7 @@
       <c r="S10" s="27"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="165"/>
+      <c r="A11" s="155"/>
       <c r="B11" s="31" t="s">
         <v>32</v>
       </c>
@@ -9233,7 +9233,7 @@
       <c r="S11" s="27"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="163" t="s">
+      <c r="A12" s="153" t="s">
         <v>250</v>
       </c>
       <c r="B12" s="30" t="s">
@@ -9263,7 +9263,7 @@
       <c r="S12" s="27"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="164"/>
+      <c r="A13" s="154"/>
       <c r="B13" s="31" t="s">
         <v>183</v>
       </c>
@@ -9289,7 +9289,7 @@
       <c r="S13" s="27"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="165"/>
+      <c r="A14" s="155"/>
       <c r="B14" s="31" t="s">
         <v>90</v>
       </c>
@@ -9371,7 +9371,7 @@
       <c r="S16" s="27"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="163" t="s">
+      <c r="A17" s="153" t="s">
         <v>255</v>
       </c>
       <c r="B17" s="30" t="s">
@@ -9399,7 +9399,7 @@
       <c r="S17" s="27"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="164"/>
+      <c r="A18" s="154"/>
       <c r="B18" s="31" t="s">
         <v>249</v>
       </c>
@@ -9425,7 +9425,7 @@
       <c r="S18" s="27"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="165"/>
+      <c r="A19" s="155"/>
       <c r="B19" s="31" t="s">
         <v>14</v>
       </c>
@@ -9451,7 +9451,7 @@
       <c r="S19" s="27"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="155" t="s">
+      <c r="A20" s="164" t="s">
         <v>263</v>
       </c>
       <c r="B20" s="30" t="s">
@@ -9479,7 +9479,7 @@
       <c r="S20" s="27"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="156"/>
+      <c r="A21" s="165"/>
       <c r="B21" s="30" t="s">
         <v>215</v>
       </c>
@@ -9504,7 +9504,7 @@
       <c r="S21" s="27"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="156"/>
+      <c r="A22" s="165"/>
       <c r="B22" s="30" t="s">
         <v>264</v>
       </c>
@@ -9530,7 +9530,7 @@
       <c r="S22" s="27"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="157"/>
+      <c r="A23" s="166"/>
       <c r="B23" s="30" t="s">
         <v>265</v>
       </c>
@@ -9629,10 +9629,10 @@
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="39"/>
-      <c r="F27" s="161" t="s">
+      <c r="F27" s="151" t="s">
         <v>232</v>
       </c>
-      <c r="G27" s="161"/>
+      <c r="G27" s="151"/>
       <c r="H27" s="45"/>
       <c r="K27" s="57" t="s">
         <v>280</v>
@@ -9644,7 +9644,7 @@
       <c r="C28" s="12"/>
       <c r="D28" s="32"/>
       <c r="E28" s="39"/>
-      <c r="F28" s="153" t="s">
+      <c r="F28" s="162" t="s">
         <v>233</v>
       </c>
       <c r="G28" s="41" t="s">
@@ -9678,7 +9678,7 @@
       <c r="C29" s="12"/>
       <c r="D29" s="32"/>
       <c r="E29" s="27"/>
-      <c r="F29" s="154"/>
+      <c r="F29" s="163"/>
       <c r="G29" s="40" t="s">
         <v>235</v>
       </c>
@@ -10028,10 +10028,10 @@
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C49" s="58"/>
       <c r="G49" s="59"/>
-      <c r="H49" s="158">
+      <c r="H49" s="148">
         <v>325000</v>
       </c>
-      <c r="I49" s="159"/>
+      <c r="I49" s="149"/>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E53" s="4" t="s">
@@ -10040,6 +10040,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="F27:G27"/>
@@ -10047,12 +10053,6 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A20:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -10085,21 +10085,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="169" t="s">
         <v>304</v>
       </c>
-      <c r="C1" s="168"/>
+      <c r="C1" s="169"/>
       <c r="G1" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="L1" s="168" t="s">
+      <c r="L1" s="169" t="s">
         <v>305</v>
       </c>
-      <c r="M1" s="168"/>
-      <c r="Q1" s="168" t="s">
+      <c r="M1" s="169"/>
+      <c r="Q1" s="169" t="s">
         <v>306</v>
       </c>
-      <c r="R1" s="168"/>
+      <c r="R1" s="169"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
@@ -11086,16 +11086,16 @@
       <c r="S30" s="2"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C36" s="168" t="s">
+      <c r="C36" s="169" t="s">
         <v>232</v>
       </c>
-      <c r="D36" s="168"/>
+      <c r="D36" s="169"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="166" t="s">
+      <c r="A37" s="167" t="s">
         <v>308</v>
       </c>
-      <c r="B37" s="167"/>
+      <c r="B37" s="168"/>
       <c r="C37" s="2" t="s">
         <v>309</v>
       </c>
@@ -11115,8 +11115,8 @@
       <c r="N37" s="76"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="166"/>
-      <c r="B38" s="167"/>
+      <c r="A38" s="167"/>
+      <c r="B38" s="168"/>
       <c r="C38" s="10" t="s">
         <v>311</v>
       </c>
@@ -11136,10 +11136,10 @@
       <c r="N38" s="76"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="166" t="s">
+      <c r="A39" s="167" t="s">
         <v>312</v>
       </c>
-      <c r="B39" s="167"/>
+      <c r="B39" s="168"/>
       <c r="C39" s="2" t="s">
         <v>313</v>
       </c>
@@ -11159,10 +11159,10 @@
       <c r="N39" s="76"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="169" t="s">
+      <c r="A40" s="170" t="s">
         <v>339</v>
       </c>
-      <c r="B40" s="170"/>
+      <c r="B40" s="171"/>
       <c r="C40" s="2" t="s">
         <v>316</v>
       </c>
@@ -11182,10 +11182,10 @@
       <c r="N40" s="76"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="166" t="s">
+      <c r="A41" s="167" t="s">
         <v>321</v>
       </c>
-      <c r="B41" s="167"/>
+      <c r="B41" s="168"/>
       <c r="C41" s="2" t="s">
         <v>320</v>
       </c>
@@ -11205,10 +11205,10 @@
       <c r="N41" s="76"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="166" t="s">
+      <c r="A42" s="167" t="s">
         <v>331</v>
       </c>
-      <c r="B42" s="167"/>
+      <c r="B42" s="168"/>
       <c r="C42" s="2" t="s">
         <v>332</v>
       </c>
@@ -11225,10 +11225,10 @@
       <c r="N42" s="76"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="166" t="s">
+      <c r="A43" s="167" t="s">
         <v>335</v>
       </c>
-      <c r="B43" s="167"/>
+      <c r="B43" s="168"/>
       <c r="C43" s="2" t="s">
         <v>336</v>
       </c>
@@ -11245,10 +11245,10 @@
       <c r="N43" s="76"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="166" t="s">
+      <c r="A44" s="167" t="s">
         <v>341</v>
       </c>
-      <c r="B44" s="167"/>
+      <c r="B44" s="168"/>
       <c r="C44" s="2" t="s">
         <v>342</v>
       </c>
@@ -11308,10 +11308,10 @@
       <c r="N46" s="76"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="166" t="s">
+      <c r="A47" s="167" t="s">
         <v>346</v>
       </c>
-      <c r="B47" s="167"/>
+      <c r="B47" s="168"/>
       <c r="C47" s="2" t="s">
         <v>347</v>
       </c>
@@ -11326,10 +11326,10 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="166" t="s">
+      <c r="A48" s="167" t="s">
         <v>351</v>
       </c>
-      <c r="B48" s="167"/>
+      <c r="B48" s="168"/>
       <c r="C48" s="2" t="s">
         <v>350</v>
       </c>
@@ -11341,10 +11341,10 @@
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A49" s="166" t="s">
+      <c r="A49" s="167" t="s">
         <v>362</v>
       </c>
-      <c r="B49" s="167"/>
+      <c r="B49" s="168"/>
       <c r="C49" s="2" t="s">
         <v>372</v>
       </c>
@@ -11356,10 +11356,10 @@
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" s="166" t="s">
+      <c r="A50" s="167" t="s">
         <v>371</v>
       </c>
-      <c r="B50" s="167"/>
+      <c r="B50" s="168"/>
       <c r="C50" s="10" t="s">
         <v>375</v>
       </c>
@@ -11371,10 +11371,10 @@
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" s="166" t="s">
+      <c r="A51" s="167" t="s">
         <v>378</v>
       </c>
-      <c r="B51" s="167"/>
+      <c r="B51" s="168"/>
       <c r="C51" s="2" t="s">
         <v>379</v>
       </c>
@@ -11386,10 +11386,10 @@
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="166" t="s">
+      <c r="A52" s="167" t="s">
         <v>386</v>
       </c>
-      <c r="B52" s="167"/>
+      <c r="B52" s="168"/>
       <c r="C52" s="2" t="s">
         <v>387</v>
       </c>
@@ -11407,8 +11407,8 @@
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A53" s="166"/>
-      <c r="B53" s="167"/>
+      <c r="A53" s="167"/>
+      <c r="B53" s="168"/>
       <c r="C53" s="2"/>
       <c r="D53" s="80" t="s">
         <v>388</v>
@@ -11433,8 +11433,8 @@
       <c r="V53" s="76"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="166"/>
-      <c r="B54" s="167"/>
+      <c r="A54" s="167"/>
+      <c r="B54" s="168"/>
       <c r="C54" s="2"/>
       <c r="D54" s="78"/>
       <c r="E54" s="77"/>
@@ -11457,8 +11457,8 @@
       <c r="V54" s="76"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="166"/>
-      <c r="B55" s="167"/>
+      <c r="A55" s="167"/>
+      <c r="B55" s="168"/>
       <c r="C55" s="2"/>
       <c r="D55" s="75"/>
       <c r="E55" s="75"/>
@@ -11466,23 +11466,23 @@
       <c r="I55" s="76"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" s="166"/>
-      <c r="B56" s="167"/>
+      <c r="A56" s="167"/>
+      <c r="B56" s="168"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="H56" s="76"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A57" s="166"/>
-      <c r="B57" s="167"/>
+      <c r="A57" s="167"/>
+      <c r="B57" s="168"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A58" s="166"/>
-      <c r="B58" s="167"/>
+      <c r="A58" s="167"/>
+      <c r="B58" s="168"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2">
@@ -11492,6 +11492,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A48:B48"/>
@@ -11504,18 +11516,6 @@
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -12221,8 +12221,8 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="171"/>
-      <c r="D30" s="172"/>
+      <c r="C30" s="172"/>
+      <c r="D30" s="173"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="P34" s="11"/>
@@ -12313,16 +12313,16 @@
       <c r="S37" s="2"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="173" t="s">
+      <c r="A38" s="174" t="s">
         <v>392</v>
       </c>
       <c r="B38" s="73" t="s">
         <v>303</v>
       </c>
-      <c r="C38" s="173" t="s">
+      <c r="C38" s="174" t="s">
         <v>302</v>
       </c>
-      <c r="D38" s="173"/>
+      <c r="D38" s="174"/>
       <c r="G38" s="2" t="s">
         <v>398</v>
       </c>
@@ -12358,10 +12358,10 @@
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="174"/>
+      <c r="A39" s="175"/>
       <c r="B39" s="73"/>
-      <c r="C39" s="174"/>
-      <c r="D39" s="174"/>
+      <c r="C39" s="175"/>
+      <c r="D39" s="175"/>
       <c r="G39" s="2" t="s">
         <v>409</v>
       </c>
@@ -12995,36 +12995,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="176" t="s">
         <v>487</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="179" t="s">
         <v>484</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="E2" s="145" t="s">
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="E2" s="146" t="s">
         <v>485</v>
       </c>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="I2" s="146" t="s">
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="I2" s="147" t="s">
         <v>147</v>
       </c>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
     </row>
     <row r="3" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="87" t="s">
@@ -13582,16 +13582,16 @@
       <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="176" t="s">
+      <c r="E25" s="177" t="s">
         <v>483</v>
       </c>
-      <c r="F25" s="176"/>
-      <c r="G25" s="176"/>
-      <c r="I25" s="177" t="s">
+      <c r="F25" s="177"/>
+      <c r="G25" s="177"/>
+      <c r="I25" s="178" t="s">
         <v>505</v>
       </c>
-      <c r="J25" s="177"/>
-      <c r="K25" s="177"/>
+      <c r="J25" s="178"/>
+      <c r="K25" s="178"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">

--- a/1 MONTH CREDIT.xlsx
+++ b/1 MONTH CREDIT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="870" windowWidth="18195" windowHeight="11025" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="870" windowWidth="18195" windowHeight="11025" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Oct;2017" sheetId="1" r:id="rId1"/>
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="707">
   <si>
     <t>Date</t>
   </si>
@@ -2384,6 +2384,12 @@
   </si>
   <si>
     <t>4E-6978/Hino</t>
+  </si>
+  <si>
+    <t>Paid 11.8.2018</t>
+  </si>
+  <si>
+    <t>Discount-400000</t>
   </si>
 </sst>
 </file>
@@ -3307,30 +3313,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3362,6 +3344,30 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4175,9 +4181,9 @@
   </sheetPr>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L33" sqref="L33"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4188,7 +4194,8 @@
     <col min="4" max="4" width="22.7109375" style="120" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="120" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" style="126" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="120"/>
+    <col min="7" max="7" width="18.140625" style="120" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="120"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5071,6 +5078,7 @@
         <v>45000</v>
       </c>
       <c r="F45" s="122"/>
+      <c r="H45" s="121"/>
     </row>
     <row r="46" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="101">
@@ -5132,7 +5140,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="101">
         <v>48</v>
       </c>
@@ -5152,7 +5160,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="101">
         <v>49</v>
       </c>
@@ -5170,7 +5178,7 @@
       </c>
       <c r="F50" s="122"/>
     </row>
-    <row r="51" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="101">
         <v>50</v>
       </c>
@@ -5188,7 +5196,7 @@
       </c>
       <c r="F51" s="122"/>
     </row>
-    <row r="52" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="101">
         <v>51</v>
       </c>
@@ -5208,7 +5216,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="101">
         <v>52</v>
       </c>
@@ -5228,7 +5236,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="101">
         <v>51</v>
       </c>
@@ -5244,9 +5252,14 @@
       <c r="E54" s="101">
         <v>942000</v>
       </c>
-      <c r="F54" s="122"/>
-    </row>
-    <row r="55" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="122" t="s">
+        <v>705</v>
+      </c>
+      <c r="G54" s="126" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="101">
         <v>51</v>
       </c>
@@ -5264,7 +5277,7 @@
       </c>
       <c r="F55" s="122"/>
     </row>
-    <row r="56" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="101">
         <v>51</v>
       </c>
@@ -5282,7 +5295,7 @@
       </c>
       <c r="F56" s="122"/>
     </row>
-    <row r="57" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="101"/>
       <c r="B57" s="101"/>
       <c r="C57" s="101"/>
@@ -5290,7 +5303,7 @@
       <c r="E57" s="101"/>
       <c r="F57" s="122"/>
     </row>
-    <row r="58" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="101"/>
       <c r="B58" s="101"/>
       <c r="C58" s="101"/>
@@ -5298,7 +5311,7 @@
       <c r="E58" s="101"/>
       <c r="F58" s="122"/>
     </row>
-    <row r="59" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="101"/>
       <c r="B59" s="101"/>
       <c r="C59" s="101"/>
@@ -5306,7 +5319,7 @@
       <c r="E59" s="101"/>
       <c r="F59" s="122"/>
     </row>
-    <row r="60" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="101"/>
       <c r="B60" s="101"/>
       <c r="C60" s="101"/>
@@ -5314,7 +5327,7 @@
       <c r="E60" s="101"/>
       <c r="F60" s="122"/>
     </row>
-    <row r="61" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="101"/>
       <c r="B61" s="101"/>
       <c r="C61" s="101"/>
@@ -5322,7 +5335,7 @@
       <c r="E61" s="101"/>
       <c r="F61" s="122"/>
     </row>
-    <row r="62" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="101"/>
       <c r="B62" s="101"/>
       <c r="C62" s="101"/>
@@ -5330,7 +5343,7 @@
       <c r="E62" s="101"/>
       <c r="F62" s="122"/>
     </row>
-    <row r="63" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="101"/>
       <c r="B63" s="101"/>
       <c r="C63" s="101"/>
@@ -5338,7 +5351,7 @@
       <c r="E63" s="101"/>
       <c r="F63" s="122"/>
     </row>
-    <row r="64" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="101"/>
       <c r="B64" s="101"/>
       <c r="C64" s="101"/>
@@ -5648,9 +5661,9 @@
   </sheetPr>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomLeft" activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5831,7 +5844,9 @@
       <c r="E9" s="123">
         <v>15500</v>
       </c>
-      <c r="F9" s="122"/>
+      <c r="F9" s="122" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="101">
@@ -6082,7 +6097,9 @@
       <c r="E22" s="101">
         <v>8000</v>
       </c>
-      <c r="F22" s="122"/>
+      <c r="F22" s="122" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="101">
@@ -8981,34 +8998,34 @@
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
-      <c r="I3" s="150" t="s">
+      <c r="I3" s="161" t="s">
         <v>231</v>
       </c>
-      <c r="J3" s="150"/>
+      <c r="J3" s="161"/>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="157" t="s">
+      <c r="A4" s="149" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="157"/>
+      <c r="B4" s="149"/>
       <c r="C4" s="47"/>
       <c r="D4" s="29"/>
-      <c r="E4" s="158" t="s">
+      <c r="E4" s="150" t="s">
         <v>230</v>
       </c>
-      <c r="F4" s="158"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="156"/>
-      <c r="O4" s="156"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
+      <c r="O4" s="148"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="159" t="s">
+      <c r="A5" s="151" t="s">
         <v>240</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -9052,7 +9069,7 @@
       <c r="S5" s="29"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="160"/>
+      <c r="A6" s="152"/>
       <c r="B6" s="30" t="s">
         <v>242</v>
       </c>
@@ -9086,7 +9103,7 @@
       <c r="S6" s="27"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="161"/>
+      <c r="A7" s="153"/>
       <c r="B7" s="31" t="s">
         <v>243</v>
       </c>
@@ -9175,7 +9192,7 @@
       <c r="S9" s="27"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="153" t="s">
+      <c r="A10" s="164" t="s">
         <v>248</v>
       </c>
       <c r="B10" s="30" t="s">
@@ -9203,7 +9220,7 @@
       <c r="S10" s="27"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="155"/>
+      <c r="A11" s="166"/>
       <c r="B11" s="31" t="s">
         <v>32</v>
       </c>
@@ -9233,7 +9250,7 @@
       <c r="S11" s="27"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="153" t="s">
+      <c r="A12" s="164" t="s">
         <v>250</v>
       </c>
       <c r="B12" s="30" t="s">
@@ -9263,7 +9280,7 @@
       <c r="S12" s="27"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="154"/>
+      <c r="A13" s="165"/>
       <c r="B13" s="31" t="s">
         <v>183</v>
       </c>
@@ -9289,7 +9306,7 @@
       <c r="S13" s="27"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="155"/>
+      <c r="A14" s="166"/>
       <c r="B14" s="31" t="s">
         <v>90</v>
       </c>
@@ -9371,7 +9388,7 @@
       <c r="S16" s="27"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="153" t="s">
+      <c r="A17" s="164" t="s">
         <v>255</v>
       </c>
       <c r="B17" s="30" t="s">
@@ -9399,7 +9416,7 @@
       <c r="S17" s="27"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="154"/>
+      <c r="A18" s="165"/>
       <c r="B18" s="31" t="s">
         <v>249</v>
       </c>
@@ -9425,7 +9442,7 @@
       <c r="S18" s="27"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="155"/>
+      <c r="A19" s="166"/>
       <c r="B19" s="31" t="s">
         <v>14</v>
       </c>
@@ -9451,7 +9468,7 @@
       <c r="S19" s="27"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="164" t="s">
+      <c r="A20" s="156" t="s">
         <v>263</v>
       </c>
       <c r="B20" s="30" t="s">
@@ -9479,7 +9496,7 @@
       <c r="S20" s="27"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="165"/>
+      <c r="A21" s="157"/>
       <c r="B21" s="30" t="s">
         <v>215</v>
       </c>
@@ -9504,7 +9521,7 @@
       <c r="S21" s="27"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="165"/>
+      <c r="A22" s="157"/>
       <c r="B22" s="30" t="s">
         <v>264</v>
       </c>
@@ -9530,7 +9547,7 @@
       <c r="S22" s="27"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="166"/>
+      <c r="A23" s="158"/>
       <c r="B23" s="30" t="s">
         <v>265</v>
       </c>
@@ -9629,10 +9646,10 @@
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="39"/>
-      <c r="F27" s="151" t="s">
+      <c r="F27" s="162" t="s">
         <v>232</v>
       </c>
-      <c r="G27" s="151"/>
+      <c r="G27" s="162"/>
       <c r="H27" s="45"/>
       <c r="K27" s="57" t="s">
         <v>280</v>
@@ -9644,7 +9661,7 @@
       <c r="C28" s="12"/>
       <c r="D28" s="32"/>
       <c r="E28" s="39"/>
-      <c r="F28" s="162" t="s">
+      <c r="F28" s="154" t="s">
         <v>233</v>
       </c>
       <c r="G28" s="41" t="s">
@@ -9678,7 +9695,7 @@
       <c r="C29" s="12"/>
       <c r="D29" s="32"/>
       <c r="E29" s="27"/>
-      <c r="F29" s="163"/>
+      <c r="F29" s="155"/>
       <c r="G29" s="40" t="s">
         <v>235</v>
       </c>
@@ -10028,10 +10045,10 @@
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C49" s="58"/>
       <c r="G49" s="59"/>
-      <c r="H49" s="148">
+      <c r="H49" s="159">
         <v>325000</v>
       </c>
-      <c r="I49" s="149"/>
+      <c r="I49" s="160"/>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E53" s="4" t="s">
@@ -10040,12 +10057,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="F27:G27"/>
@@ -10053,6 +10064,12 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A17:A19"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A20:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -11492,6 +11509,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="L1:M1"/>
@@ -11504,18 +11533,6 @@
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/1 MONTH CREDIT.xlsx
+++ b/1 MONTH CREDIT.xlsx
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="711">
   <si>
     <t>Date</t>
   </si>
@@ -2390,6 +2390,18 @@
   </si>
   <si>
     <t>Discount-400000</t>
+  </si>
+  <si>
+    <t>10.8.2018</t>
+  </si>
+  <si>
+    <t>Asean</t>
+  </si>
+  <si>
+    <t>4F-6371/Isuzu</t>
+  </si>
+  <si>
+    <t>12.8.2018</t>
   </si>
 </sst>
 </file>
@@ -3313,6 +3325,30 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3344,30 +3380,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5662,8 +5674,8 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M61" sqref="M61"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6105,10 +6117,18 @@
       <c r="A23" s="101">
         <v>22</v>
       </c>
-      <c r="B23" s="101"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
+      <c r="B23" s="101" t="s">
+        <v>707</v>
+      </c>
+      <c r="C23" s="101" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="101" t="s">
+        <v>708</v>
+      </c>
+      <c r="E23" s="101">
+        <v>1109500</v>
+      </c>
       <c r="F23" s="122"/>
     </row>
     <row r="24" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -6116,9 +6136,15 @@
         <v>23</v>
       </c>
       <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
+      <c r="C24" s="101" t="s">
+        <v>675</v>
+      </c>
+      <c r="D24" s="101" t="s">
+        <v>505</v>
+      </c>
+      <c r="E24" s="101">
+        <v>51000</v>
+      </c>
       <c r="F24" s="122"/>
     </row>
     <row r="25" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -6126,19 +6152,33 @@
         <v>24</v>
       </c>
       <c r="B25" s="101"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
+      <c r="C25" s="101" t="s">
+        <v>709</v>
+      </c>
+      <c r="D25" s="101" t="s">
+        <v>590</v>
+      </c>
+      <c r="E25" s="101">
+        <v>10000</v>
+      </c>
       <c r="F25" s="122"/>
     </row>
     <row r="26" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="101">
         <v>25</v>
       </c>
-      <c r="B26" s="101"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
+      <c r="B26" s="101" t="s">
+        <v>710</v>
+      </c>
+      <c r="C26" s="101" t="s">
+        <v>638</v>
+      </c>
+      <c r="D26" s="101" t="s">
+        <v>595</v>
+      </c>
+      <c r="E26" s="101">
+        <v>33000</v>
+      </c>
       <c r="F26" s="122"/>
     </row>
     <row r="27" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -8998,34 +9038,34 @@
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
-      <c r="I3" s="161" t="s">
+      <c r="I3" s="150" t="s">
         <v>231</v>
       </c>
-      <c r="J3" s="161"/>
+      <c r="J3" s="150"/>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="157" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="149"/>
+      <c r="B4" s="157"/>
       <c r="C4" s="47"/>
       <c r="D4" s="29"/>
-      <c r="E4" s="150" t="s">
+      <c r="E4" s="158" t="s">
         <v>230</v>
       </c>
-      <c r="F4" s="150"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="148"/>
-      <c r="O4" s="148"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="M4" s="156"/>
+      <c r="N4" s="156"/>
+      <c r="O4" s="156"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="151" t="s">
+      <c r="A5" s="159" t="s">
         <v>240</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -9069,7 +9109,7 @@
       <c r="S5" s="29"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="152"/>
+      <c r="A6" s="160"/>
       <c r="B6" s="30" t="s">
         <v>242</v>
       </c>
@@ -9103,7 +9143,7 @@
       <c r="S6" s="27"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="153"/>
+      <c r="A7" s="161"/>
       <c r="B7" s="31" t="s">
         <v>243</v>
       </c>
@@ -9192,7 +9232,7 @@
       <c r="S9" s="27"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="164" t="s">
+      <c r="A10" s="153" t="s">
         <v>248</v>
       </c>
       <c r="B10" s="30" t="s">
@@ -9220,7 +9260,7 @@
       <c r="S10" s="27"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="166"/>
+      <c r="A11" s="155"/>
       <c r="B11" s="31" t="s">
         <v>32</v>
       </c>
@@ -9250,7 +9290,7 @@
       <c r="S11" s="27"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="164" t="s">
+      <c r="A12" s="153" t="s">
         <v>250</v>
       </c>
       <c r="B12" s="30" t="s">
@@ -9280,7 +9320,7 @@
       <c r="S12" s="27"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="165"/>
+      <c r="A13" s="154"/>
       <c r="B13" s="31" t="s">
         <v>183</v>
       </c>
@@ -9306,7 +9346,7 @@
       <c r="S13" s="27"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="166"/>
+      <c r="A14" s="155"/>
       <c r="B14" s="31" t="s">
         <v>90</v>
       </c>
@@ -9388,7 +9428,7 @@
       <c r="S16" s="27"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="164" t="s">
+      <c r="A17" s="153" t="s">
         <v>255</v>
       </c>
       <c r="B17" s="30" t="s">
@@ -9416,7 +9456,7 @@
       <c r="S17" s="27"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="165"/>
+      <c r="A18" s="154"/>
       <c r="B18" s="31" t="s">
         <v>249</v>
       </c>
@@ -9442,7 +9482,7 @@
       <c r="S18" s="27"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="166"/>
+      <c r="A19" s="155"/>
       <c r="B19" s="31" t="s">
         <v>14</v>
       </c>
@@ -9468,7 +9508,7 @@
       <c r="S19" s="27"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="156" t="s">
+      <c r="A20" s="164" t="s">
         <v>263</v>
       </c>
       <c r="B20" s="30" t="s">
@@ -9496,7 +9536,7 @@
       <c r="S20" s="27"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="157"/>
+      <c r="A21" s="165"/>
       <c r="B21" s="30" t="s">
         <v>215</v>
       </c>
@@ -9521,7 +9561,7 @@
       <c r="S21" s="27"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="157"/>
+      <c r="A22" s="165"/>
       <c r="B22" s="30" t="s">
         <v>264</v>
       </c>
@@ -9547,7 +9587,7 @@
       <c r="S22" s="27"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="158"/>
+      <c r="A23" s="166"/>
       <c r="B23" s="30" t="s">
         <v>265</v>
       </c>
@@ -9646,10 +9686,10 @@
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="39"/>
-      <c r="F27" s="162" t="s">
+      <c r="F27" s="151" t="s">
         <v>232</v>
       </c>
-      <c r="G27" s="162"/>
+      <c r="G27" s="151"/>
       <c r="H27" s="45"/>
       <c r="K27" s="57" t="s">
         <v>280</v>
@@ -9661,7 +9701,7 @@
       <c r="C28" s="12"/>
       <c r="D28" s="32"/>
       <c r="E28" s="39"/>
-      <c r="F28" s="154" t="s">
+      <c r="F28" s="162" t="s">
         <v>233</v>
       </c>
       <c r="G28" s="41" t="s">
@@ -9695,7 +9735,7 @@
       <c r="C29" s="12"/>
       <c r="D29" s="32"/>
       <c r="E29" s="27"/>
-      <c r="F29" s="155"/>
+      <c r="F29" s="163"/>
       <c r="G29" s="40" t="s">
         <v>235</v>
       </c>
@@ -10045,10 +10085,10 @@
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C49" s="58"/>
       <c r="G49" s="59"/>
-      <c r="H49" s="159">
+      <c r="H49" s="148">
         <v>325000</v>
       </c>
-      <c r="I49" s="160"/>
+      <c r="I49" s="149"/>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E53" s="4" t="s">
@@ -10057,6 +10097,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="F27:G27"/>
@@ -10064,12 +10110,6 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A20:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -11509,6 +11549,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A48:B48"/>
@@ -11521,18 +11573,6 @@
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/1 MONTH CREDIT.xlsx
+++ b/1 MONTH CREDIT.xlsx
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="712">
   <si>
     <t>Date</t>
   </si>
@@ -2402,6 +2402,9 @@
   </si>
   <si>
     <t>12.8.2018</t>
+  </si>
+  <si>
+    <t>Paid 13.8.2018</t>
   </si>
 </sst>
 </file>
@@ -3325,30 +3328,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3380,6 +3359,30 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4194,8 +4197,8 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5305,7 +5308,9 @@
       <c r="E56" s="101">
         <v>40000</v>
       </c>
-      <c r="F56" s="122"/>
+      <c r="F56" s="122" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="57" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="101"/>
@@ -5674,8 +5679,8 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6161,7 +6166,9 @@
       <c r="E25" s="101">
         <v>10000</v>
       </c>
-      <c r="F25" s="122"/>
+      <c r="F25" s="122" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="101">
@@ -9038,34 +9045,34 @@
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
-      <c r="I3" s="150" t="s">
+      <c r="I3" s="161" t="s">
         <v>231</v>
       </c>
-      <c r="J3" s="150"/>
+      <c r="J3" s="161"/>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="157" t="s">
+      <c r="A4" s="149" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="157"/>
+      <c r="B4" s="149"/>
       <c r="C4" s="47"/>
       <c r="D4" s="29"/>
-      <c r="E4" s="158" t="s">
+      <c r="E4" s="150" t="s">
         <v>230</v>
       </c>
-      <c r="F4" s="158"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="156"/>
-      <c r="O4" s="156"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
+      <c r="O4" s="148"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="159" t="s">
+      <c r="A5" s="151" t="s">
         <v>240</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -9109,7 +9116,7 @@
       <c r="S5" s="29"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="160"/>
+      <c r="A6" s="152"/>
       <c r="B6" s="30" t="s">
         <v>242</v>
       </c>
@@ -9143,7 +9150,7 @@
       <c r="S6" s="27"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="161"/>
+      <c r="A7" s="153"/>
       <c r="B7" s="31" t="s">
         <v>243</v>
       </c>
@@ -9232,7 +9239,7 @@
       <c r="S9" s="27"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="153" t="s">
+      <c r="A10" s="164" t="s">
         <v>248</v>
       </c>
       <c r="B10" s="30" t="s">
@@ -9260,7 +9267,7 @@
       <c r="S10" s="27"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="155"/>
+      <c r="A11" s="166"/>
       <c r="B11" s="31" t="s">
         <v>32</v>
       </c>
@@ -9290,7 +9297,7 @@
       <c r="S11" s="27"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="153" t="s">
+      <c r="A12" s="164" t="s">
         <v>250</v>
       </c>
       <c r="B12" s="30" t="s">
@@ -9320,7 +9327,7 @@
       <c r="S12" s="27"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="154"/>
+      <c r="A13" s="165"/>
       <c r="B13" s="31" t="s">
         <v>183</v>
       </c>
@@ -9346,7 +9353,7 @@
       <c r="S13" s="27"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="155"/>
+      <c r="A14" s="166"/>
       <c r="B14" s="31" t="s">
         <v>90</v>
       </c>
@@ -9428,7 +9435,7 @@
       <c r="S16" s="27"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="153" t="s">
+      <c r="A17" s="164" t="s">
         <v>255</v>
       </c>
       <c r="B17" s="30" t="s">
@@ -9456,7 +9463,7 @@
       <c r="S17" s="27"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="154"/>
+      <c r="A18" s="165"/>
       <c r="B18" s="31" t="s">
         <v>249</v>
       </c>
@@ -9482,7 +9489,7 @@
       <c r="S18" s="27"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="155"/>
+      <c r="A19" s="166"/>
       <c r="B19" s="31" t="s">
         <v>14</v>
       </c>
@@ -9508,7 +9515,7 @@
       <c r="S19" s="27"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="164" t="s">
+      <c r="A20" s="156" t="s">
         <v>263</v>
       </c>
       <c r="B20" s="30" t="s">
@@ -9536,7 +9543,7 @@
       <c r="S20" s="27"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="165"/>
+      <c r="A21" s="157"/>
       <c r="B21" s="30" t="s">
         <v>215</v>
       </c>
@@ -9561,7 +9568,7 @@
       <c r="S21" s="27"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="165"/>
+      <c r="A22" s="157"/>
       <c r="B22" s="30" t="s">
         <v>264</v>
       </c>
@@ -9587,7 +9594,7 @@
       <c r="S22" s="27"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="166"/>
+      <c r="A23" s="158"/>
       <c r="B23" s="30" t="s">
         <v>265</v>
       </c>
@@ -9686,10 +9693,10 @@
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="39"/>
-      <c r="F27" s="151" t="s">
+      <c r="F27" s="162" t="s">
         <v>232</v>
       </c>
-      <c r="G27" s="151"/>
+      <c r="G27" s="162"/>
       <c r="H27" s="45"/>
       <c r="K27" s="57" t="s">
         <v>280</v>
@@ -9701,7 +9708,7 @@
       <c r="C28" s="12"/>
       <c r="D28" s="32"/>
       <c r="E28" s="39"/>
-      <c r="F28" s="162" t="s">
+      <c r="F28" s="154" t="s">
         <v>233</v>
       </c>
       <c r="G28" s="41" t="s">
@@ -9735,7 +9742,7 @@
       <c r="C29" s="12"/>
       <c r="D29" s="32"/>
       <c r="E29" s="27"/>
-      <c r="F29" s="163"/>
+      <c r="F29" s="155"/>
       <c r="G29" s="40" t="s">
         <v>235</v>
       </c>
@@ -10085,10 +10092,10 @@
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C49" s="58"/>
       <c r="G49" s="59"/>
-      <c r="H49" s="148">
+      <c r="H49" s="159">
         <v>325000</v>
       </c>
-      <c r="I49" s="149"/>
+      <c r="I49" s="160"/>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E53" s="4" t="s">
@@ -10097,12 +10104,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="F27:G27"/>
@@ -10110,6 +10111,12 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A17:A19"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A20:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -11549,6 +11556,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="L1:M1"/>
@@ -11561,18 +11580,6 @@
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/1 MONTH CREDIT.xlsx
+++ b/1 MONTH CREDIT.xlsx
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="714">
   <si>
     <t>Date</t>
   </si>
@@ -2405,6 +2405,12 @@
   </si>
   <si>
     <t>Paid 13.8.2018</t>
+  </si>
+  <si>
+    <t>13.8.2018</t>
+  </si>
+  <si>
+    <t>2L-4636/Isuzu</t>
   </si>
 </sst>
 </file>
@@ -3328,6 +3334,30 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3359,30 +3389,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5679,8 +5685,8 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6140,7 +6146,9 @@
       <c r="A24" s="101">
         <v>23</v>
       </c>
-      <c r="B24" s="101"/>
+      <c r="B24" s="101" t="s">
+        <v>707</v>
+      </c>
       <c r="C24" s="101" t="s">
         <v>675</v>
       </c>
@@ -6156,7 +6164,9 @@
       <c r="A25" s="101">
         <v>24</v>
       </c>
-      <c r="B25" s="101"/>
+      <c r="B25" s="101" t="s">
+        <v>707</v>
+      </c>
       <c r="C25" s="101" t="s">
         <v>709</v>
       </c>
@@ -6192,10 +6202,18 @@
       <c r="A27" s="101">
         <v>26</v>
       </c>
-      <c r="B27" s="101"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
+      <c r="B27" s="101" t="s">
+        <v>712</v>
+      </c>
+      <c r="C27" s="101" t="s">
+        <v>713</v>
+      </c>
+      <c r="D27" s="101" t="s">
+        <v>590</v>
+      </c>
+      <c r="E27" s="101">
+        <v>43000</v>
+      </c>
       <c r="F27" s="122"/>
     </row>
     <row r="28" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -9045,34 +9063,34 @@
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
-      <c r="I3" s="161" t="s">
+      <c r="I3" s="150" t="s">
         <v>231</v>
       </c>
-      <c r="J3" s="161"/>
+      <c r="J3" s="150"/>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="157" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="149"/>
+      <c r="B4" s="157"/>
       <c r="C4" s="47"/>
       <c r="D4" s="29"/>
-      <c r="E4" s="150" t="s">
+      <c r="E4" s="158" t="s">
         <v>230</v>
       </c>
-      <c r="F4" s="150"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="148"/>
-      <c r="O4" s="148"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="M4" s="156"/>
+      <c r="N4" s="156"/>
+      <c r="O4" s="156"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="151" t="s">
+      <c r="A5" s="159" t="s">
         <v>240</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -9116,7 +9134,7 @@
       <c r="S5" s="29"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="152"/>
+      <c r="A6" s="160"/>
       <c r="B6" s="30" t="s">
         <v>242</v>
       </c>
@@ -9150,7 +9168,7 @@
       <c r="S6" s="27"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="153"/>
+      <c r="A7" s="161"/>
       <c r="B7" s="31" t="s">
         <v>243</v>
       </c>
@@ -9239,7 +9257,7 @@
       <c r="S9" s="27"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="164" t="s">
+      <c r="A10" s="153" t="s">
         <v>248</v>
       </c>
       <c r="B10" s="30" t="s">
@@ -9267,7 +9285,7 @@
       <c r="S10" s="27"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="166"/>
+      <c r="A11" s="155"/>
       <c r="B11" s="31" t="s">
         <v>32</v>
       </c>
@@ -9297,7 +9315,7 @@
       <c r="S11" s="27"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="164" t="s">
+      <c r="A12" s="153" t="s">
         <v>250</v>
       </c>
       <c r="B12" s="30" t="s">
@@ -9327,7 +9345,7 @@
       <c r="S12" s="27"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="165"/>
+      <c r="A13" s="154"/>
       <c r="B13" s="31" t="s">
         <v>183</v>
       </c>
@@ -9353,7 +9371,7 @@
       <c r="S13" s="27"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="166"/>
+      <c r="A14" s="155"/>
       <c r="B14" s="31" t="s">
         <v>90</v>
       </c>
@@ -9435,7 +9453,7 @@
       <c r="S16" s="27"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="164" t="s">
+      <c r="A17" s="153" t="s">
         <v>255</v>
       </c>
       <c r="B17" s="30" t="s">
@@ -9463,7 +9481,7 @@
       <c r="S17" s="27"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="165"/>
+      <c r="A18" s="154"/>
       <c r="B18" s="31" t="s">
         <v>249</v>
       </c>
@@ -9489,7 +9507,7 @@
       <c r="S18" s="27"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="166"/>
+      <c r="A19" s="155"/>
       <c r="B19" s="31" t="s">
         <v>14</v>
       </c>
@@ -9515,7 +9533,7 @@
       <c r="S19" s="27"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="156" t="s">
+      <c r="A20" s="164" t="s">
         <v>263</v>
       </c>
       <c r="B20" s="30" t="s">
@@ -9543,7 +9561,7 @@
       <c r="S20" s="27"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="157"/>
+      <c r="A21" s="165"/>
       <c r="B21" s="30" t="s">
         <v>215</v>
       </c>
@@ -9568,7 +9586,7 @@
       <c r="S21" s="27"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="157"/>
+      <c r="A22" s="165"/>
       <c r="B22" s="30" t="s">
         <v>264</v>
       </c>
@@ -9594,7 +9612,7 @@
       <c r="S22" s="27"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="158"/>
+      <c r="A23" s="166"/>
       <c r="B23" s="30" t="s">
         <v>265</v>
       </c>
@@ -9693,10 +9711,10 @@
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="39"/>
-      <c r="F27" s="162" t="s">
+      <c r="F27" s="151" t="s">
         <v>232</v>
       </c>
-      <c r="G27" s="162"/>
+      <c r="G27" s="151"/>
       <c r="H27" s="45"/>
       <c r="K27" s="57" t="s">
         <v>280</v>
@@ -9708,7 +9726,7 @@
       <c r="C28" s="12"/>
       <c r="D28" s="32"/>
       <c r="E28" s="39"/>
-      <c r="F28" s="154" t="s">
+      <c r="F28" s="162" t="s">
         <v>233</v>
       </c>
       <c r="G28" s="41" t="s">
@@ -9742,7 +9760,7 @@
       <c r="C29" s="12"/>
       <c r="D29" s="32"/>
       <c r="E29" s="27"/>
-      <c r="F29" s="155"/>
+      <c r="F29" s="163"/>
       <c r="G29" s="40" t="s">
         <v>235</v>
       </c>
@@ -10092,10 +10110,10 @@
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C49" s="58"/>
       <c r="G49" s="59"/>
-      <c r="H49" s="159">
+      <c r="H49" s="148">
         <v>325000</v>
       </c>
-      <c r="I49" s="160"/>
+      <c r="I49" s="149"/>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E53" s="4" t="s">
@@ -10104,6 +10122,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="F27:G27"/>
@@ -10111,12 +10135,6 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A20:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -11556,6 +11574,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A48:B48"/>
@@ -11568,18 +11598,6 @@
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/1 MONTH CREDIT.xlsx
+++ b/1 MONTH CREDIT.xlsx
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="717">
   <si>
     <t>Date</t>
   </si>
@@ -2411,6 +2411,15 @@
   </si>
   <si>
     <t>2L-4636/Isuzu</t>
+  </si>
+  <si>
+    <t>14.8.2018</t>
+  </si>
+  <si>
+    <t>3K-6508/Isuzu</t>
+  </si>
+  <si>
+    <t>1J-7399/Vitz</t>
   </si>
 </sst>
 </file>
@@ -3334,30 +3343,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3389,6 +3374,30 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5685,8 +5694,8 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6220,10 +6229,18 @@
       <c r="A28" s="101">
         <v>27</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
+      <c r="B28" s="101" t="s">
+        <v>714</v>
+      </c>
+      <c r="C28" s="101" t="s">
+        <v>715</v>
+      </c>
+      <c r="D28" s="101" t="s">
+        <v>590</v>
+      </c>
+      <c r="E28" s="101">
+        <v>5000</v>
+      </c>
       <c r="F28" s="122"/>
     </row>
     <row r="29" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -6231,9 +6248,15 @@
         <v>28</v>
       </c>
       <c r="B29" s="101"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
+      <c r="C29" s="101" t="s">
+        <v>716</v>
+      </c>
+      <c r="D29" s="101" t="s">
+        <v>595</v>
+      </c>
+      <c r="E29" s="101">
+        <v>73000</v>
+      </c>
       <c r="F29" s="122"/>
     </row>
     <row r="30" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -9063,34 +9086,34 @@
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
-      <c r="I3" s="150" t="s">
+      <c r="I3" s="161" t="s">
         <v>231</v>
       </c>
-      <c r="J3" s="150"/>
+      <c r="J3" s="161"/>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="157" t="s">
+      <c r="A4" s="149" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="157"/>
+      <c r="B4" s="149"/>
       <c r="C4" s="47"/>
       <c r="D4" s="29"/>
-      <c r="E4" s="158" t="s">
+      <c r="E4" s="150" t="s">
         <v>230</v>
       </c>
-      <c r="F4" s="158"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="156"/>
-      <c r="O4" s="156"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
+      <c r="O4" s="148"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="159" t="s">
+      <c r="A5" s="151" t="s">
         <v>240</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -9134,7 +9157,7 @@
       <c r="S5" s="29"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="160"/>
+      <c r="A6" s="152"/>
       <c r="B6" s="30" t="s">
         <v>242</v>
       </c>
@@ -9168,7 +9191,7 @@
       <c r="S6" s="27"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="161"/>
+      <c r="A7" s="153"/>
       <c r="B7" s="31" t="s">
         <v>243</v>
       </c>
@@ -9257,7 +9280,7 @@
       <c r="S9" s="27"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="153" t="s">
+      <c r="A10" s="164" t="s">
         <v>248</v>
       </c>
       <c r="B10" s="30" t="s">
@@ -9285,7 +9308,7 @@
       <c r="S10" s="27"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="155"/>
+      <c r="A11" s="166"/>
       <c r="B11" s="31" t="s">
         <v>32</v>
       </c>
@@ -9315,7 +9338,7 @@
       <c r="S11" s="27"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="153" t="s">
+      <c r="A12" s="164" t="s">
         <v>250</v>
       </c>
       <c r="B12" s="30" t="s">
@@ -9345,7 +9368,7 @@
       <c r="S12" s="27"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="154"/>
+      <c r="A13" s="165"/>
       <c r="B13" s="31" t="s">
         <v>183</v>
       </c>
@@ -9371,7 +9394,7 @@
       <c r="S13" s="27"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="155"/>
+      <c r="A14" s="166"/>
       <c r="B14" s="31" t="s">
         <v>90</v>
       </c>
@@ -9453,7 +9476,7 @@
       <c r="S16" s="27"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="153" t="s">
+      <c r="A17" s="164" t="s">
         <v>255</v>
       </c>
       <c r="B17" s="30" t="s">
@@ -9481,7 +9504,7 @@
       <c r="S17" s="27"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="154"/>
+      <c r="A18" s="165"/>
       <c r="B18" s="31" t="s">
         <v>249</v>
       </c>
@@ -9507,7 +9530,7 @@
       <c r="S18" s="27"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="155"/>
+      <c r="A19" s="166"/>
       <c r="B19" s="31" t="s">
         <v>14</v>
       </c>
@@ -9533,7 +9556,7 @@
       <c r="S19" s="27"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="164" t="s">
+      <c r="A20" s="156" t="s">
         <v>263</v>
       </c>
       <c r="B20" s="30" t="s">
@@ -9561,7 +9584,7 @@
       <c r="S20" s="27"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="165"/>
+      <c r="A21" s="157"/>
       <c r="B21" s="30" t="s">
         <v>215</v>
       </c>
@@ -9586,7 +9609,7 @@
       <c r="S21" s="27"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="165"/>
+      <c r="A22" s="157"/>
       <c r="B22" s="30" t="s">
         <v>264</v>
       </c>
@@ -9612,7 +9635,7 @@
       <c r="S22" s="27"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="166"/>
+      <c r="A23" s="158"/>
       <c r="B23" s="30" t="s">
         <v>265</v>
       </c>
@@ -9711,10 +9734,10 @@
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="39"/>
-      <c r="F27" s="151" t="s">
+      <c r="F27" s="162" t="s">
         <v>232</v>
       </c>
-      <c r="G27" s="151"/>
+      <c r="G27" s="162"/>
       <c r="H27" s="45"/>
       <c r="K27" s="57" t="s">
         <v>280</v>
@@ -9726,7 +9749,7 @@
       <c r="C28" s="12"/>
       <c r="D28" s="32"/>
       <c r="E28" s="39"/>
-      <c r="F28" s="162" t="s">
+      <c r="F28" s="154" t="s">
         <v>233</v>
       </c>
       <c r="G28" s="41" t="s">
@@ -9760,7 +9783,7 @@
       <c r="C29" s="12"/>
       <c r="D29" s="32"/>
       <c r="E29" s="27"/>
-      <c r="F29" s="163"/>
+      <c r="F29" s="155"/>
       <c r="G29" s="40" t="s">
         <v>235</v>
       </c>
@@ -10110,10 +10133,10 @@
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C49" s="58"/>
       <c r="G49" s="59"/>
-      <c r="H49" s="148">
+      <c r="H49" s="159">
         <v>325000</v>
       </c>
-      <c r="I49" s="149"/>
+      <c r="I49" s="160"/>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E53" s="4" t="s">
@@ -10122,12 +10145,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="F27:G27"/>
@@ -10135,6 +10152,12 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A17:A19"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A20:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -11574,6 +11597,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="L1:M1"/>
@@ -11586,18 +11621,6 @@
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/1 MONTH CREDIT.xlsx
+++ b/1 MONTH CREDIT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="870" windowWidth="18195" windowHeight="11025" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="930" windowWidth="18195" windowHeight="10965" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Oct;2017" sheetId="1" r:id="rId1"/>
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="723">
   <si>
     <t>Date</t>
   </si>
@@ -2420,6 +2420,24 @@
   </si>
   <si>
     <t>1J-7399/Vitz</t>
+  </si>
+  <si>
+    <t>Paid 15.8.2018</t>
+  </si>
+  <si>
+    <t>15.8.2018</t>
+  </si>
+  <si>
+    <t>2L-4623/Isuzu</t>
+  </si>
+  <si>
+    <t>9P-8454/Bongo</t>
+  </si>
+  <si>
+    <t>3I-1361/Bongo3</t>
+  </si>
+  <si>
+    <t>KZK</t>
   </si>
 </sst>
 </file>
@@ -3343,6 +3361,30 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3374,30 +3416,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4206,14 +4224,14 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4248,7 +4266,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="101">
         <v>1</v>
       </c>
@@ -4268,7 +4286,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="101">
         <v>2</v>
       </c>
@@ -4289,7 +4307,7 @@
       </c>
       <c r="I3" s="121"/>
     </row>
-    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="101">
         <v>3</v>
       </c>
@@ -4309,7 +4327,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="101">
         <v>4</v>
       </c>
@@ -4329,7 +4347,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="101">
         <v>5</v>
       </c>
@@ -4371,7 +4389,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="101">
         <v>7</v>
       </c>
@@ -4391,7 +4409,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="101">
         <v>8</v>
       </c>
@@ -4407,9 +4425,11 @@
       <c r="E9" s="123">
         <v>158000</v>
       </c>
-      <c r="F9" s="122"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="122" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="101">
         <v>9</v>
       </c>
@@ -4429,7 +4449,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="101">
         <v>10</v>
       </c>
@@ -4447,7 +4467,7 @@
       </c>
       <c r="F11" s="122"/>
     </row>
-    <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="101">
         <v>11</v>
       </c>
@@ -4470,7 +4490,7 @@
       <c r="I12" s="121"/>
       <c r="J12" s="121"/>
     </row>
-    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="101">
         <v>12</v>
       </c>
@@ -4488,7 +4508,7 @@
       </c>
       <c r="F13" s="122"/>
     </row>
-    <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="101">
         <v>13</v>
       </c>
@@ -4507,7 +4527,7 @@
       <c r="F14" s="122"/>
       <c r="I14" s="121"/>
     </row>
-    <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="101">
         <v>14</v>
       </c>
@@ -4568,7 +4588,7 @@
       </c>
       <c r="I17" s="121"/>
     </row>
-    <row r="18" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="101">
         <v>17</v>
       </c>
@@ -4588,7 +4608,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="101">
         <v>18</v>
       </c>
@@ -4606,7 +4626,7 @@
       </c>
       <c r="F19" s="122"/>
     </row>
-    <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="101">
         <v>19</v>
       </c>
@@ -4626,7 +4646,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="101">
         <v>20</v>
       </c>
@@ -4646,7 +4666,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="101">
         <v>21</v>
       </c>
@@ -4666,7 +4686,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="101">
         <v>22</v>
       </c>
@@ -4686,7 +4706,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="101">
         <v>23</v>
       </c>
@@ -4704,7 +4724,7 @@
       </c>
       <c r="F24" s="122"/>
     </row>
-    <row r="25" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="101">
         <v>24</v>
       </c>
@@ -4724,7 +4744,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="101">
         <v>25</v>
       </c>
@@ -4742,7 +4762,7 @@
       </c>
       <c r="F26" s="122"/>
     </row>
-    <row r="27" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="101">
         <v>26</v>
       </c>
@@ -4760,7 +4780,7 @@
       </c>
       <c r="F27" s="122"/>
     </row>
-    <row r="28" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="101">
         <v>27</v>
       </c>
@@ -4780,7 +4800,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="101">
         <v>28</v>
       </c>
@@ -4798,7 +4818,7 @@
       </c>
       <c r="F29" s="122"/>
     </row>
-    <row r="30" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="101">
         <v>29</v>
       </c>
@@ -4838,7 +4858,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="101">
         <v>31</v>
       </c>
@@ -4858,7 +4878,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="101">
         <v>32</v>
       </c>
@@ -4878,7 +4898,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="101">
         <v>33</v>
       </c>
@@ -4896,7 +4916,7 @@
       </c>
       <c r="F34" s="122"/>
     </row>
-    <row r="35" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="101">
         <v>34</v>
       </c>
@@ -4914,7 +4934,7 @@
       </c>
       <c r="F35" s="122"/>
     </row>
-    <row r="36" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="101">
         <v>35</v>
       </c>
@@ -4934,7 +4954,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="101">
         <v>36</v>
       </c>
@@ -4995,7 +5015,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="101">
         <v>39</v>
       </c>
@@ -5033,7 +5053,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="101">
         <v>41</v>
       </c>
@@ -5053,7 +5073,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="101">
         <v>42</v>
       </c>
@@ -5073,7 +5093,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="101">
         <v>43</v>
       </c>
@@ -5091,7 +5111,7 @@
       </c>
       <c r="F44" s="122"/>
     </row>
-    <row r="45" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="101">
         <v>44</v>
       </c>
@@ -5190,7 +5210,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="101">
         <v>49</v>
       </c>
@@ -5208,7 +5228,7 @@
       </c>
       <c r="F50" s="122"/>
     </row>
-    <row r="51" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="101">
         <v>50</v>
       </c>
@@ -5246,7 +5266,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="101">
         <v>52</v>
       </c>
@@ -5266,7 +5286,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="101">
         <v>51</v>
       </c>
@@ -5289,7 +5309,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="101">
         <v>51</v>
       </c>
@@ -5327,7 +5347,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="101"/>
       <c r="B57" s="101"/>
       <c r="C57" s="101"/>
@@ -5335,7 +5355,7 @@
       <c r="E57" s="101"/>
       <c r="F57" s="122"/>
     </row>
-    <row r="58" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="101"/>
       <c r="B58" s="101"/>
       <c r="C58" s="101"/>
@@ -5343,7 +5363,7 @@
       <c r="E58" s="101"/>
       <c r="F58" s="122"/>
     </row>
-    <row r="59" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="101"/>
       <c r="B59" s="101"/>
       <c r="C59" s="101"/>
@@ -5351,7 +5371,7 @@
       <c r="E59" s="101"/>
       <c r="F59" s="122"/>
     </row>
-    <row r="60" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="101"/>
       <c r="B60" s="101"/>
       <c r="C60" s="101"/>
@@ -5359,7 +5379,7 @@
       <c r="E60" s="101"/>
       <c r="F60" s="122"/>
     </row>
-    <row r="61" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="101"/>
       <c r="B61" s="101"/>
       <c r="C61" s="101"/>
@@ -5367,7 +5387,7 @@
       <c r="E61" s="101"/>
       <c r="F61" s="122"/>
     </row>
-    <row r="62" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="101"/>
       <c r="B62" s="101"/>
       <c r="C62" s="101"/>
@@ -5375,7 +5395,7 @@
       <c r="E62" s="101"/>
       <c r="F62" s="122"/>
     </row>
-    <row r="63" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="101"/>
       <c r="B63" s="101"/>
       <c r="C63" s="101"/>
@@ -5383,7 +5403,7 @@
       <c r="E63" s="101"/>
       <c r="F63" s="122"/>
     </row>
-    <row r="64" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="101"/>
       <c r="B64" s="101"/>
       <c r="C64" s="101"/>
@@ -5391,7 +5411,7 @@
       <c r="E64" s="101"/>
       <c r="F64" s="122"/>
     </row>
-    <row r="65" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="101"/>
       <c r="B65" s="101"/>
       <c r="C65" s="101"/>
@@ -5399,7 +5419,7 @@
       <c r="E65" s="101"/>
       <c r="F65" s="122"/>
     </row>
-    <row r="66" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="101"/>
       <c r="B66" s="101"/>
       <c r="C66" s="101"/>
@@ -5407,7 +5427,7 @@
       <c r="E66" s="101"/>
       <c r="F66" s="122"/>
     </row>
-    <row r="67" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="101"/>
       <c r="B67" s="101"/>
       <c r="C67" s="101"/>
@@ -5680,7 +5700,13 @@
       <c r="F100" s="122"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:F67"/>
+  <autoFilter ref="B1:F67">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Fuji Co.,"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="11" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -5694,8 +5720,8 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5858,7 +5884,9 @@
       <c r="E8" s="101">
         <v>333500</v>
       </c>
-      <c r="F8" s="122"/>
+      <c r="F8" s="122" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="101">
@@ -6255,7 +6283,7 @@
         <v>595</v>
       </c>
       <c r="E29" s="101">
-        <v>73000</v>
+        <v>25000</v>
       </c>
       <c r="F29" s="122"/>
     </row>
@@ -6263,10 +6291,18 @@
       <c r="A30" s="101">
         <v>29</v>
       </c>
-      <c r="B30" s="101"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
+      <c r="B30" s="101" t="s">
+        <v>718</v>
+      </c>
+      <c r="C30" s="101" t="s">
+        <v>719</v>
+      </c>
+      <c r="D30" s="101" t="s">
+        <v>590</v>
+      </c>
+      <c r="E30" s="101">
+        <v>290000</v>
+      </c>
       <c r="F30" s="122"/>
     </row>
     <row r="31" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -6274,9 +6310,15 @@
         <v>30</v>
       </c>
       <c r="B31" s="101"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
+      <c r="C31" s="101" t="s">
+        <v>720</v>
+      </c>
+      <c r="D31" s="101" t="s">
+        <v>595</v>
+      </c>
+      <c r="E31" s="101">
+        <v>407000</v>
+      </c>
       <c r="F31" s="122"/>
     </row>
     <row r="32" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -6284,19 +6326,34 @@
         <v>31</v>
       </c>
       <c r="B32" s="101"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
+      <c r="C32" s="101" t="s">
+        <v>720</v>
+      </c>
+      <c r="D32" s="101" t="s">
+        <v>595</v>
+      </c>
+      <c r="E32" s="101">
+        <v>65000</v>
+      </c>
       <c r="F32" s="122"/>
+      <c r="G32" s="120" t="s">
+        <v>722</v>
+      </c>
     </row>
     <row r="33" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="101">
         <v>32</v>
       </c>
       <c r="B33" s="101"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
+      <c r="C33" s="101" t="s">
+        <v>721</v>
+      </c>
+      <c r="D33" s="101" t="s">
+        <v>595</v>
+      </c>
+      <c r="E33" s="101">
+        <v>15000</v>
+      </c>
       <c r="F33" s="122"/>
     </row>
     <row r="34" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -7609,7 +7666,7 @@
   </sheetPr>
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -8288,8 +8345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9026,7 +9083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -9086,34 +9143,34 @@
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
-      <c r="I3" s="161" t="s">
+      <c r="I3" s="150" t="s">
         <v>231</v>
       </c>
-      <c r="J3" s="161"/>
+      <c r="J3" s="150"/>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="157" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="149"/>
+      <c r="B4" s="157"/>
       <c r="C4" s="47"/>
       <c r="D4" s="29"/>
-      <c r="E4" s="150" t="s">
+      <c r="E4" s="158" t="s">
         <v>230</v>
       </c>
-      <c r="F4" s="150"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="148"/>
-      <c r="O4" s="148"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="M4" s="156"/>
+      <c r="N4" s="156"/>
+      <c r="O4" s="156"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="151" t="s">
+      <c r="A5" s="159" t="s">
         <v>240</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -9157,7 +9214,7 @@
       <c r="S5" s="29"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="152"/>
+      <c r="A6" s="160"/>
       <c r="B6" s="30" t="s">
         <v>242</v>
       </c>
@@ -9191,7 +9248,7 @@
       <c r="S6" s="27"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="153"/>
+      <c r="A7" s="161"/>
       <c r="B7" s="31" t="s">
         <v>243</v>
       </c>
@@ -9280,7 +9337,7 @@
       <c r="S9" s="27"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="164" t="s">
+      <c r="A10" s="153" t="s">
         <v>248</v>
       </c>
       <c r="B10" s="30" t="s">
@@ -9308,7 +9365,7 @@
       <c r="S10" s="27"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="166"/>
+      <c r="A11" s="155"/>
       <c r="B11" s="31" t="s">
         <v>32</v>
       </c>
@@ -9338,7 +9395,7 @@
       <c r="S11" s="27"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="164" t="s">
+      <c r="A12" s="153" t="s">
         <v>250</v>
       </c>
       <c r="B12" s="30" t="s">
@@ -9368,7 +9425,7 @@
       <c r="S12" s="27"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="165"/>
+      <c r="A13" s="154"/>
       <c r="B13" s="31" t="s">
         <v>183</v>
       </c>
@@ -9394,7 +9451,7 @@
       <c r="S13" s="27"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="166"/>
+      <c r="A14" s="155"/>
       <c r="B14" s="31" t="s">
         <v>90</v>
       </c>
@@ -9476,7 +9533,7 @@
       <c r="S16" s="27"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="164" t="s">
+      <c r="A17" s="153" t="s">
         <v>255</v>
       </c>
       <c r="B17" s="30" t="s">
@@ -9504,7 +9561,7 @@
       <c r="S17" s="27"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="165"/>
+      <c r="A18" s="154"/>
       <c r="B18" s="31" t="s">
         <v>249</v>
       </c>
@@ -9530,7 +9587,7 @@
       <c r="S18" s="27"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="166"/>
+      <c r="A19" s="155"/>
       <c r="B19" s="31" t="s">
         <v>14</v>
       </c>
@@ -9556,7 +9613,7 @@
       <c r="S19" s="27"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="156" t="s">
+      <c r="A20" s="164" t="s">
         <v>263</v>
       </c>
       <c r="B20" s="30" t="s">
@@ -9584,7 +9641,7 @@
       <c r="S20" s="27"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="157"/>
+      <c r="A21" s="165"/>
       <c r="B21" s="30" t="s">
         <v>215</v>
       </c>
@@ -9609,7 +9666,7 @@
       <c r="S21" s="27"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="157"/>
+      <c r="A22" s="165"/>
       <c r="B22" s="30" t="s">
         <v>264</v>
       </c>
@@ -9635,7 +9692,7 @@
       <c r="S22" s="27"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="158"/>
+      <c r="A23" s="166"/>
       <c r="B23" s="30" t="s">
         <v>265</v>
       </c>
@@ -9734,10 +9791,10 @@
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="39"/>
-      <c r="F27" s="162" t="s">
+      <c r="F27" s="151" t="s">
         <v>232</v>
       </c>
-      <c r="G27" s="162"/>
+      <c r="G27" s="151"/>
       <c r="H27" s="45"/>
       <c r="K27" s="57" t="s">
         <v>280</v>
@@ -9749,7 +9806,7 @@
       <c r="C28" s="12"/>
       <c r="D28" s="32"/>
       <c r="E28" s="39"/>
-      <c r="F28" s="154" t="s">
+      <c r="F28" s="162" t="s">
         <v>233</v>
       </c>
       <c r="G28" s="41" t="s">
@@ -9783,7 +9840,7 @@
       <c r="C29" s="12"/>
       <c r="D29" s="32"/>
       <c r="E29" s="27"/>
-      <c r="F29" s="155"/>
+      <c r="F29" s="163"/>
       <c r="G29" s="40" t="s">
         <v>235</v>
       </c>
@@ -10133,10 +10190,10 @@
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C49" s="58"/>
       <c r="G49" s="59"/>
-      <c r="H49" s="159">
+      <c r="H49" s="148">
         <v>325000</v>
       </c>
-      <c r="I49" s="160"/>
+      <c r="I49" s="149"/>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E53" s="4" t="s">
@@ -10145,6 +10202,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="F27:G27"/>
@@ -10152,12 +10215,6 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A20:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -10171,7 +10228,7 @@
   </sheetPr>
   <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
@@ -11597,6 +11654,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A48:B48"/>
@@ -11609,18 +11678,6 @@
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -13080,7 +13137,7 @@
   </sheetPr>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>

--- a/1 MONTH CREDIT.xlsx
+++ b/1 MONTH CREDIT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="930" windowWidth="18195" windowHeight="10965" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="930" windowWidth="18195" windowHeight="10965" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Oct;2017" sheetId="1" r:id="rId1"/>
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="724">
   <si>
     <t>Date</t>
   </si>
@@ -2438,6 +2438,9 @@
   </si>
   <si>
     <t>KZK</t>
+  </si>
+  <si>
+    <t>Paid 16.8.2018</t>
   </si>
 </sst>
 </file>
@@ -4224,12 +4227,12 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I76" sqref="I76"/>
     </sheetView>
@@ -4266,7 +4269,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="101">
         <v>1</v>
       </c>
@@ -4286,7 +4289,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="101">
         <v>2</v>
       </c>
@@ -4307,7 +4310,7 @@
       </c>
       <c r="I3" s="121"/>
     </row>
-    <row r="4" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="101">
         <v>3</v>
       </c>
@@ -4327,7 +4330,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="101">
         <v>4</v>
       </c>
@@ -4347,7 +4350,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="101">
         <v>5</v>
       </c>
@@ -4389,7 +4392,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="101">
         <v>7</v>
       </c>
@@ -4409,7 +4412,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="101">
         <v>8</v>
       </c>
@@ -4429,7 +4432,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="101">
         <v>9</v>
       </c>
@@ -4449,7 +4452,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="101">
         <v>10</v>
       </c>
@@ -4467,7 +4470,7 @@
       </c>
       <c r="F11" s="122"/>
     </row>
-    <row r="12" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="101">
         <v>11</v>
       </c>
@@ -4490,7 +4493,7 @@
       <c r="I12" s="121"/>
       <c r="J12" s="121"/>
     </row>
-    <row r="13" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="101">
         <v>12</v>
       </c>
@@ -4508,7 +4511,7 @@
       </c>
       <c r="F13" s="122"/>
     </row>
-    <row r="14" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="101">
         <v>13</v>
       </c>
@@ -4527,7 +4530,7 @@
       <c r="F14" s="122"/>
       <c r="I14" s="121"/>
     </row>
-    <row r="15" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="101">
         <v>14</v>
       </c>
@@ -4588,7 +4591,7 @@
       </c>
       <c r="I17" s="121"/>
     </row>
-    <row r="18" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="101">
         <v>17</v>
       </c>
@@ -4608,7 +4611,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="101">
         <v>18</v>
       </c>
@@ -4626,7 +4629,7 @@
       </c>
       <c r="F19" s="122"/>
     </row>
-    <row r="20" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="101">
         <v>19</v>
       </c>
@@ -4646,7 +4649,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="101">
         <v>20</v>
       </c>
@@ -4666,7 +4669,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="101">
         <v>21</v>
       </c>
@@ -4686,7 +4689,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="101">
         <v>22</v>
       </c>
@@ -4706,7 +4709,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="101">
         <v>23</v>
       </c>
@@ -4724,7 +4727,7 @@
       </c>
       <c r="F24" s="122"/>
     </row>
-    <row r="25" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="101">
         <v>24</v>
       </c>
@@ -4744,7 +4747,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="101">
         <v>25</v>
       </c>
@@ -4762,7 +4765,7 @@
       </c>
       <c r="F26" s="122"/>
     </row>
-    <row r="27" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="101">
         <v>26</v>
       </c>
@@ -4780,7 +4783,7 @@
       </c>
       <c r="F27" s="122"/>
     </row>
-    <row r="28" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="101">
         <v>27</v>
       </c>
@@ -4800,7 +4803,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="101">
         <v>28</v>
       </c>
@@ -4818,7 +4821,7 @@
       </c>
       <c r="F29" s="122"/>
     </row>
-    <row r="30" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="101">
         <v>29</v>
       </c>
@@ -4858,7 +4861,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="101">
         <v>31</v>
       </c>
@@ -4878,7 +4881,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="101">
         <v>32</v>
       </c>
@@ -4898,7 +4901,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="101">
         <v>33</v>
       </c>
@@ -4916,7 +4919,7 @@
       </c>
       <c r="F34" s="122"/>
     </row>
-    <row r="35" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="101">
         <v>34</v>
       </c>
@@ -4934,7 +4937,7 @@
       </c>
       <c r="F35" s="122"/>
     </row>
-    <row r="36" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="101">
         <v>35</v>
       </c>
@@ -4954,7 +4957,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="101">
         <v>36</v>
       </c>
@@ -5015,7 +5018,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="101">
         <v>39</v>
       </c>
@@ -5053,7 +5056,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="101">
         <v>41</v>
       </c>
@@ -5073,7 +5076,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="101">
         <v>42</v>
       </c>
@@ -5093,7 +5096,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="101">
         <v>43</v>
       </c>
@@ -5111,7 +5114,7 @@
       </c>
       <c r="F44" s="122"/>
     </row>
-    <row r="45" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="101">
         <v>44</v>
       </c>
@@ -5210,7 +5213,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="101">
         <v>49</v>
       </c>
@@ -5228,7 +5231,7 @@
       </c>
       <c r="F50" s="122"/>
     </row>
-    <row r="51" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="101">
         <v>50</v>
       </c>
@@ -5266,7 +5269,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="101">
         <v>52</v>
       </c>
@@ -5286,7 +5289,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="101">
         <v>51</v>
       </c>
@@ -5309,7 +5312,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="101">
         <v>51</v>
       </c>
@@ -5347,7 +5350,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="101"/>
       <c r="B57" s="101"/>
       <c r="C57" s="101"/>
@@ -5355,7 +5358,7 @@
       <c r="E57" s="101"/>
       <c r="F57" s="122"/>
     </row>
-    <row r="58" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="101"/>
       <c r="B58" s="101"/>
       <c r="C58" s="101"/>
@@ -5363,7 +5366,7 @@
       <c r="E58" s="101"/>
       <c r="F58" s="122"/>
     </row>
-    <row r="59" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="101"/>
       <c r="B59" s="101"/>
       <c r="C59" s="101"/>
@@ -5371,7 +5374,7 @@
       <c r="E59" s="101"/>
       <c r="F59" s="122"/>
     </row>
-    <row r="60" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="101"/>
       <c r="B60" s="101"/>
       <c r="C60" s="101"/>
@@ -5379,7 +5382,7 @@
       <c r="E60" s="101"/>
       <c r="F60" s="122"/>
     </row>
-    <row r="61" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="101"/>
       <c r="B61" s="101"/>
       <c r="C61" s="101"/>
@@ -5387,7 +5390,7 @@
       <c r="E61" s="101"/>
       <c r="F61" s="122"/>
     </row>
-    <row r="62" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="101"/>
       <c r="B62" s="101"/>
       <c r="C62" s="101"/>
@@ -5395,7 +5398,7 @@
       <c r="E62" s="101"/>
       <c r="F62" s="122"/>
     </row>
-    <row r="63" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="101"/>
       <c r="B63" s="101"/>
       <c r="C63" s="101"/>
@@ -5403,7 +5406,7 @@
       <c r="E63" s="101"/>
       <c r="F63" s="122"/>
     </row>
-    <row r="64" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="101"/>
       <c r="B64" s="101"/>
       <c r="C64" s="101"/>
@@ -5411,7 +5414,7 @@
       <c r="E64" s="101"/>
       <c r="F64" s="122"/>
     </row>
-    <row r="65" spans="1:6" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="101"/>
       <c r="B65" s="101"/>
       <c r="C65" s="101"/>
@@ -5419,7 +5422,7 @@
       <c r="E65" s="101"/>
       <c r="F65" s="122"/>
     </row>
-    <row r="66" spans="1:6" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="101"/>
       <c r="B66" s="101"/>
       <c r="C66" s="101"/>
@@ -5427,7 +5430,7 @@
       <c r="E66" s="101"/>
       <c r="F66" s="122"/>
     </row>
-    <row r="67" spans="1:6" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="101"/>
       <c r="B67" s="101"/>
       <c r="C67" s="101"/>
@@ -5700,13 +5703,7 @@
       <c r="F100" s="122"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:F67">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Fuji Co.,"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:F67"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="11" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -5719,9 +5716,9 @@
   </sheetPr>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6251,7 +6248,9 @@
       <c r="E27" s="101">
         <v>43000</v>
       </c>
-      <c r="F27" s="122"/>
+      <c r="F27" s="122" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="101">
@@ -6269,7 +6268,9 @@
       <c r="E28" s="101">
         <v>5000</v>
       </c>
-      <c r="F28" s="122"/>
+      <c r="F28" s="122" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="101">
@@ -6303,7 +6304,9 @@
       <c r="E30" s="101">
         <v>290000</v>
       </c>
-      <c r="F30" s="122"/>
+      <c r="F30" s="122" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="101">

--- a/1 MONTH CREDIT.xlsx
+++ b/1 MONTH CREDIT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="930" windowWidth="18195" windowHeight="10965" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="930" windowWidth="18195" windowHeight="10965" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Oct;2017" sheetId="1" r:id="rId1"/>
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="728">
   <si>
     <t>Date</t>
   </si>
@@ -2441,6 +2441,18 @@
   </si>
   <si>
     <t>Paid 16.8.2018</t>
+  </si>
+  <si>
+    <t>Paid 17.8.2018</t>
+  </si>
+  <si>
+    <t>Discount 500</t>
+  </si>
+  <si>
+    <t>17.8.2018</t>
+  </si>
+  <si>
+    <t>5I-7820/Suzuki</t>
   </si>
 </sst>
 </file>
@@ -4232,8 +4244,8 @@
   </sheetPr>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
@@ -5716,9 +5728,9 @@
   </sheetPr>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5729,7 +5741,8 @@
     <col min="4" max="4" width="20.42578125" style="120" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" style="120" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" style="126" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="120"/>
+    <col min="7" max="7" width="14" style="120" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="120"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="135" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5807,7 +5820,12 @@
       <c r="E4" s="101">
         <v>97500</v>
       </c>
-      <c r="F4" s="122"/>
+      <c r="F4" s="122" t="s">
+        <v>724</v>
+      </c>
+      <c r="G4" s="126" t="s">
+        <v>725</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="101">
@@ -6312,7 +6330,9 @@
       <c r="A31" s="101">
         <v>30</v>
       </c>
-      <c r="B31" s="101"/>
+      <c r="B31" s="101" t="s">
+        <v>718</v>
+      </c>
       <c r="C31" s="101" t="s">
         <v>720</v>
       </c>
@@ -6328,7 +6348,9 @@
       <c r="A32" s="101">
         <v>31</v>
       </c>
-      <c r="B32" s="101"/>
+      <c r="B32" s="101" t="s">
+        <v>718</v>
+      </c>
       <c r="C32" s="101" t="s">
         <v>720</v>
       </c>
@@ -6347,7 +6369,9 @@
       <c r="A33" s="101">
         <v>32</v>
       </c>
-      <c r="B33" s="101"/>
+      <c r="B33" s="101" t="s">
+        <v>718</v>
+      </c>
       <c r="C33" s="101" t="s">
         <v>721</v>
       </c>
@@ -6363,10 +6387,18 @@
       <c r="A34" s="101">
         <v>33</v>
       </c>
-      <c r="B34" s="101"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
+      <c r="B34" s="101" t="s">
+        <v>726</v>
+      </c>
+      <c r="C34" s="101" t="s">
+        <v>727</v>
+      </c>
+      <c r="D34" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" s="101">
+        <v>184000</v>
+      </c>
       <c r="F34" s="122"/>
     </row>
     <row r="35" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -6374,9 +6406,15 @@
         <v>34</v>
       </c>
       <c r="B35" s="101"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
+      <c r="C35" s="101" t="s">
+        <v>600</v>
+      </c>
+      <c r="D35" s="101" t="s">
+        <v>585</v>
+      </c>
+      <c r="E35" s="101">
+        <v>3500</v>
+      </c>
       <c r="F35" s="122"/>
     </row>
     <row r="36" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">

--- a/1 MONTH CREDIT.xlsx
+++ b/1 MONTH CREDIT.xlsx
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="733">
   <si>
     <t>Date</t>
   </si>
@@ -2453,6 +2453,21 @@
   </si>
   <si>
     <t>5I-7820/Suzuki</t>
+  </si>
+  <si>
+    <t>Paid 20.8.2018</t>
+  </si>
+  <si>
+    <t>18.8.2018</t>
+  </si>
+  <si>
+    <t>19.8.2018</t>
+  </si>
+  <si>
+    <t>4P-1721/Starex</t>
+  </si>
+  <si>
+    <t>2L-5310/Bongo</t>
   </si>
 </sst>
 </file>
@@ -3376,30 +3391,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3431,6 +3422,30 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5729,8 +5744,8 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6136,7 +6151,9 @@
       <c r="E20" s="101">
         <v>114000</v>
       </c>
-      <c r="F20" s="122"/>
+      <c r="F20" s="122" t="s">
+        <v>728</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="101">
@@ -6248,7 +6265,9 @@
       <c r="E26" s="101">
         <v>33000</v>
       </c>
-      <c r="F26" s="122"/>
+      <c r="F26" s="122" t="s">
+        <v>728</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="101">
@@ -6421,21 +6440,38 @@
       <c r="A36" s="101">
         <v>35</v>
       </c>
-      <c r="B36" s="101"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101"/>
+      <c r="B36" s="101" t="s">
+        <v>729</v>
+      </c>
+      <c r="C36" s="101" t="s">
+        <v>675</v>
+      </c>
+      <c r="D36" s="101" t="s">
+        <v>505</v>
+      </c>
+      <c r="E36" s="101">
+        <v>14000</v>
+      </c>
       <c r="F36" s="122"/>
     </row>
     <row r="37" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="101">
         <v>36</v>
       </c>
-      <c r="B37" s="101"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="101"/>
+      <c r="B37" s="101" t="s">
+        <v>730</v>
+      </c>
+      <c r="C37" s="101" t="s">
+        <v>731</v>
+      </c>
+      <c r="D37" s="101" t="s">
+        <v>595</v>
+      </c>
+      <c r="E37" s="101">
+        <v>125000</v>
+      </c>
       <c r="F37" s="122"/>
+      <c r="G37" s="121"/>
       <c r="K37" s="121"/>
     </row>
     <row r="38" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -6443,9 +6479,15 @@
         <v>37</v>
       </c>
       <c r="B38" s="101"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="101"/>
-      <c r="E38" s="101"/>
+      <c r="C38" s="101" t="s">
+        <v>732</v>
+      </c>
+      <c r="D38" s="101" t="s">
+        <v>585</v>
+      </c>
+      <c r="E38" s="101">
+        <v>12500</v>
+      </c>
       <c r="F38" s="122"/>
     </row>
     <row r="39" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -6453,9 +6495,15 @@
         <v>38</v>
       </c>
       <c r="B39" s="101"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="101"/>
+      <c r="C39" s="101" t="s">
+        <v>579</v>
+      </c>
+      <c r="D39" s="101" t="s">
+        <v>585</v>
+      </c>
+      <c r="E39" s="101">
+        <v>4000</v>
+      </c>
       <c r="F39" s="122"/>
     </row>
     <row r="40" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -9184,34 +9232,34 @@
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
-      <c r="I3" s="150" t="s">
+      <c r="I3" s="161" t="s">
         <v>231</v>
       </c>
-      <c r="J3" s="150"/>
+      <c r="J3" s="161"/>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="157" t="s">
+      <c r="A4" s="149" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="157"/>
+      <c r="B4" s="149"/>
       <c r="C4" s="47"/>
       <c r="D4" s="29"/>
-      <c r="E4" s="158" t="s">
+      <c r="E4" s="150" t="s">
         <v>230</v>
       </c>
-      <c r="F4" s="158"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="156"/>
-      <c r="O4" s="156"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
+      <c r="O4" s="148"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="159" t="s">
+      <c r="A5" s="151" t="s">
         <v>240</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -9255,7 +9303,7 @@
       <c r="S5" s="29"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="160"/>
+      <c r="A6" s="152"/>
       <c r="B6" s="30" t="s">
         <v>242</v>
       </c>
@@ -9289,7 +9337,7 @@
       <c r="S6" s="27"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="161"/>
+      <c r="A7" s="153"/>
       <c r="B7" s="31" t="s">
         <v>243</v>
       </c>
@@ -9378,7 +9426,7 @@
       <c r="S9" s="27"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="153" t="s">
+      <c r="A10" s="164" t="s">
         <v>248</v>
       </c>
       <c r="B10" s="30" t="s">
@@ -9406,7 +9454,7 @@
       <c r="S10" s="27"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="155"/>
+      <c r="A11" s="166"/>
       <c r="B11" s="31" t="s">
         <v>32</v>
       </c>
@@ -9436,7 +9484,7 @@
       <c r="S11" s="27"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="153" t="s">
+      <c r="A12" s="164" t="s">
         <v>250</v>
       </c>
       <c r="B12" s="30" t="s">
@@ -9466,7 +9514,7 @@
       <c r="S12" s="27"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="154"/>
+      <c r="A13" s="165"/>
       <c r="B13" s="31" t="s">
         <v>183</v>
       </c>
@@ -9492,7 +9540,7 @@
       <c r="S13" s="27"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="155"/>
+      <c r="A14" s="166"/>
       <c r="B14" s="31" t="s">
         <v>90</v>
       </c>
@@ -9574,7 +9622,7 @@
       <c r="S16" s="27"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="153" t="s">
+      <c r="A17" s="164" t="s">
         <v>255</v>
       </c>
       <c r="B17" s="30" t="s">
@@ -9602,7 +9650,7 @@
       <c r="S17" s="27"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="154"/>
+      <c r="A18" s="165"/>
       <c r="B18" s="31" t="s">
         <v>249</v>
       </c>
@@ -9628,7 +9676,7 @@
       <c r="S18" s="27"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="155"/>
+      <c r="A19" s="166"/>
       <c r="B19" s="31" t="s">
         <v>14</v>
       </c>
@@ -9654,7 +9702,7 @@
       <c r="S19" s="27"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="164" t="s">
+      <c r="A20" s="156" t="s">
         <v>263</v>
       </c>
       <c r="B20" s="30" t="s">
@@ -9682,7 +9730,7 @@
       <c r="S20" s="27"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="165"/>
+      <c r="A21" s="157"/>
       <c r="B21" s="30" t="s">
         <v>215</v>
       </c>
@@ -9707,7 +9755,7 @@
       <c r="S21" s="27"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="165"/>
+      <c r="A22" s="157"/>
       <c r="B22" s="30" t="s">
         <v>264</v>
       </c>
@@ -9733,7 +9781,7 @@
       <c r="S22" s="27"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="166"/>
+      <c r="A23" s="158"/>
       <c r="B23" s="30" t="s">
         <v>265</v>
       </c>
@@ -9832,10 +9880,10 @@
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="39"/>
-      <c r="F27" s="151" t="s">
+      <c r="F27" s="162" t="s">
         <v>232</v>
       </c>
-      <c r="G27" s="151"/>
+      <c r="G27" s="162"/>
       <c r="H27" s="45"/>
       <c r="K27" s="57" t="s">
         <v>280</v>
@@ -9847,7 +9895,7 @@
       <c r="C28" s="12"/>
       <c r="D28" s="32"/>
       <c r="E28" s="39"/>
-      <c r="F28" s="162" t="s">
+      <c r="F28" s="154" t="s">
         <v>233</v>
       </c>
       <c r="G28" s="41" t="s">
@@ -9881,7 +9929,7 @@
       <c r="C29" s="12"/>
       <c r="D29" s="32"/>
       <c r="E29" s="27"/>
-      <c r="F29" s="163"/>
+      <c r="F29" s="155"/>
       <c r="G29" s="40" t="s">
         <v>235</v>
       </c>
@@ -10231,10 +10279,10 @@
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C49" s="58"/>
       <c r="G49" s="59"/>
-      <c r="H49" s="148">
+      <c r="H49" s="159">
         <v>325000</v>
       </c>
-      <c r="I49" s="149"/>
+      <c r="I49" s="160"/>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E53" s="4" t="s">
@@ -10243,12 +10291,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="F27:G27"/>
@@ -10256,6 +10298,12 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A17:A19"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A20:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -11695,6 +11743,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="L1:M1"/>
@@ -11707,18 +11767,6 @@
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/1 MONTH CREDIT.xlsx
+++ b/1 MONTH CREDIT.xlsx
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="740">
   <si>
     <t>Date</t>
   </si>
@@ -2468,6 +2468,27 @@
   </si>
   <si>
     <t>2L-5310/Bongo</t>
+  </si>
+  <si>
+    <t>20.8.2018</t>
+  </si>
+  <si>
+    <t>4G-3427/Isuzu</t>
+  </si>
+  <si>
+    <t>5L-8059/Hino</t>
+  </si>
+  <si>
+    <t>5L-8059/Hino(Ko Zin Ko)</t>
+  </si>
+  <si>
+    <t>8G-3619/Dyna</t>
+  </si>
+  <si>
+    <t>1E-6097/Fit</t>
+  </si>
+  <si>
+    <t>Paid 21.8.2018</t>
   </si>
 </sst>
 </file>
@@ -5744,8 +5765,8 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K58" sqref="K58"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6424,7 +6445,9 @@
       <c r="A35" s="101">
         <v>34</v>
       </c>
-      <c r="B35" s="101"/>
+      <c r="B35" s="101" t="s">
+        <v>726</v>
+      </c>
       <c r="C35" s="101" t="s">
         <v>600</v>
       </c>
@@ -6470,7 +6493,9 @@
       <c r="E37" s="101">
         <v>125000</v>
       </c>
-      <c r="F37" s="122"/>
+      <c r="F37" s="122" t="s">
+        <v>739</v>
+      </c>
       <c r="G37" s="121"/>
       <c r="K37" s="121"/>
     </row>
@@ -6478,7 +6503,9 @@
       <c r="A38" s="101">
         <v>37</v>
       </c>
-      <c r="B38" s="101"/>
+      <c r="B38" s="101" t="s">
+        <v>730</v>
+      </c>
       <c r="C38" s="101" t="s">
         <v>732</v>
       </c>
@@ -6494,7 +6521,9 @@
       <c r="A39" s="101">
         <v>38</v>
       </c>
-      <c r="B39" s="101"/>
+      <c r="B39" s="101" t="s">
+        <v>730</v>
+      </c>
       <c r="C39" s="101" t="s">
         <v>579</v>
       </c>
@@ -6510,60 +6539,108 @@
       <c r="A40" s="101">
         <v>39</v>
       </c>
-      <c r="B40" s="101"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
+      <c r="B40" s="101" t="s">
+        <v>733</v>
+      </c>
+      <c r="C40" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="101" t="s">
+        <v>590</v>
+      </c>
+      <c r="E40" s="101">
+        <v>25000</v>
+      </c>
       <c r="F40" s="122"/>
     </row>
     <row r="41" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="101">
         <v>40</v>
       </c>
-      <c r="B41" s="101"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
+      <c r="B41" s="101" t="s">
+        <v>733</v>
+      </c>
+      <c r="C41" s="101" t="s">
+        <v>734</v>
+      </c>
+      <c r="D41" s="101" t="s">
+        <v>590</v>
+      </c>
+      <c r="E41" s="101">
+        <v>70000</v>
+      </c>
       <c r="F41" s="122"/>
     </row>
     <row r="42" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="101">
         <v>41</v>
       </c>
-      <c r="B42" s="101"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
+      <c r="B42" s="101" t="s">
+        <v>733</v>
+      </c>
+      <c r="C42" s="101" t="s">
+        <v>735</v>
+      </c>
+      <c r="D42" s="101" t="s">
+        <v>585</v>
+      </c>
+      <c r="E42" s="101">
+        <v>210000</v>
+      </c>
       <c r="F42" s="122"/>
     </row>
     <row r="43" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="101">
         <v>42</v>
       </c>
-      <c r="B43" s="101"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="101"/>
-      <c r="E43" s="101"/>
+      <c r="B43" s="101" t="s">
+        <v>733</v>
+      </c>
+      <c r="C43" s="101" t="s">
+        <v>736</v>
+      </c>
+      <c r="D43" s="101" t="s">
+        <v>585</v>
+      </c>
+      <c r="E43" s="101">
+        <v>68000</v>
+      </c>
       <c r="F43" s="122"/>
     </row>
     <row r="44" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="101">
         <v>43</v>
       </c>
-      <c r="B44" s="101"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="101"/>
+      <c r="B44" s="101" t="s">
+        <v>733</v>
+      </c>
+      <c r="C44" s="101" t="s">
+        <v>737</v>
+      </c>
+      <c r="D44" s="101" t="s">
+        <v>585</v>
+      </c>
+      <c r="E44" s="101">
+        <v>100000</v>
+      </c>
       <c r="F44" s="122"/>
     </row>
     <row r="45" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="101">
         <v>44</v>
       </c>
-      <c r="B45" s="101"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="101"/>
-      <c r="E45" s="101"/>
+      <c r="B45" s="101" t="s">
+        <v>733</v>
+      </c>
+      <c r="C45" s="101" t="s">
+        <v>738</v>
+      </c>
+      <c r="D45" s="101" t="s">
+        <v>595</v>
+      </c>
+      <c r="E45" s="101">
+        <v>81500</v>
+      </c>
       <c r="F45" s="122"/>
     </row>
     <row r="46" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">

--- a/1 MONTH CREDIT.xlsx
+++ b/1 MONTH CREDIT.xlsx
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="746">
   <si>
     <t>Date</t>
   </si>
@@ -2489,6 +2489,24 @@
   </si>
   <si>
     <t>Paid 21.8.2018</t>
+  </si>
+  <si>
+    <t>21.8.2018</t>
+  </si>
+  <si>
+    <t>9G-1055/Belta</t>
+  </si>
+  <si>
+    <t>22.8.2018</t>
+  </si>
+  <si>
+    <t>7E-3167/Canter</t>
+  </si>
+  <si>
+    <t>4L-9319/Bongo</t>
+  </si>
+  <si>
+    <t>9E-7968/Isuzu</t>
   </si>
 </sst>
 </file>
@@ -5765,8 +5783,8 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J60" sqref="J60"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6647,40 +6665,72 @@
       <c r="A46" s="101">
         <v>45</v>
       </c>
-      <c r="B46" s="101"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="101"/>
+      <c r="B46" s="101" t="s">
+        <v>740</v>
+      </c>
+      <c r="C46" s="101" t="s">
+        <v>741</v>
+      </c>
+      <c r="D46" s="101" t="s">
+        <v>595</v>
+      </c>
+      <c r="E46" s="101">
+        <v>32500</v>
+      </c>
       <c r="F46" s="122"/>
     </row>
     <row r="47" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="101">
         <v>46</v>
       </c>
-      <c r="B47" s="101"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="101"/>
+      <c r="B47" s="101" t="s">
+        <v>742</v>
+      </c>
+      <c r="C47" s="101" t="s">
+        <v>743</v>
+      </c>
+      <c r="D47" s="101" t="s">
+        <v>585</v>
+      </c>
+      <c r="E47" s="101">
+        <v>79500</v>
+      </c>
       <c r="F47" s="122"/>
     </row>
     <row r="48" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="101">
         <v>47</v>
       </c>
-      <c r="B48" s="101"/>
-      <c r="C48" s="101"/>
-      <c r="D48" s="101"/>
-      <c r="E48" s="101"/>
+      <c r="B48" s="101" t="s">
+        <v>742</v>
+      </c>
+      <c r="C48" s="101" t="s">
+        <v>744</v>
+      </c>
+      <c r="D48" s="101" t="s">
+        <v>585</v>
+      </c>
+      <c r="E48" s="101">
+        <v>500000</v>
+      </c>
       <c r="F48" s="122"/>
     </row>
     <row r="49" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="101">
         <v>48</v>
       </c>
-      <c r="B49" s="101"/>
-      <c r="C49" s="101"/>
-      <c r="D49" s="101"/>
-      <c r="E49" s="101"/>
+      <c r="B49" s="101" t="s">
+        <v>742</v>
+      </c>
+      <c r="C49" s="101" t="s">
+        <v>745</v>
+      </c>
+      <c r="D49" s="101" t="s">
+        <v>590</v>
+      </c>
+      <c r="E49" s="101">
+        <v>32000</v>
+      </c>
       <c r="F49" s="122"/>
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">

--- a/1 MONTH CREDIT.xlsx
+++ b/1 MONTH CREDIT.xlsx
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="747">
   <si>
     <t>Date</t>
   </si>
@@ -2507,6 +2507,9 @@
   </si>
   <si>
     <t>9E-7968/Isuzu</t>
+  </si>
+  <si>
+    <t>Paid 23.8.2018</t>
   </si>
 </sst>
 </file>
@@ -4299,8 +4302,8 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I76" sqref="I76"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4829,7 +4832,9 @@
       <c r="E26" s="101">
         <v>72000</v>
       </c>
-      <c r="F26" s="122"/>
+      <c r="F26" s="122" t="s">
+        <v>746</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="101">
@@ -5504,12 +5509,15 @@
       <c r="E67" s="101"/>
       <c r="F67" s="122"/>
     </row>
-    <row r="68" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="101"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
+      <c r="E68" s="127">
+        <f>SUBTOTAL(9,E26:E67)</f>
+        <v>3473500</v>
+      </c>
       <c r="F68" s="122"/>
     </row>
     <row r="69" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5783,8 +5791,8 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K52" sqref="K52"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6439,7 +6447,9 @@
       <c r="E33" s="101">
         <v>15000</v>
       </c>
-      <c r="F33" s="122"/>
+      <c r="F33" s="122" t="s">
+        <v>746</v>
+      </c>
     </row>
     <row r="34" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="101">
@@ -6587,7 +6597,9 @@
       <c r="E41" s="101">
         <v>70000</v>
       </c>
-      <c r="F41" s="122"/>
+      <c r="F41" s="122" t="s">
+        <v>746</v>
+      </c>
     </row>
     <row r="42" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="101">
@@ -6659,7 +6671,9 @@
       <c r="E45" s="101">
         <v>81500</v>
       </c>
-      <c r="F45" s="122"/>
+      <c r="F45" s="122" t="s">
+        <v>746</v>
+      </c>
     </row>
     <row r="46" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="101">
@@ -6731,7 +6745,9 @@
       <c r="E49" s="101">
         <v>32000</v>
       </c>
-      <c r="F49" s="122"/>
+      <c r="F49" s="122" t="s">
+        <v>746</v>
+      </c>
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="101">
@@ -6804,6 +6820,10 @@
       <c r="F56" s="122"/>
     </row>
     <row r="57" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E57" s="120">
+        <f>SUBTOTAL(9,E3:E56)</f>
+        <v>5594000</v>
+      </c>
       <c r="F57" s="120"/>
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">

--- a/1 MONTH CREDIT.xlsx
+++ b/1 MONTH CREDIT.xlsx
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="750">
   <si>
     <t>Date</t>
   </si>
@@ -2510,6 +2510,15 @@
   </si>
   <si>
     <t>Paid 23.8.2018</t>
+  </si>
+  <si>
+    <t>Paid 24.8.2018</t>
+  </si>
+  <si>
+    <t>Balance 5000</t>
+  </si>
+  <si>
+    <t>23.8.2018</t>
   </si>
 </sst>
 </file>
@@ -4302,8 +4311,8 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4890,7 +4899,9 @@
       <c r="E29" s="101">
         <v>236000</v>
       </c>
-      <c r="F29" s="122"/>
+      <c r="F29" s="122" t="s">
+        <v>747</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="101">
@@ -5514,10 +5525,7 @@
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="12"/>
-      <c r="E68" s="127">
-        <f>SUBTOTAL(9,E26:E67)</f>
-        <v>3473500</v>
-      </c>
+      <c r="E68" s="127"/>
       <c r="F68" s="122"/>
     </row>
     <row r="69" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5791,8 +5799,8 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I60" sqref="I60"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6370,7 +6378,12 @@
       <c r="E29" s="101">
         <v>25000</v>
       </c>
-      <c r="F29" s="122"/>
+      <c r="F29" s="122" t="s">
+        <v>747</v>
+      </c>
+      <c r="G29" s="126" t="s">
+        <v>748</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="101">
@@ -6753,20 +6766,36 @@
       <c r="A50" s="101">
         <v>49</v>
       </c>
-      <c r="B50" s="101"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="101"/>
-      <c r="E50" s="101"/>
+      <c r="B50" s="101" t="s">
+        <v>749</v>
+      </c>
+      <c r="C50" s="101" t="s">
+        <v>693</v>
+      </c>
+      <c r="D50" s="101" t="s">
+        <v>585</v>
+      </c>
+      <c r="E50" s="101">
+        <v>88000</v>
+      </c>
       <c r="F50" s="122"/>
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="101">
         <v>50</v>
       </c>
-      <c r="B51" s="101"/>
-      <c r="C51" s="101"/>
-      <c r="D51" s="101"/>
-      <c r="E51" s="101"/>
+      <c r="B51" s="101" t="s">
+        <v>749</v>
+      </c>
+      <c r="C51" s="101" t="s">
+        <v>688</v>
+      </c>
+      <c r="D51" s="101" t="s">
+        <v>505</v>
+      </c>
+      <c r="E51" s="101">
+        <v>50000</v>
+      </c>
       <c r="F51" s="122"/>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -6820,10 +6849,6 @@
       <c r="F56" s="122"/>
     </row>
     <row r="57" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E57" s="120">
-        <f>SUBTOTAL(9,E3:E56)</f>
-        <v>5594000</v>
-      </c>
       <c r="F57" s="120"/>
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">

--- a/1 MONTH CREDIT.xlsx
+++ b/1 MONTH CREDIT.xlsx
@@ -3442,6 +3442,30 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3473,30 +3497,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4311,8 +4311,8 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5437,7 +5437,10 @@
       <c r="B57" s="101"/>
       <c r="C57" s="101"/>
       <c r="D57" s="101"/>
-      <c r="E57" s="101"/>
+      <c r="E57" s="101">
+        <f>SUBTOTAL(9,E11:E56)</f>
+        <v>4603000</v>
+      </c>
       <c r="F57" s="122"/>
     </row>
     <row r="58" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5799,8 +5802,8 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9404,34 +9407,34 @@
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
-      <c r="I3" s="161" t="s">
+      <c r="I3" s="150" t="s">
         <v>231</v>
       </c>
-      <c r="J3" s="161"/>
+      <c r="J3" s="150"/>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="157" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="149"/>
+      <c r="B4" s="157"/>
       <c r="C4" s="47"/>
       <c r="D4" s="29"/>
-      <c r="E4" s="150" t="s">
+      <c r="E4" s="158" t="s">
         <v>230</v>
       </c>
-      <c r="F4" s="150"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="148"/>
-      <c r="O4" s="148"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="M4" s="156"/>
+      <c r="N4" s="156"/>
+      <c r="O4" s="156"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="151" t="s">
+      <c r="A5" s="159" t="s">
         <v>240</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -9475,7 +9478,7 @@
       <c r="S5" s="29"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="152"/>
+      <c r="A6" s="160"/>
       <c r="B6" s="30" t="s">
         <v>242</v>
       </c>
@@ -9509,7 +9512,7 @@
       <c r="S6" s="27"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="153"/>
+      <c r="A7" s="161"/>
       <c r="B7" s="31" t="s">
         <v>243</v>
       </c>
@@ -9598,7 +9601,7 @@
       <c r="S9" s="27"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="164" t="s">
+      <c r="A10" s="153" t="s">
         <v>248</v>
       </c>
       <c r="B10" s="30" t="s">
@@ -9626,7 +9629,7 @@
       <c r="S10" s="27"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="166"/>
+      <c r="A11" s="155"/>
       <c r="B11" s="31" t="s">
         <v>32</v>
       </c>
@@ -9656,7 +9659,7 @@
       <c r="S11" s="27"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="164" t="s">
+      <c r="A12" s="153" t="s">
         <v>250</v>
       </c>
       <c r="B12" s="30" t="s">
@@ -9686,7 +9689,7 @@
       <c r="S12" s="27"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="165"/>
+      <c r="A13" s="154"/>
       <c r="B13" s="31" t="s">
         <v>183</v>
       </c>
@@ -9712,7 +9715,7 @@
       <c r="S13" s="27"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="166"/>
+      <c r="A14" s="155"/>
       <c r="B14" s="31" t="s">
         <v>90</v>
       </c>
@@ -9794,7 +9797,7 @@
       <c r="S16" s="27"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="164" t="s">
+      <c r="A17" s="153" t="s">
         <v>255</v>
       </c>
       <c r="B17" s="30" t="s">
@@ -9822,7 +9825,7 @@
       <c r="S17" s="27"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="165"/>
+      <c r="A18" s="154"/>
       <c r="B18" s="31" t="s">
         <v>249</v>
       </c>
@@ -9848,7 +9851,7 @@
       <c r="S18" s="27"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="166"/>
+      <c r="A19" s="155"/>
       <c r="B19" s="31" t="s">
         <v>14</v>
       </c>
@@ -9874,7 +9877,7 @@
       <c r="S19" s="27"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="156" t="s">
+      <c r="A20" s="164" t="s">
         <v>263</v>
       </c>
       <c r="B20" s="30" t="s">
@@ -9902,7 +9905,7 @@
       <c r="S20" s="27"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="157"/>
+      <c r="A21" s="165"/>
       <c r="B21" s="30" t="s">
         <v>215</v>
       </c>
@@ -9927,7 +9930,7 @@
       <c r="S21" s="27"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="157"/>
+      <c r="A22" s="165"/>
       <c r="B22" s="30" t="s">
         <v>264</v>
       </c>
@@ -9953,7 +9956,7 @@
       <c r="S22" s="27"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="158"/>
+      <c r="A23" s="166"/>
       <c r="B23" s="30" t="s">
         <v>265</v>
       </c>
@@ -10052,10 +10055,10 @@
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="39"/>
-      <c r="F27" s="162" t="s">
+      <c r="F27" s="151" t="s">
         <v>232</v>
       </c>
-      <c r="G27" s="162"/>
+      <c r="G27" s="151"/>
       <c r="H27" s="45"/>
       <c r="K27" s="57" t="s">
         <v>280</v>
@@ -10067,7 +10070,7 @@
       <c r="C28" s="12"/>
       <c r="D28" s="32"/>
       <c r="E28" s="39"/>
-      <c r="F28" s="154" t="s">
+      <c r="F28" s="162" t="s">
         <v>233</v>
       </c>
       <c r="G28" s="41" t="s">
@@ -10101,7 +10104,7 @@
       <c r="C29" s="12"/>
       <c r="D29" s="32"/>
       <c r="E29" s="27"/>
-      <c r="F29" s="155"/>
+      <c r="F29" s="163"/>
       <c r="G29" s="40" t="s">
         <v>235</v>
       </c>
@@ -10451,10 +10454,10 @@
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C49" s="58"/>
       <c r="G49" s="59"/>
-      <c r="H49" s="159">
+      <c r="H49" s="148">
         <v>325000</v>
       </c>
-      <c r="I49" s="160"/>
+      <c r="I49" s="149"/>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E53" s="4" t="s">
@@ -10463,6 +10466,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="F27:G27"/>
@@ -10470,12 +10479,6 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A20:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -11915,6 +11918,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A48:B48"/>
@@ -11927,18 +11942,6 @@
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -11953,7 +11956,7 @@
   </sheetPr>
   <dimension ref="A1:U67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
@@ -13398,7 +13401,7 @@
   </sheetPr>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>

--- a/1 MONTH CREDIT.xlsx
+++ b/1 MONTH CREDIT.xlsx
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">' July.2018'!$B$1:$F$67</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'August-2018'!$A$1:$F$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'August-2018'!$A$1:$F$71</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="763">
   <si>
     <t>Date</t>
   </si>
@@ -2519,6 +2519,45 @@
   </si>
   <si>
     <t>23.8.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Paid 27.8.2018</t>
+  </si>
+  <si>
+    <t>24.8.2018</t>
+  </si>
+  <si>
+    <t>7B-6087/Dyna</t>
+  </si>
+  <si>
+    <t>3M-5351/Hijet</t>
+  </si>
+  <si>
+    <t>25.8.2018</t>
+  </si>
+  <si>
+    <t>5I-8100/Isuzu</t>
+  </si>
+  <si>
+    <t>Paid 27.8.2018</t>
+  </si>
+  <si>
+    <t>26.8.2018</t>
+  </si>
+  <si>
+    <t>2L-7530/Toyoace</t>
+  </si>
+  <si>
+    <t>Paid 28.8.2018</t>
+  </si>
+  <si>
+    <t>27.8.2018</t>
+  </si>
+  <si>
+    <t>5P-7098/Hijet</t>
+  </si>
+  <si>
+    <t>Paid 29.8.2018</t>
   </si>
 </sst>
 </file>
@@ -4305,23 +4344,23 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
+      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="120" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="120" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="120" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="120" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="120" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="120" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="120" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="120" customWidth="1"/>
+    <col min="5" max="5" width="14" style="120" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" style="126" customWidth="1"/>
     <col min="7" max="7" width="18.140625" style="120" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="120"/>
@@ -4347,7 +4386,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="101">
         <v>1</v>
       </c>
@@ -4367,7 +4406,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="101">
         <v>2</v>
       </c>
@@ -4388,7 +4427,7 @@
       </c>
       <c r="I3" s="121"/>
     </row>
-    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="101">
         <v>3</v>
       </c>
@@ -4408,7 +4447,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="101">
         <v>4</v>
       </c>
@@ -4428,7 +4467,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="101">
         <v>5</v>
       </c>
@@ -4450,7 +4489,7 @@
       <c r="I6" s="121"/>
       <c r="J6" s="121"/>
     </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="101">
         <v>6</v>
       </c>
@@ -4470,7 +4509,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="101">
         <v>7</v>
       </c>
@@ -4490,7 +4529,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="101">
         <v>8</v>
       </c>
@@ -4510,7 +4549,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="101">
         <v>9</v>
       </c>
@@ -4530,7 +4569,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="101">
         <v>10</v>
       </c>
@@ -4548,7 +4587,7 @@
       </c>
       <c r="F11" s="122"/>
     </row>
-    <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="101">
         <v>11</v>
       </c>
@@ -4571,7 +4610,7 @@
       <c r="I12" s="121"/>
       <c r="J12" s="121"/>
     </row>
-    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="101">
         <v>12</v>
       </c>
@@ -4589,7 +4628,7 @@
       </c>
       <c r="F13" s="122"/>
     </row>
-    <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="101">
         <v>13</v>
       </c>
@@ -4608,7 +4647,7 @@
       <c r="F14" s="122"/>
       <c r="I14" s="121"/>
     </row>
-    <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="101">
         <v>14</v>
       </c>
@@ -4628,7 +4667,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="101">
         <v>15</v>
       </c>
@@ -4648,7 +4687,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="101">
         <v>16</v>
       </c>
@@ -4669,7 +4708,7 @@
       </c>
       <c r="I17" s="121"/>
     </row>
-    <row r="18" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="101">
         <v>17</v>
       </c>
@@ -4689,7 +4728,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="101">
         <v>18</v>
       </c>
@@ -4707,7 +4746,7 @@
       </c>
       <c r="F19" s="122"/>
     </row>
-    <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="101">
         <v>19</v>
       </c>
@@ -4727,7 +4766,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="101">
         <v>20</v>
       </c>
@@ -4747,7 +4786,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="101">
         <v>21</v>
       </c>
@@ -4767,7 +4806,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="101">
         <v>22</v>
       </c>
@@ -4787,7 +4826,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="101">
         <v>23</v>
       </c>
@@ -4805,7 +4844,7 @@
       </c>
       <c r="F24" s="122"/>
     </row>
-    <row r="25" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="101">
         <v>24</v>
       </c>
@@ -4825,7 +4864,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="101">
         <v>25</v>
       </c>
@@ -4845,7 +4884,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="101">
         <v>26</v>
       </c>
@@ -4861,9 +4900,11 @@
       <c r="E27" s="101">
         <v>26000</v>
       </c>
-      <c r="F27" s="122"/>
-    </row>
-    <row r="28" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="122" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="101">
         <v>27</v>
       </c>
@@ -4883,7 +4924,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="101">
         <v>28</v>
       </c>
@@ -4903,7 +4944,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="101">
         <v>29</v>
       </c>
@@ -4923,7 +4964,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="101">
         <v>30</v>
       </c>
@@ -4943,7 +4984,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="101">
         <v>31</v>
       </c>
@@ -4963,7 +5004,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="101">
         <v>32</v>
       </c>
@@ -4983,7 +5024,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="101">
         <v>33</v>
       </c>
@@ -5001,7 +5042,7 @@
       </c>
       <c r="F34" s="122"/>
     </row>
-    <row r="35" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="101">
         <v>34</v>
       </c>
@@ -5019,7 +5060,7 @@
       </c>
       <c r="F35" s="122"/>
     </row>
-    <row r="36" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="101">
         <v>35</v>
       </c>
@@ -5039,7 +5080,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="101">
         <v>36</v>
       </c>
@@ -5060,7 +5101,7 @@
       </c>
       <c r="K37" s="121"/>
     </row>
-    <row r="38" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="101">
         <v>37</v>
       </c>
@@ -5080,7 +5121,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="101">
         <v>38</v>
       </c>
@@ -5118,7 +5159,7 @@
       </c>
       <c r="F40" s="122"/>
     </row>
-    <row r="41" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="101">
         <v>40</v>
       </c>
@@ -5138,7 +5179,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="101">
         <v>41</v>
       </c>
@@ -5158,7 +5199,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="101">
         <v>42</v>
       </c>
@@ -5196,7 +5237,7 @@
       </c>
       <c r="F44" s="122"/>
     </row>
-    <row r="45" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="101">
         <v>44</v>
       </c>
@@ -5215,7 +5256,7 @@
       <c r="F45" s="122"/>
       <c r="H45" s="121"/>
     </row>
-    <row r="46" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="101">
         <v>45</v>
       </c>
@@ -5235,7 +5276,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="101">
         <v>46</v>
       </c>
@@ -5255,7 +5296,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="101">
         <v>47</v>
       </c>
@@ -5275,7 +5316,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="101">
         <v>48</v>
       </c>
@@ -5295,7 +5336,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="101">
         <v>49</v>
       </c>
@@ -5329,9 +5370,11 @@
       <c r="E51" s="101">
         <v>73500</v>
       </c>
-      <c r="F51" s="122"/>
-    </row>
-    <row r="52" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F51" s="122" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="101">
         <v>51</v>
       </c>
@@ -5351,7 +5394,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="101">
         <v>52</v>
       </c>
@@ -5371,7 +5414,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="101">
         <v>51</v>
       </c>
@@ -5394,7 +5437,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="101">
         <v>51</v>
       </c>
@@ -5412,7 +5455,7 @@
       </c>
       <c r="F55" s="122"/>
     </row>
-    <row r="56" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="101">
         <v>51</v>
       </c>
@@ -5432,18 +5475,18 @@
         <v>711</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="101"/>
       <c r="B57" s="101"/>
       <c r="C57" s="101"/>
       <c r="D57" s="101"/>
       <c r="E57" s="101">
         <f>SUBTOTAL(9,E11:E56)</f>
-        <v>4603000</v>
+        <v>310500</v>
       </c>
       <c r="F57" s="122"/>
     </row>
-    <row r="58" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="101"/>
       <c r="B58" s="101"/>
       <c r="C58" s="101"/>
@@ -5451,7 +5494,7 @@
       <c r="E58" s="101"/>
       <c r="F58" s="122"/>
     </row>
-    <row r="59" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="101"/>
       <c r="B59" s="101"/>
       <c r="C59" s="101"/>
@@ -5459,7 +5502,7 @@
       <c r="E59" s="101"/>
       <c r="F59" s="122"/>
     </row>
-    <row r="60" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="101"/>
       <c r="B60" s="101"/>
       <c r="C60" s="101"/>
@@ -5467,7 +5510,7 @@
       <c r="E60" s="101"/>
       <c r="F60" s="122"/>
     </row>
-    <row r="61" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="101"/>
       <c r="B61" s="101"/>
       <c r="C61" s="101"/>
@@ -5475,7 +5518,7 @@
       <c r="E61" s="101"/>
       <c r="F61" s="122"/>
     </row>
-    <row r="62" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="101"/>
       <c r="B62" s="101"/>
       <c r="C62" s="101"/>
@@ -5483,7 +5526,7 @@
       <c r="E62" s="101"/>
       <c r="F62" s="122"/>
     </row>
-    <row r="63" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="101"/>
       <c r="B63" s="101"/>
       <c r="C63" s="101"/>
@@ -5491,7 +5534,7 @@
       <c r="E63" s="101"/>
       <c r="F63" s="122"/>
     </row>
-    <row r="64" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="101"/>
       <c r="B64" s="101"/>
       <c r="C64" s="101"/>
@@ -5499,7 +5542,7 @@
       <c r="E64" s="101"/>
       <c r="F64" s="122"/>
     </row>
-    <row r="65" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="101"/>
       <c r="B65" s="101"/>
       <c r="C65" s="101"/>
@@ -5507,7 +5550,7 @@
       <c r="E65" s="101"/>
       <c r="F65" s="122"/>
     </row>
-    <row r="66" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="101"/>
       <c r="B66" s="101"/>
       <c r="C66" s="101"/>
@@ -5515,7 +5558,7 @@
       <c r="E66" s="101"/>
       <c r="F66" s="122"/>
     </row>
-    <row r="67" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="101"/>
       <c r="B67" s="101"/>
       <c r="C67" s="101"/>
@@ -5528,7 +5571,10 @@
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="12"/>
-      <c r="E68" s="127"/>
+      <c r="E68" s="92">
+        <f>SUBTOTAL(9,E27:E67)</f>
+        <v>310500</v>
+      </c>
       <c r="F68" s="122"/>
     </row>
     <row r="69" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5788,7 +5834,16 @@
       <c r="F100" s="122"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:F67"/>
+  <autoFilter ref="B1:F67">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Bingo Co.,"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="11" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -5799,26 +5854,26 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J58" sqref="J58"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="120" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="120" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="120" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="120" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="120" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="126" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="120" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="120" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="120" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="120" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="120" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="126" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="120" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="120"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="135" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="135" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="133" t="s">
         <v>566</v>
       </c>
@@ -5916,7 +5971,9 @@
       <c r="E5" s="101">
         <v>4500</v>
       </c>
-      <c r="F5" s="122"/>
+      <c r="F5" s="122" t="s">
+        <v>762</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="101">
@@ -6173,7 +6230,9 @@
       <c r="E18" s="101">
         <v>16000</v>
       </c>
-      <c r="F18" s="122"/>
+      <c r="F18" s="122" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="101">
@@ -6501,7 +6560,9 @@
       <c r="E35" s="101">
         <v>3500</v>
       </c>
-      <c r="F35" s="122"/>
+      <c r="F35" s="122" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="36" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="101">
@@ -6559,7 +6620,9 @@
       <c r="E38" s="101">
         <v>12500</v>
       </c>
-      <c r="F38" s="122"/>
+      <c r="F38" s="122" t="s">
+        <v>762</v>
+      </c>
     </row>
     <row r="39" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="101">
@@ -6595,7 +6658,9 @@
       <c r="E40" s="101">
         <v>25000</v>
       </c>
-      <c r="F40" s="122"/>
+      <c r="F40" s="122" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="41" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="101">
@@ -6669,7 +6734,9 @@
       <c r="E44" s="101">
         <v>100000</v>
       </c>
-      <c r="F44" s="122"/>
+      <c r="F44" s="122" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="45" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="101">
@@ -6725,7 +6792,9 @@
       <c r="E47" s="101">
         <v>79500</v>
       </c>
-      <c r="F47" s="122"/>
+      <c r="F47" s="122" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="48" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="101">
@@ -6781,7 +6850,9 @@
       <c r="E50" s="101">
         <v>88000</v>
       </c>
-      <c r="F50" s="122"/>
+      <c r="F50" s="122" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="101">
@@ -6805,122 +6876,301 @@
       <c r="A52" s="101">
         <v>51</v>
       </c>
-      <c r="B52" s="101"/>
-      <c r="C52" s="101"/>
-      <c r="D52" s="101"/>
-      <c r="E52" s="101"/>
+      <c r="B52" s="101" t="s">
+        <v>751</v>
+      </c>
+      <c r="C52" s="101" t="s">
+        <v>752</v>
+      </c>
+      <c r="D52" s="101" t="s">
+        <v>585</v>
+      </c>
+      <c r="E52" s="101">
+        <v>55000</v>
+      </c>
       <c r="F52" s="122"/>
     </row>
     <row r="53" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="101">
         <v>52</v>
       </c>
-      <c r="B53" s="101"/>
+      <c r="B53" s="101" t="s">
+        <v>751</v>
+      </c>
       <c r="C53" s="101"/>
-      <c r="D53" s="101"/>
-      <c r="E53" s="101"/>
+      <c r="D53" s="101" t="s">
+        <v>575</v>
+      </c>
+      <c r="E53" s="101">
+        <v>36000</v>
+      </c>
       <c r="F53" s="122"/>
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="101">
         <v>51</v>
       </c>
-      <c r="B54" s="101"/>
-      <c r="C54" s="101"/>
-      <c r="D54" s="101"/>
-      <c r="E54" s="101"/>
-      <c r="F54" s="122"/>
+      <c r="B54" s="101" t="s">
+        <v>751</v>
+      </c>
+      <c r="C54" s="101" t="s">
+        <v>753</v>
+      </c>
+      <c r="D54" s="101" t="s">
+        <v>585</v>
+      </c>
+      <c r="E54" s="101">
+        <v>5000</v>
+      </c>
+      <c r="F54" s="122" t="s">
+        <v>762</v>
+      </c>
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="101">
         <v>51</v>
       </c>
-      <c r="B55" s="101"/>
-      <c r="C55" s="101"/>
-      <c r="D55" s="101"/>
-      <c r="E55" s="101"/>
-      <c r="F55" s="122"/>
+      <c r="B55" s="101" t="s">
+        <v>751</v>
+      </c>
+      <c r="C55" s="101" t="s">
+        <v>634</v>
+      </c>
+      <c r="D55" s="101" t="s">
+        <v>590</v>
+      </c>
+      <c r="E55" s="101">
+        <v>194000</v>
+      </c>
+      <c r="F55" s="122" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="101">
-        <v>51</v>
-      </c>
-      <c r="B56" s="101"/>
-      <c r="C56" s="101"/>
-      <c r="D56" s="101"/>
-      <c r="E56" s="101"/>
+        <v>50.3333333333333</v>
+      </c>
+      <c r="B56" s="101" t="s">
+        <v>754</v>
+      </c>
+      <c r="C56" s="101" t="s">
+        <v>675</v>
+      </c>
+      <c r="D56" s="101" t="s">
+        <v>505</v>
+      </c>
+      <c r="E56" s="101">
+        <v>45500</v>
+      </c>
       <c r="F56" s="122"/>
     </row>
     <row r="57" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F57" s="120"/>
+      <c r="A57" s="101">
+        <v>49.8333333333333</v>
+      </c>
+      <c r="B57" s="101" t="s">
+        <v>754</v>
+      </c>
+      <c r="C57" s="101" t="s">
+        <v>755</v>
+      </c>
+      <c r="D57" s="101" t="s">
+        <v>590</v>
+      </c>
+      <c r="E57" s="101">
+        <v>104000</v>
+      </c>
+      <c r="F57" s="122" t="s">
+        <v>756</v>
+      </c>
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F58" s="120"/>
+      <c r="A58" s="101">
+        <v>49.3333333333333</v>
+      </c>
+      <c r="B58" s="101" t="s">
+        <v>757</v>
+      </c>
+      <c r="C58" s="101" t="s">
+        <v>758</v>
+      </c>
+      <c r="D58" s="101" t="s">
+        <v>585</v>
+      </c>
+      <c r="E58" s="101">
+        <v>58000</v>
+      </c>
+      <c r="F58" s="122"/>
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F59" s="120"/>
+      <c r="A59" s="101">
+        <v>48.8333333333333</v>
+      </c>
+      <c r="B59" s="101" t="s">
+        <v>760</v>
+      </c>
+      <c r="C59" s="101" t="s">
+        <v>761</v>
+      </c>
+      <c r="D59" s="101" t="s">
+        <v>585</v>
+      </c>
+      <c r="E59" s="101">
+        <v>40000</v>
+      </c>
+      <c r="F59" s="122" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F60" s="120"/>
+      <c r="A60" s="101">
+        <v>48.3333333333333</v>
+      </c>
+      <c r="B60" s="101"/>
+      <c r="C60" s="101"/>
+      <c r="D60" s="101"/>
+      <c r="E60" s="101"/>
+      <c r="F60" s="122"/>
     </row>
     <row r="61" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F61" s="120"/>
+      <c r="A61" s="101">
+        <v>47.8333333333333</v>
+      </c>
+      <c r="B61" s="101"/>
+      <c r="C61" s="101"/>
+      <c r="D61" s="101"/>
+      <c r="E61" s="101"/>
+      <c r="F61" s="122"/>
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F62" s="120"/>
+      <c r="A62" s="101">
+        <v>47.3333333333333</v>
+      </c>
+      <c r="B62" s="101"/>
+      <c r="C62" s="101"/>
+      <c r="D62" s="101"/>
+      <c r="E62" s="101"/>
+      <c r="F62" s="122"/>
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F63" s="120"/>
+      <c r="A63" s="101">
+        <v>46.8333333333333</v>
+      </c>
+      <c r="B63" s="101"/>
+      <c r="C63" s="101"/>
+      <c r="D63" s="101"/>
+      <c r="E63" s="101"/>
+      <c r="F63" s="122"/>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F64" s="120"/>
-    </row>
-    <row r="65" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F65" s="120"/>
-    </row>
-    <row r="66" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F66" s="120"/>
-    </row>
-    <row r="67" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F67" s="120"/>
-    </row>
-    <row r="68" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F68" s="120"/>
-    </row>
-    <row r="69" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F69" s="120"/>
-    </row>
-    <row r="70" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F70" s="120"/>
-    </row>
-    <row r="71" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F71" s="120"/>
-    </row>
-    <row r="72" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="101">
+        <v>46.3333333333333</v>
+      </c>
+      <c r="B64" s="101"/>
+      <c r="C64" s="101"/>
+      <c r="D64" s="101"/>
+      <c r="E64" s="101"/>
+      <c r="F64" s="122"/>
+    </row>
+    <row r="65" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="101">
+        <v>45.8333333333333</v>
+      </c>
+      <c r="B65" s="101"/>
+      <c r="C65" s="101"/>
+      <c r="D65" s="101"/>
+      <c r="E65" s="101"/>
+      <c r="F65" s="122"/>
+    </row>
+    <row r="66" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="101">
+        <v>45.3333333333333</v>
+      </c>
+      <c r="B66" s="101"/>
+      <c r="C66" s="101"/>
+      <c r="D66" s="101"/>
+      <c r="E66" s="101"/>
+      <c r="F66" s="122"/>
+    </row>
+    <row r="67" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="101">
+        <v>44.8333333333333</v>
+      </c>
+      <c r="B67" s="101"/>
+      <c r="C67" s="101"/>
+      <c r="D67" s="101"/>
+      <c r="E67" s="101"/>
+      <c r="F67" s="122"/>
+    </row>
+    <row r="68" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="101">
+        <v>44.3333333333333</v>
+      </c>
+      <c r="B68" s="101"/>
+      <c r="C68" s="101"/>
+      <c r="D68" s="101"/>
+      <c r="E68" s="101"/>
+      <c r="F68" s="122"/>
+    </row>
+    <row r="69" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="101">
+        <v>43.8333333333333</v>
+      </c>
+      <c r="B69" s="101"/>
+      <c r="C69" s="101"/>
+      <c r="D69" s="101"/>
+      <c r="E69" s="101"/>
+      <c r="F69" s="122"/>
+    </row>
+    <row r="70" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="101">
+        <v>43.3333333333333</v>
+      </c>
+      <c r="B70" s="101"/>
+      <c r="C70" s="101"/>
+      <c r="D70" s="101"/>
+      <c r="E70" s="101"/>
+      <c r="F70" s="122"/>
+    </row>
+    <row r="71" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="101">
+        <v>42.8333333333333</v>
+      </c>
+      <c r="B71" s="101"/>
+      <c r="C71" s="101"/>
+      <c r="D71" s="101"/>
+      <c r="E71" s="101"/>
+      <c r="F71" s="122"/>
+    </row>
+    <row r="72" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E72" s="120">
+        <f>SUBTOTAL(9,E3:E71)</f>
+        <v>6269500</v>
+      </c>
       <c r="F72" s="120"/>
     </row>
-    <row r="73" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F73" s="120"/>
     </row>
-    <row r="74" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F74" s="120"/>
     </row>
-    <row r="75" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F75" s="120"/>
     </row>
-    <row r="76" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F76" s="120"/>
     </row>
-    <row r="77" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F77" s="120"/>
     </row>
-    <row r="78" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F78" s="120"/>
     </row>
-    <row r="79" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F79" s="120"/>
     </row>
-    <row r="80" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F80" s="120"/>
     </row>
     <row r="81" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -6983,10 +7233,55 @@
     <row r="100" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F100" s="120"/>
     </row>
+    <row r="101" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F101" s="120"/>
+    </row>
+    <row r="102" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F102" s="120"/>
+    </row>
+    <row r="103" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F103" s="120"/>
+    </row>
+    <row r="104" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F104" s="120"/>
+    </row>
+    <row r="105" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F105" s="120"/>
+    </row>
+    <row r="106" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F106" s="120"/>
+    </row>
+    <row r="107" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F107" s="120"/>
+    </row>
+    <row r="108" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F108" s="120"/>
+    </row>
+    <row r="109" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F109" s="120"/>
+    </row>
+    <row r="110" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F110" s="120"/>
+    </row>
+    <row r="111" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F111" s="120"/>
+    </row>
+    <row r="112" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F112" s="120"/>
+    </row>
+    <row r="113" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F113" s="120"/>
+    </row>
+    <row r="114" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F114" s="120"/>
+    </row>
+    <row r="115" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F115" s="120"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F56"/>
+  <autoFilter ref="A1:F71"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="11" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/1 MONTH CREDIT.xlsx
+++ b/1 MONTH CREDIT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="930" windowWidth="18195" windowHeight="10965" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="930" windowWidth="18195" windowHeight="10965" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Oct;2017" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,13 @@
     <sheet name="Jun.2018" sheetId="10" r:id="rId9"/>
     <sheet name=" July.2018" sheetId="11" r:id="rId10"/>
     <sheet name="August-2018" sheetId="13" r:id="rId11"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId12"/>
+    <sheet name="Sept;2018" sheetId="14" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">' July.2018'!$B$1:$F$67</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'August-2018'!$A$1:$F$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'August-2018'!$A$1:$F$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Sept;2018'!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -268,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="773">
   <si>
     <t>Date</t>
   </si>
@@ -2359,12 +2361,6 @@
     <t>Paid 6.8.2018/Balance-25000</t>
   </si>
   <si>
-    <t>21.7.2018</t>
-  </si>
-  <si>
-    <t>Bingo Co., Ltd</t>
-  </si>
-  <si>
     <t>8.8.2018</t>
   </si>
   <si>
@@ -2437,9 +2433,6 @@
     <t>3I-1361/Bongo3</t>
   </si>
   <si>
-    <t>KZK</t>
-  </si>
-  <si>
     <t>Paid 16.8.2018</t>
   </si>
   <si>
@@ -2558,6 +2551,45 @@
   </si>
   <si>
     <t>Paid 29.8.2018</t>
+  </si>
+  <si>
+    <t>28.8.2018</t>
+  </si>
+  <si>
+    <t>30.8.2018</t>
+  </si>
+  <si>
+    <t>3J-1731/Bongo</t>
+  </si>
+  <si>
+    <t>31.8.2018</t>
+  </si>
+  <si>
+    <t>3P-7665/Isuzu</t>
+  </si>
+  <si>
+    <t>Han Sein Thant</t>
+  </si>
+  <si>
+    <t>Ko Zin Ko</t>
+  </si>
+  <si>
+    <t>1Q-5416/Fuso</t>
+  </si>
+  <si>
+    <t>Premium W.W</t>
+  </si>
+  <si>
+    <t>Paid 3.9.2018/</t>
+  </si>
+  <si>
+    <t>340500/Bl 322000</t>
+  </si>
+  <si>
+    <t>Paid 3.9.2018</t>
+  </si>
+  <si>
+    <t>Discount-119000</t>
   </si>
 </sst>
 </file>
@@ -2568,7 +2600,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2844,15 +2876,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3220,7 +3243,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3448,15 +3471,6 @@
     <xf numFmtId="164" fontId="36" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3575,9 +3589,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3901,18 +3912,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
     </row>
     <row r="2" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -4344,29 +4355,29 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
+      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="120" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="120" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="120" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="120" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" style="120" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" style="120" customWidth="1"/>
-    <col min="5" max="5" width="14" style="120" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="126" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="120" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="126" customWidth="1"/>
     <col min="7" max="7" width="18.140625" style="120" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="120"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="119" t="s">
         <v>566</v>
       </c>
@@ -4386,7 +4397,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="101">
         <v>1</v>
       </c>
@@ -4406,7 +4417,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="101">
         <v>2</v>
       </c>
@@ -4427,7 +4438,7 @@
       </c>
       <c r="I3" s="121"/>
     </row>
-    <row r="4" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="101">
         <v>3</v>
       </c>
@@ -4447,7 +4458,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="101">
         <v>4</v>
       </c>
@@ -4467,7 +4478,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="101">
         <v>5</v>
       </c>
@@ -4489,7 +4500,7 @@
       <c r="I6" s="121"/>
       <c r="J6" s="121"/>
     </row>
-    <row r="7" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="101">
         <v>6</v>
       </c>
@@ -4509,7 +4520,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="101">
         <v>7</v>
       </c>
@@ -4529,7 +4540,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="101">
         <v>8</v>
       </c>
@@ -4546,10 +4557,10 @@
         <v>158000</v>
       </c>
       <c r="F9" s="122" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="101">
         <v>9</v>
       </c>
@@ -4569,7 +4580,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="101">
         <v>10</v>
       </c>
@@ -4587,7 +4598,7 @@
       </c>
       <c r="F11" s="122"/>
     </row>
-    <row r="12" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="101">
         <v>11</v>
       </c>
@@ -4610,7 +4621,7 @@
       <c r="I12" s="121"/>
       <c r="J12" s="121"/>
     </row>
-    <row r="13" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="101">
         <v>12</v>
       </c>
@@ -4628,7 +4639,7 @@
       </c>
       <c r="F13" s="122"/>
     </row>
-    <row r="14" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="101">
         <v>13</v>
       </c>
@@ -4647,7 +4658,7 @@
       <c r="F14" s="122"/>
       <c r="I14" s="121"/>
     </row>
-    <row r="15" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="101">
         <v>14</v>
       </c>
@@ -4667,7 +4678,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="101">
         <v>15</v>
       </c>
@@ -4687,7 +4698,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="101">
         <v>16</v>
       </c>
@@ -4708,7 +4719,7 @@
       </c>
       <c r="I17" s="121"/>
     </row>
-    <row r="18" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="101">
         <v>17</v>
       </c>
@@ -4728,25 +4739,27 @@
         <v>656</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="101">
         <v>18</v>
       </c>
       <c r="B19" s="101" t="s">
         <v>604</v>
       </c>
-      <c r="C19" s="101" t="s">
+      <c r="C19" s="122" t="s">
         <v>609</v>
       </c>
-      <c r="D19" s="101" t="s">
+      <c r="D19" s="122" t="s">
         <v>595</v>
       </c>
-      <c r="E19" s="101">
+      <c r="E19" s="122">
         <v>63500</v>
       </c>
-      <c r="F19" s="122"/>
-    </row>
-    <row r="20" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="122" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="101">
         <v>19</v>
       </c>
@@ -4766,7 +4779,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="101">
         <v>20</v>
       </c>
@@ -4786,7 +4799,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="101">
         <v>21</v>
       </c>
@@ -4806,7 +4819,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="101">
         <v>22</v>
       </c>
@@ -4823,10 +4836,10 @@
         <v>33500</v>
       </c>
       <c r="F23" s="122" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="101">
         <v>23</v>
       </c>
@@ -4844,7 +4857,7 @@
       </c>
       <c r="F24" s="122"/>
     </row>
-    <row r="25" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="101">
         <v>24</v>
       </c>
@@ -4864,7 +4877,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="101">
         <v>25</v>
       </c>
@@ -4881,10 +4894,10 @@
         <v>72000</v>
       </c>
       <c r="F26" s="122" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="101">
         <v>26</v>
       </c>
@@ -4901,10 +4914,10 @@
         <v>26000</v>
       </c>
       <c r="F27" s="122" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="101">
         <v>27</v>
       </c>
@@ -4924,7 +4937,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="101">
         <v>28</v>
       </c>
@@ -4941,10 +4954,10 @@
         <v>236000</v>
       </c>
       <c r="F29" s="122" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="101">
         <v>29</v>
       </c>
@@ -4964,7 +4977,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="101">
         <v>30</v>
       </c>
@@ -4984,7 +4997,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="101">
         <v>31</v>
       </c>
@@ -5004,7 +5017,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="101">
         <v>32</v>
       </c>
@@ -5024,25 +5037,27 @@
         <v>636</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="101">
         <v>33</v>
       </c>
       <c r="B34" s="101" t="s">
         <v>628</v>
       </c>
-      <c r="C34" s="101" t="s">
+      <c r="C34" s="122" t="s">
         <v>629</v>
       </c>
-      <c r="D34" s="101" t="s">
+      <c r="D34" s="122" t="s">
         <v>595</v>
       </c>
-      <c r="E34" s="101">
+      <c r="E34" s="122">
         <v>40000</v>
       </c>
-      <c r="F34" s="122"/>
-    </row>
-    <row r="35" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="122" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="101">
         <v>34</v>
       </c>
@@ -5060,7 +5075,7 @@
       </c>
       <c r="F35" s="122"/>
     </row>
-    <row r="36" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="101">
         <v>35</v>
       </c>
@@ -5080,7 +5095,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="101">
         <v>36</v>
       </c>
@@ -5101,7 +5116,7 @@
       </c>
       <c r="K37" s="121"/>
     </row>
-    <row r="38" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="101">
         <v>37</v>
       </c>
@@ -5121,7 +5136,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="101">
         <v>38</v>
       </c>
@@ -5141,7 +5156,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="101">
         <v>39</v>
       </c>
@@ -5159,7 +5174,7 @@
       </c>
       <c r="F40" s="122"/>
     </row>
-    <row r="41" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="101">
         <v>40</v>
       </c>
@@ -5179,7 +5194,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="101">
         <v>41</v>
       </c>
@@ -5199,7 +5214,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="101">
         <v>42</v>
       </c>
@@ -5219,7 +5234,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="101">
         <v>43</v>
       </c>
@@ -5237,7 +5252,7 @@
       </c>
       <c r="F44" s="122"/>
     </row>
-    <row r="45" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="101">
         <v>44</v>
       </c>
@@ -5256,7 +5271,7 @@
       <c r="F45" s="122"/>
       <c r="H45" s="121"/>
     </row>
-    <row r="46" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="101">
         <v>45</v>
       </c>
@@ -5276,7 +5291,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="101">
         <v>46</v>
       </c>
@@ -5296,7 +5311,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="101">
         <v>47</v>
       </c>
@@ -5316,7 +5331,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="101">
         <v>48</v>
       </c>
@@ -5336,25 +5351,27 @@
         <v>653</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="101">
         <v>49</v>
       </c>
       <c r="B50" s="101" t="s">
         <v>648</v>
       </c>
-      <c r="C50" s="101" t="s">
+      <c r="C50" s="122" t="s">
         <v>609</v>
       </c>
-      <c r="D50" s="101" t="s">
+      <c r="D50" s="122" t="s">
         <v>595</v>
       </c>
-      <c r="E50" s="101">
+      <c r="E50" s="122">
         <v>14000</v>
       </c>
-      <c r="F50" s="122"/>
-    </row>
-    <row r="51" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F50" s="122" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="101">
         <v>50</v>
       </c>
@@ -5371,10 +5388,10 @@
         <v>73500</v>
       </c>
       <c r="F51" s="122" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="101">
         <v>51</v>
       </c>
@@ -5394,7 +5411,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="101">
         <v>52</v>
       </c>
@@ -5414,7 +5431,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="101">
         <v>51</v>
       </c>
@@ -5431,13 +5448,13 @@
         <v>942000</v>
       </c>
       <c r="F54" s="122" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="G54" s="126" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="101">
         <v>51</v>
       </c>
@@ -5455,7 +5472,7 @@
       </c>
       <c r="F55" s="122"/>
     </row>
-    <row r="56" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="101">
         <v>51</v>
       </c>
@@ -5472,21 +5489,21 @@
         <v>40000</v>
       </c>
       <c r="F56" s="122" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="101"/>
       <c r="B57" s="101"/>
       <c r="C57" s="101"/>
       <c r="D57" s="101"/>
       <c r="E57" s="101">
         <f>SUBTOTAL(9,E11:E56)</f>
-        <v>310500</v>
+        <v>4603000</v>
       </c>
       <c r="F57" s="122"/>
     </row>
-    <row r="58" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="101"/>
       <c r="B58" s="101"/>
       <c r="C58" s="101"/>
@@ -5494,7 +5511,7 @@
       <c r="E58" s="101"/>
       <c r="F58" s="122"/>
     </row>
-    <row r="59" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="101"/>
       <c r="B59" s="101"/>
       <c r="C59" s="101"/>
@@ -5502,7 +5519,7 @@
       <c r="E59" s="101"/>
       <c r="F59" s="122"/>
     </row>
-    <row r="60" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="101"/>
       <c r="B60" s="101"/>
       <c r="C60" s="101"/>
@@ -5510,7 +5527,7 @@
       <c r="E60" s="101"/>
       <c r="F60" s="122"/>
     </row>
-    <row r="61" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="101"/>
       <c r="B61" s="101"/>
       <c r="C61" s="101"/>
@@ -5518,7 +5535,7 @@
       <c r="E61" s="101"/>
       <c r="F61" s="122"/>
     </row>
-    <row r="62" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="101"/>
       <c r="B62" s="101"/>
       <c r="C62" s="101"/>
@@ -5526,7 +5543,7 @@
       <c r="E62" s="101"/>
       <c r="F62" s="122"/>
     </row>
-    <row r="63" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="101"/>
       <c r="B63" s="101"/>
       <c r="C63" s="101"/>
@@ -5534,7 +5551,7 @@
       <c r="E63" s="101"/>
       <c r="F63" s="122"/>
     </row>
-    <row r="64" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="101"/>
       <c r="B64" s="101"/>
       <c r="C64" s="101"/>
@@ -5542,7 +5559,7 @@
       <c r="E64" s="101"/>
       <c r="F64" s="122"/>
     </row>
-    <row r="65" spans="1:6" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="101"/>
       <c r="B65" s="101"/>
       <c r="C65" s="101"/>
@@ -5550,7 +5567,7 @@
       <c r="E65" s="101"/>
       <c r="F65" s="122"/>
     </row>
-    <row r="66" spans="1:6" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="101"/>
       <c r="B66" s="101"/>
       <c r="C66" s="101"/>
@@ -5558,7 +5575,7 @@
       <c r="E66" s="101"/>
       <c r="F66" s="122"/>
     </row>
-    <row r="67" spans="1:6" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="101"/>
       <c r="B67" s="101"/>
       <c r="C67" s="101"/>
@@ -5566,18 +5583,15 @@
       <c r="E67" s="101"/>
       <c r="F67" s="122"/>
     </row>
-    <row r="68" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="101"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="12"/>
-      <c r="E68" s="92">
-        <f>SUBTOTAL(9,E27:E67)</f>
-        <v>310500</v>
-      </c>
+      <c r="E68" s="92"/>
       <c r="F68" s="122"/>
     </row>
-    <row r="69" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -5585,7 +5599,7 @@
       <c r="E69" s="12"/>
       <c r="F69" s="122"/>
     </row>
-    <row r="70" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="101"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -5593,7 +5607,7 @@
       <c r="E70" s="12"/>
       <c r="F70" s="122"/>
     </row>
-    <row r="71" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="101"/>
       <c r="B71" s="101"/>
       <c r="C71" s="101"/>
@@ -5601,7 +5615,7 @@
       <c r="E71" s="101"/>
       <c r="F71" s="122"/>
     </row>
-    <row r="72" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="101"/>
       <c r="B72" s="101"/>
       <c r="C72" s="101"/>
@@ -5609,7 +5623,7 @@
       <c r="E72" s="101"/>
       <c r="F72" s="122"/>
     </row>
-    <row r="73" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="101"/>
       <c r="B73" s="101"/>
       <c r="C73" s="101"/>
@@ -5617,7 +5631,7 @@
       <c r="E73" s="136"/>
       <c r="F73" s="122"/>
     </row>
-    <row r="74" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="101"/>
       <c r="B74" s="101"/>
       <c r="C74" s="101"/>
@@ -5625,7 +5639,7 @@
       <c r="E74" s="101"/>
       <c r="F74" s="122"/>
     </row>
-    <row r="75" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="101"/>
       <c r="B75" s="101"/>
       <c r="C75" s="101"/>
@@ -5633,7 +5647,7 @@
       <c r="E75" s="101"/>
       <c r="F75" s="122"/>
     </row>
-    <row r="76" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="101"/>
       <c r="B76" s="101"/>
       <c r="C76" s="101"/>
@@ -5641,7 +5655,7 @@
       <c r="E76" s="101"/>
       <c r="F76" s="122"/>
     </row>
-    <row r="77" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="101"/>
       <c r="B77" s="101"/>
       <c r="C77" s="101"/>
@@ -5649,7 +5663,7 @@
       <c r="E77" s="101"/>
       <c r="F77" s="122"/>
     </row>
-    <row r="78" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="101"/>
       <c r="B78" s="101"/>
       <c r="C78" s="101"/>
@@ -5657,7 +5671,7 @@
       <c r="E78" s="101"/>
       <c r="F78" s="122"/>
     </row>
-    <row r="79" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="101"/>
       <c r="B79" s="101"/>
       <c r="C79" s="101"/>
@@ -5665,7 +5679,7 @@
       <c r="E79" s="101"/>
       <c r="F79" s="122"/>
     </row>
-    <row r="80" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="101"/>
       <c r="B80" s="101"/>
       <c r="C80" s="101"/>
@@ -5673,7 +5687,7 @@
       <c r="E80" s="101"/>
       <c r="F80" s="122"/>
     </row>
-    <row r="81" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="101"/>
       <c r="B81" s="101"/>
       <c r="C81" s="101"/>
@@ -5681,7 +5695,7 @@
       <c r="E81" s="101"/>
       <c r="F81" s="122"/>
     </row>
-    <row r="82" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="101"/>
       <c r="B82" s="101"/>
       <c r="C82" s="101"/>
@@ -5689,7 +5703,7 @@
       <c r="E82" s="101"/>
       <c r="F82" s="122"/>
     </row>
-    <row r="83" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="101"/>
       <c r="B83" s="101"/>
       <c r="C83" s="101"/>
@@ -5697,7 +5711,7 @@
       <c r="E83" s="101"/>
       <c r="F83" s="122"/>
     </row>
-    <row r="84" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="101"/>
       <c r="B84" s="101"/>
       <c r="C84" s="101"/>
@@ -5705,7 +5719,7 @@
       <c r="E84" s="101"/>
       <c r="F84" s="122"/>
     </row>
-    <row r="85" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="101"/>
       <c r="B85" s="101"/>
       <c r="C85" s="101"/>
@@ -5713,7 +5727,7 @@
       <c r="E85" s="101"/>
       <c r="F85" s="122"/>
     </row>
-    <row r="86" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="101"/>
       <c r="B86" s="101"/>
       <c r="C86" s="101"/>
@@ -5721,7 +5735,7 @@
       <c r="E86" s="101"/>
       <c r="F86" s="122"/>
     </row>
-    <row r="87" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="101"/>
       <c r="B87" s="101"/>
       <c r="C87" s="101"/>
@@ -5729,7 +5743,7 @@
       <c r="E87" s="101"/>
       <c r="F87" s="122"/>
     </row>
-    <row r="88" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="101"/>
       <c r="B88" s="101"/>
       <c r="C88" s="101"/>
@@ -5737,7 +5751,7 @@
       <c r="E88" s="101"/>
       <c r="F88" s="122"/>
     </row>
-    <row r="89" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="101"/>
       <c r="B89" s="101"/>
       <c r="C89" s="101"/>
@@ -5745,7 +5759,7 @@
       <c r="E89" s="101"/>
       <c r="F89" s="122"/>
     </row>
-    <row r="90" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="101"/>
       <c r="B90" s="101"/>
       <c r="C90" s="101"/>
@@ -5753,7 +5767,7 @@
       <c r="E90" s="101"/>
       <c r="F90" s="122"/>
     </row>
-    <row r="91" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="101"/>
       <c r="B91" s="101"/>
       <c r="C91" s="101"/>
@@ -5761,7 +5775,7 @@
       <c r="E91" s="101"/>
       <c r="F91" s="122"/>
     </row>
-    <row r="92" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="101"/>
       <c r="B92" s="101"/>
       <c r="C92" s="101"/>
@@ -5769,7 +5783,7 @@
       <c r="E92" s="101"/>
       <c r="F92" s="122"/>
     </row>
-    <row r="93" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="101"/>
       <c r="B93" s="101"/>
       <c r="C93" s="101"/>
@@ -5777,7 +5791,7 @@
       <c r="E93" s="101"/>
       <c r="F93" s="122"/>
     </row>
-    <row r="94" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="101"/>
       <c r="B94" s="101"/>
       <c r="C94" s="101"/>
@@ -5785,7 +5799,7 @@
       <c r="E94" s="101"/>
       <c r="F94" s="122"/>
     </row>
-    <row r="95" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="101"/>
       <c r="B95" s="101"/>
       <c r="C95" s="101"/>
@@ -5793,7 +5807,7 @@
       <c r="E95" s="101"/>
       <c r="F95" s="122"/>
     </row>
-    <row r="96" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="101"/>
       <c r="B96" s="101"/>
       <c r="C96" s="101"/>
@@ -5801,7 +5815,7 @@
       <c r="E96" s="101"/>
       <c r="F96" s="122"/>
     </row>
-    <row r="97" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="101"/>
       <c r="B97" s="101"/>
       <c r="C97" s="101"/>
@@ -5809,7 +5823,7 @@
       <c r="E97" s="101"/>
       <c r="F97" s="122"/>
     </row>
-    <row r="98" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="101"/>
       <c r="B98" s="101"/>
       <c r="C98" s="101"/>
@@ -5817,7 +5831,7 @@
       <c r="E98" s="101"/>
       <c r="F98" s="122"/>
     </row>
-    <row r="99" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="101"/>
       <c r="B99" s="101"/>
       <c r="C99" s="101"/>
@@ -5825,7 +5839,7 @@
       <c r="E99" s="101"/>
       <c r="F99" s="122"/>
     </row>
-    <row r="100" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="101"/>
       <c r="B100" s="101"/>
       <c r="C100" s="101"/>
@@ -5834,16 +5848,7 @@
       <c r="F100" s="122"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:F67">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Bingo Co.,"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:F67"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="11" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -5854,26 +5859,1534 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
+  <dimension ref="A1:K113"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" style="120" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="120" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" style="120" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="120" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="120" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="126" customWidth="1"/>
+    <col min="7" max="7" width="20" style="120" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="120"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="135" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="133" t="s">
+        <v>566</v>
+      </c>
+      <c r="B1" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="133" t="s">
+        <v>568</v>
+      </c>
+      <c r="D1" s="133" t="s">
+        <v>567</v>
+      </c>
+      <c r="E1" s="133" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="134" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="101">
+        <v>1</v>
+      </c>
+      <c r="B2" s="101" t="s">
+        <v>669</v>
+      </c>
+      <c r="C2" s="101" t="s">
+        <v>670</v>
+      </c>
+      <c r="D2" s="101" t="s">
+        <v>590</v>
+      </c>
+      <c r="E2" s="101">
+        <v>297000</v>
+      </c>
+      <c r="F2" s="122" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="101">
+        <v>2</v>
+      </c>
+      <c r="B3" s="101" t="s">
+        <v>669</v>
+      </c>
+      <c r="C3" s="101" t="s">
+        <v>671</v>
+      </c>
+      <c r="D3" s="101" t="s">
+        <v>585</v>
+      </c>
+      <c r="E3" s="101">
+        <v>42000</v>
+      </c>
+      <c r="F3" s="122"/>
+      <c r="I3" s="121"/>
+    </row>
+    <row r="4" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="101">
+        <v>3</v>
+      </c>
+      <c r="B4" s="101" t="s">
+        <v>673</v>
+      </c>
+      <c r="C4" s="101" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="101" t="s">
+        <v>595</v>
+      </c>
+      <c r="E4" s="101">
+        <v>97500</v>
+      </c>
+      <c r="F4" s="122" t="s">
+        <v>721</v>
+      </c>
+      <c r="G4" s="126" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="101">
+        <v>4</v>
+      </c>
+      <c r="B5" s="101" t="s">
+        <v>673</v>
+      </c>
+      <c r="C5" s="101" t="s">
+        <v>671</v>
+      </c>
+      <c r="D5" s="101" t="s">
+        <v>585</v>
+      </c>
+      <c r="E5" s="101">
+        <v>4500</v>
+      </c>
+      <c r="F5" s="122" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="101">
+        <v>5</v>
+      </c>
+      <c r="B6" s="101" t="s">
+        <v>673</v>
+      </c>
+      <c r="C6" s="106" t="s">
+        <v>674</v>
+      </c>
+      <c r="D6" s="106" t="s">
+        <v>575</v>
+      </c>
+      <c r="E6" s="106">
+        <v>3000</v>
+      </c>
+      <c r="F6" s="125"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+    </row>
+    <row r="7" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="101">
+        <v>6</v>
+      </c>
+      <c r="B7" s="101" t="s">
+        <v>673</v>
+      </c>
+      <c r="C7" s="101" t="s">
+        <v>675</v>
+      </c>
+      <c r="D7" s="101" t="s">
+        <v>505</v>
+      </c>
+      <c r="E7" s="101">
+        <v>15000</v>
+      </c>
+      <c r="F7" s="122"/>
+    </row>
+    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="101">
+        <v>7</v>
+      </c>
+      <c r="B8" s="101" t="s">
+        <v>673</v>
+      </c>
+      <c r="C8" s="101" t="s">
+        <v>661</v>
+      </c>
+      <c r="D8" s="101" t="s">
+        <v>590</v>
+      </c>
+      <c r="E8" s="101">
+        <v>333500</v>
+      </c>
+      <c r="F8" s="122" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="101">
+        <v>8</v>
+      </c>
+      <c r="B9" s="101" t="s">
+        <v>673</v>
+      </c>
+      <c r="C9" s="123" t="s">
+        <v>676</v>
+      </c>
+      <c r="D9" s="123" t="s">
+        <v>677</v>
+      </c>
+      <c r="E9" s="123">
+        <v>15500</v>
+      </c>
+      <c r="F9" s="122" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="101">
+        <v>9</v>
+      </c>
+      <c r="B10" s="101" t="s">
+        <v>682</v>
+      </c>
+      <c r="C10" s="101" t="s">
+        <v>683</v>
+      </c>
+      <c r="D10" s="101" t="s">
+        <v>677</v>
+      </c>
+      <c r="E10" s="101">
+        <v>26000</v>
+      </c>
+      <c r="F10" s="122" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="101">
+        <v>10</v>
+      </c>
+      <c r="B11" s="101" t="s">
+        <v>682</v>
+      </c>
+      <c r="C11" s="101" t="s">
+        <v>684</v>
+      </c>
+      <c r="D11" s="101" t="s">
+        <v>677</v>
+      </c>
+      <c r="E11" s="101">
+        <v>26000</v>
+      </c>
+      <c r="F11" s="122" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="101">
+        <v>11</v>
+      </c>
+      <c r="B12" s="101" t="s">
+        <v>682</v>
+      </c>
+      <c r="C12" s="123" t="s">
+        <v>685</v>
+      </c>
+      <c r="D12" s="123" t="s">
+        <v>677</v>
+      </c>
+      <c r="E12" s="123">
+        <v>150000</v>
+      </c>
+      <c r="F12" s="122" t="s">
+        <v>681</v>
+      </c>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+    </row>
+    <row r="13" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="101">
+        <v>12</v>
+      </c>
+      <c r="B13" s="101" t="s">
+        <v>686</v>
+      </c>
+      <c r="C13" s="101" t="s">
+        <v>670</v>
+      </c>
+      <c r="D13" s="101" t="s">
+        <v>590</v>
+      </c>
+      <c r="E13" s="101">
+        <v>18000</v>
+      </c>
+      <c r="F13" s="122" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="101">
+        <v>13</v>
+      </c>
+      <c r="B14" s="101" t="s">
+        <v>686</v>
+      </c>
+      <c r="C14" s="101" t="s">
+        <v>687</v>
+      </c>
+      <c r="D14" s="101" t="s">
+        <v>505</v>
+      </c>
+      <c r="E14" s="101">
+        <v>78500</v>
+      </c>
+      <c r="F14" s="122"/>
+    </row>
+    <row r="15" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="101">
+        <v>14</v>
+      </c>
+      <c r="B15" s="101" t="s">
+        <v>686</v>
+      </c>
+      <c r="C15" s="101" t="s">
+        <v>688</v>
+      </c>
+      <c r="D15" s="101" t="s">
+        <v>505</v>
+      </c>
+      <c r="E15" s="101">
+        <v>36000</v>
+      </c>
+      <c r="F15" s="122"/>
+    </row>
+    <row r="16" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="101">
+        <v>15</v>
+      </c>
+      <c r="B16" s="101" t="s">
+        <v>689</v>
+      </c>
+      <c r="C16" s="101" t="s">
+        <v>690</v>
+      </c>
+      <c r="D16" s="101" t="s">
+        <v>595</v>
+      </c>
+      <c r="E16" s="101">
+        <v>250000</v>
+      </c>
+      <c r="F16" s="122" t="s">
+        <v>694</v>
+      </c>
+      <c r="G16" s="137"/>
+    </row>
+    <row r="17" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="101">
+        <v>16</v>
+      </c>
+      <c r="B17" s="101" t="s">
+        <v>691</v>
+      </c>
+      <c r="C17" s="101" t="s">
+        <v>692</v>
+      </c>
+      <c r="D17" s="101" t="s">
+        <v>590</v>
+      </c>
+      <c r="E17" s="101">
+        <v>93000</v>
+      </c>
+      <c r="F17" s="122" t="s">
+        <v>694</v>
+      </c>
+      <c r="I17" s="121"/>
+    </row>
+    <row r="18" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="101">
+        <v>17</v>
+      </c>
+      <c r="B18" s="101" t="s">
+        <v>691</v>
+      </c>
+      <c r="C18" s="101" t="s">
+        <v>693</v>
+      </c>
+      <c r="D18" s="101" t="s">
+        <v>585</v>
+      </c>
+      <c r="E18" s="101">
+        <v>16000</v>
+      </c>
+      <c r="F18" s="122" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="101">
+        <v>18</v>
+      </c>
+      <c r="B19" s="101" t="s">
+        <v>696</v>
+      </c>
+      <c r="C19" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="101" t="s">
+        <v>590</v>
+      </c>
+      <c r="E19" s="122">
+        <v>662500</v>
+      </c>
+      <c r="F19" s="122" t="s">
+        <v>769</v>
+      </c>
+      <c r="G19" s="126" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="101">
+        <v>19</v>
+      </c>
+      <c r="B20" s="101" t="s">
+        <v>696</v>
+      </c>
+      <c r="C20" s="101" t="s">
+        <v>698</v>
+      </c>
+      <c r="D20" s="101" t="s">
+        <v>590</v>
+      </c>
+      <c r="E20" s="101">
+        <v>114000</v>
+      </c>
+      <c r="F20" s="122" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="101">
+        <v>20</v>
+      </c>
+      <c r="B21" s="101" t="s">
+        <v>696</v>
+      </c>
+      <c r="C21" s="101" t="s">
+        <v>697</v>
+      </c>
+      <c r="D21" s="101" t="s">
+        <v>699</v>
+      </c>
+      <c r="E21" s="101">
+        <v>10000</v>
+      </c>
+      <c r="F21" s="122"/>
+    </row>
+    <row r="22" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="101">
+        <v>21</v>
+      </c>
+      <c r="B22" s="101" t="s">
+        <v>701</v>
+      </c>
+      <c r="C22" s="138" t="s">
+        <v>702</v>
+      </c>
+      <c r="D22" s="101" t="s">
+        <v>677</v>
+      </c>
+      <c r="E22" s="101">
+        <v>8000</v>
+      </c>
+      <c r="F22" s="122" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="101">
+        <v>22</v>
+      </c>
+      <c r="B23" s="101" t="s">
+        <v>705</v>
+      </c>
+      <c r="C23" s="101" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="101" t="s">
+        <v>706</v>
+      </c>
+      <c r="E23" s="101">
+        <v>1109500</v>
+      </c>
+      <c r="F23" s="122"/>
+    </row>
+    <row r="24" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="101">
+        <v>23</v>
+      </c>
+      <c r="B24" s="101" t="s">
+        <v>705</v>
+      </c>
+      <c r="C24" s="101" t="s">
+        <v>675</v>
+      </c>
+      <c r="D24" s="101" t="s">
+        <v>505</v>
+      </c>
+      <c r="E24" s="101">
+        <v>51000</v>
+      </c>
+      <c r="F24" s="122"/>
+    </row>
+    <row r="25" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="101">
+        <v>24</v>
+      </c>
+      <c r="B25" s="101" t="s">
+        <v>705</v>
+      </c>
+      <c r="C25" s="101" t="s">
+        <v>707</v>
+      </c>
+      <c r="D25" s="101" t="s">
+        <v>590</v>
+      </c>
+      <c r="E25" s="101">
+        <v>10000</v>
+      </c>
+      <c r="F25" s="122" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="101">
+        <v>25</v>
+      </c>
+      <c r="B26" s="101" t="s">
+        <v>708</v>
+      </c>
+      <c r="C26" s="101" t="s">
+        <v>638</v>
+      </c>
+      <c r="D26" s="101" t="s">
+        <v>595</v>
+      </c>
+      <c r="E26" s="101">
+        <v>33000</v>
+      </c>
+      <c r="F26" s="122" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="101">
+        <v>26</v>
+      </c>
+      <c r="B27" s="101" t="s">
+        <v>710</v>
+      </c>
+      <c r="C27" s="101" t="s">
+        <v>711</v>
+      </c>
+      <c r="D27" s="101" t="s">
+        <v>590</v>
+      </c>
+      <c r="E27" s="101">
+        <v>43000</v>
+      </c>
+      <c r="F27" s="122" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="101">
+        <v>27</v>
+      </c>
+      <c r="B28" s="101" t="s">
+        <v>712</v>
+      </c>
+      <c r="C28" s="101" t="s">
+        <v>713</v>
+      </c>
+      <c r="D28" s="101" t="s">
+        <v>590</v>
+      </c>
+      <c r="E28" s="101">
+        <v>5000</v>
+      </c>
+      <c r="F28" s="122" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="101">
+        <v>28</v>
+      </c>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101" t="s">
+        <v>714</v>
+      </c>
+      <c r="D29" s="101" t="s">
+        <v>595</v>
+      </c>
+      <c r="E29" s="101">
+        <v>25000</v>
+      </c>
+      <c r="F29" s="122" t="s">
+        <v>744</v>
+      </c>
+      <c r="G29" s="126" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="101">
+        <v>29</v>
+      </c>
+      <c r="B30" s="101" t="s">
+        <v>716</v>
+      </c>
+      <c r="C30" s="101" t="s">
+        <v>717</v>
+      </c>
+      <c r="D30" s="101" t="s">
+        <v>590</v>
+      </c>
+      <c r="E30" s="101">
+        <v>290000</v>
+      </c>
+      <c r="F30" s="122" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="101">
+        <v>30</v>
+      </c>
+      <c r="B31" s="101" t="s">
+        <v>716</v>
+      </c>
+      <c r="C31" s="101" t="s">
+        <v>718</v>
+      </c>
+      <c r="D31" s="101" t="s">
+        <v>595</v>
+      </c>
+      <c r="E31" s="101">
+        <v>407000</v>
+      </c>
+      <c r="F31" s="122"/>
+    </row>
+    <row r="32" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="101">
+        <v>31</v>
+      </c>
+      <c r="B32" s="101" t="s">
+        <v>716</v>
+      </c>
+      <c r="C32" s="101" t="s">
+        <v>718</v>
+      </c>
+      <c r="D32" s="101" t="s">
+        <v>766</v>
+      </c>
+      <c r="E32" s="101">
+        <v>65000</v>
+      </c>
+      <c r="F32" s="122"/>
+    </row>
+    <row r="33" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="101">
+        <v>32</v>
+      </c>
+      <c r="B33" s="101" t="s">
+        <v>716</v>
+      </c>
+      <c r="C33" s="101" t="s">
+        <v>719</v>
+      </c>
+      <c r="D33" s="101" t="s">
+        <v>595</v>
+      </c>
+      <c r="E33" s="101">
+        <v>15000</v>
+      </c>
+      <c r="F33" s="122" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="101">
+        <v>33</v>
+      </c>
+      <c r="B34" s="101" t="s">
+        <v>723</v>
+      </c>
+      <c r="C34" s="101" t="s">
+        <v>724</v>
+      </c>
+      <c r="D34" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" s="101">
+        <v>184000</v>
+      </c>
+      <c r="F34" s="122"/>
+    </row>
+    <row r="35" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="101">
+        <v>34</v>
+      </c>
+      <c r="B35" s="101" t="s">
+        <v>723</v>
+      </c>
+      <c r="C35" s="101" t="s">
+        <v>600</v>
+      </c>
+      <c r="D35" s="101" t="s">
+        <v>585</v>
+      </c>
+      <c r="E35" s="101">
+        <v>3500</v>
+      </c>
+      <c r="F35" s="122" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="101">
+        <v>35</v>
+      </c>
+      <c r="B36" s="101" t="s">
+        <v>726</v>
+      </c>
+      <c r="C36" s="101" t="s">
+        <v>675</v>
+      </c>
+      <c r="D36" s="101" t="s">
+        <v>505</v>
+      </c>
+      <c r="E36" s="101">
+        <v>14000</v>
+      </c>
+      <c r="F36" s="122"/>
+    </row>
+    <row r="37" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="101">
+        <v>36</v>
+      </c>
+      <c r="B37" s="101" t="s">
+        <v>727</v>
+      </c>
+      <c r="C37" s="101" t="s">
+        <v>728</v>
+      </c>
+      <c r="D37" s="101" t="s">
+        <v>595</v>
+      </c>
+      <c r="E37" s="101">
+        <v>125000</v>
+      </c>
+      <c r="F37" s="122" t="s">
+        <v>736</v>
+      </c>
+      <c r="G37" s="121"/>
+      <c r="K37" s="121"/>
+    </row>
+    <row r="38" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="101">
+        <v>37</v>
+      </c>
+      <c r="B38" s="101" t="s">
+        <v>727</v>
+      </c>
+      <c r="C38" s="101" t="s">
+        <v>729</v>
+      </c>
+      <c r="D38" s="101" t="s">
+        <v>585</v>
+      </c>
+      <c r="E38" s="101">
+        <v>12500</v>
+      </c>
+      <c r="F38" s="122" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="101">
+        <v>38</v>
+      </c>
+      <c r="B39" s="101" t="s">
+        <v>727</v>
+      </c>
+      <c r="C39" s="101" t="s">
+        <v>579</v>
+      </c>
+      <c r="D39" s="101" t="s">
+        <v>585</v>
+      </c>
+      <c r="E39" s="101">
+        <v>4000</v>
+      </c>
+      <c r="F39" s="122"/>
+      <c r="I39" s="120" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="101">
+        <v>39</v>
+      </c>
+      <c r="B40" s="101" t="s">
+        <v>730</v>
+      </c>
+      <c r="C40" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="101" t="s">
+        <v>590</v>
+      </c>
+      <c r="E40" s="101">
+        <v>25000</v>
+      </c>
+      <c r="F40" s="122" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="101">
+        <v>40</v>
+      </c>
+      <c r="B41" s="101" t="s">
+        <v>730</v>
+      </c>
+      <c r="C41" s="101" t="s">
+        <v>731</v>
+      </c>
+      <c r="D41" s="101" t="s">
+        <v>590</v>
+      </c>
+      <c r="E41" s="101">
+        <v>70000</v>
+      </c>
+      <c r="F41" s="122" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="101">
+        <v>41</v>
+      </c>
+      <c r="B42" s="101" t="s">
+        <v>730</v>
+      </c>
+      <c r="C42" s="101" t="s">
+        <v>732</v>
+      </c>
+      <c r="D42" s="101" t="s">
+        <v>585</v>
+      </c>
+      <c r="E42" s="101">
+        <v>210000</v>
+      </c>
+      <c r="F42" s="122"/>
+    </row>
+    <row r="43" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="101">
+        <v>42</v>
+      </c>
+      <c r="B43" s="101" t="s">
+        <v>730</v>
+      </c>
+      <c r="C43" s="101" t="s">
+        <v>733</v>
+      </c>
+      <c r="D43" s="101" t="s">
+        <v>585</v>
+      </c>
+      <c r="E43" s="101">
+        <v>68000</v>
+      </c>
+      <c r="F43" s="122"/>
+    </row>
+    <row r="44" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="101">
+        <v>43</v>
+      </c>
+      <c r="B44" s="101" t="s">
+        <v>730</v>
+      </c>
+      <c r="C44" s="101" t="s">
+        <v>734</v>
+      </c>
+      <c r="D44" s="101" t="s">
+        <v>585</v>
+      </c>
+      <c r="E44" s="101">
+        <v>100000</v>
+      </c>
+      <c r="F44" s="122" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="101">
+        <v>44</v>
+      </c>
+      <c r="B45" s="101" t="s">
+        <v>730</v>
+      </c>
+      <c r="C45" s="101" t="s">
+        <v>735</v>
+      </c>
+      <c r="D45" s="101" t="s">
+        <v>595</v>
+      </c>
+      <c r="E45" s="101">
+        <v>81500</v>
+      </c>
+      <c r="F45" s="122" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="101">
+        <v>45</v>
+      </c>
+      <c r="B46" s="101" t="s">
+        <v>737</v>
+      </c>
+      <c r="C46" s="101" t="s">
+        <v>738</v>
+      </c>
+      <c r="D46" s="101" t="s">
+        <v>595</v>
+      </c>
+      <c r="E46" s="101">
+        <v>32500</v>
+      </c>
+      <c r="F46" s="122"/>
+    </row>
+    <row r="47" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="101">
+        <v>46</v>
+      </c>
+      <c r="B47" s="101" t="s">
+        <v>739</v>
+      </c>
+      <c r="C47" s="101" t="s">
+        <v>740</v>
+      </c>
+      <c r="D47" s="101" t="s">
+        <v>585</v>
+      </c>
+      <c r="E47" s="101">
+        <v>79500</v>
+      </c>
+      <c r="F47" s="122" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="101">
+        <v>47</v>
+      </c>
+      <c r="B48" s="101" t="s">
+        <v>739</v>
+      </c>
+      <c r="C48" s="101" t="s">
+        <v>741</v>
+      </c>
+      <c r="D48" s="101" t="s">
+        <v>585</v>
+      </c>
+      <c r="E48" s="101">
+        <v>500000</v>
+      </c>
+      <c r="F48" s="122"/>
+    </row>
+    <row r="49" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="101">
+        <v>48</v>
+      </c>
+      <c r="B49" s="101" t="s">
+        <v>739</v>
+      </c>
+      <c r="C49" s="101" t="s">
+        <v>742</v>
+      </c>
+      <c r="D49" s="101" t="s">
+        <v>590</v>
+      </c>
+      <c r="E49" s="101">
+        <v>32000</v>
+      </c>
+      <c r="F49" s="122" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="101">
+        <v>49</v>
+      </c>
+      <c r="B50" s="101" t="s">
+        <v>746</v>
+      </c>
+      <c r="C50" s="101" t="s">
+        <v>693</v>
+      </c>
+      <c r="D50" s="101" t="s">
+        <v>585</v>
+      </c>
+      <c r="E50" s="101">
+        <v>88000</v>
+      </c>
+      <c r="F50" s="122" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="101">
+        <v>50</v>
+      </c>
+      <c r="B51" s="101" t="s">
+        <v>746</v>
+      </c>
+      <c r="C51" s="101" t="s">
+        <v>688</v>
+      </c>
+      <c r="D51" s="101" t="s">
+        <v>505</v>
+      </c>
+      <c r="E51" s="101">
+        <v>50000</v>
+      </c>
+      <c r="F51" s="122"/>
+    </row>
+    <row r="52" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="101">
+        <v>51</v>
+      </c>
+      <c r="B52" s="101" t="s">
+        <v>748</v>
+      </c>
+      <c r="C52" s="101" t="s">
+        <v>749</v>
+      </c>
+      <c r="D52" s="101" t="s">
+        <v>585</v>
+      </c>
+      <c r="E52" s="101">
+        <v>55000</v>
+      </c>
+      <c r="F52" s="122"/>
+    </row>
+    <row r="53" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="101">
+        <v>52</v>
+      </c>
+      <c r="B53" s="101" t="s">
+        <v>748</v>
+      </c>
+      <c r="C53" s="101"/>
+      <c r="D53" s="101" t="s">
+        <v>575</v>
+      </c>
+      <c r="E53" s="101">
+        <v>36000</v>
+      </c>
+      <c r="F53" s="122"/>
+    </row>
+    <row r="54" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="101">
+        <v>51</v>
+      </c>
+      <c r="B54" s="101" t="s">
+        <v>748</v>
+      </c>
+      <c r="C54" s="101" t="s">
+        <v>750</v>
+      </c>
+      <c r="D54" s="101" t="s">
+        <v>585</v>
+      </c>
+      <c r="E54" s="101">
+        <v>5000</v>
+      </c>
+      <c r="F54" s="122" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="101">
+        <v>51</v>
+      </c>
+      <c r="B55" s="101" t="s">
+        <v>748</v>
+      </c>
+      <c r="C55" s="101" t="s">
+        <v>634</v>
+      </c>
+      <c r="D55" s="101" t="s">
+        <v>590</v>
+      </c>
+      <c r="E55" s="101">
+        <v>194000</v>
+      </c>
+      <c r="F55" s="122" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="101">
+        <v>50.3333333333333</v>
+      </c>
+      <c r="B56" s="101" t="s">
+        <v>751</v>
+      </c>
+      <c r="C56" s="101" t="s">
+        <v>675</v>
+      </c>
+      <c r="D56" s="101" t="s">
+        <v>505</v>
+      </c>
+      <c r="E56" s="101">
+        <v>45500</v>
+      </c>
+      <c r="F56" s="122"/>
+    </row>
+    <row r="57" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="101">
+        <v>49.8333333333333</v>
+      </c>
+      <c r="B57" s="101" t="s">
+        <v>751</v>
+      </c>
+      <c r="C57" s="101" t="s">
+        <v>752</v>
+      </c>
+      <c r="D57" s="101" t="s">
+        <v>590</v>
+      </c>
+      <c r="E57" s="101">
+        <v>104000</v>
+      </c>
+      <c r="F57" s="122" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="101">
+        <v>49.3333333333333</v>
+      </c>
+      <c r="B58" s="101" t="s">
+        <v>754</v>
+      </c>
+      <c r="C58" s="101" t="s">
+        <v>755</v>
+      </c>
+      <c r="D58" s="101" t="s">
+        <v>585</v>
+      </c>
+      <c r="E58" s="101">
+        <v>58000</v>
+      </c>
+      <c r="F58" s="122"/>
+    </row>
+    <row r="59" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="101">
+        <v>48.8333333333333</v>
+      </c>
+      <c r="B59" s="101" t="s">
+        <v>757</v>
+      </c>
+      <c r="C59" s="101" t="s">
+        <v>758</v>
+      </c>
+      <c r="D59" s="101" t="s">
+        <v>585</v>
+      </c>
+      <c r="E59" s="101">
+        <v>40000</v>
+      </c>
+      <c r="F59" s="122" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="101">
+        <v>48.3333333333333</v>
+      </c>
+      <c r="B60" s="101" t="s">
+        <v>757</v>
+      </c>
+      <c r="C60" s="101" t="s">
+        <v>729</v>
+      </c>
+      <c r="D60" s="101" t="s">
+        <v>585</v>
+      </c>
+      <c r="E60" s="101">
+        <v>12000</v>
+      </c>
+      <c r="F60" s="122"/>
+    </row>
+    <row r="61" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="101">
+        <v>47.8333333333333</v>
+      </c>
+      <c r="B61" s="101" t="s">
+        <v>757</v>
+      </c>
+      <c r="C61" s="101" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" s="101" t="s">
+        <v>590</v>
+      </c>
+      <c r="E61" s="101">
+        <v>149000</v>
+      </c>
+      <c r="F61" s="122" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="101">
+        <v>47.3333333333333</v>
+      </c>
+      <c r="B62" s="101" t="s">
+        <v>760</v>
+      </c>
+      <c r="C62" s="101" t="s">
+        <v>491</v>
+      </c>
+      <c r="D62" s="101" t="s">
+        <v>585</v>
+      </c>
+      <c r="E62" s="101">
+        <v>41000</v>
+      </c>
+      <c r="F62" s="122"/>
+    </row>
+    <row r="63" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="101">
+        <v>46.8333333333333</v>
+      </c>
+      <c r="B63" s="101" t="s">
+        <v>761</v>
+      </c>
+      <c r="C63" s="101" t="s">
+        <v>762</v>
+      </c>
+      <c r="D63" s="101" t="s">
+        <v>585</v>
+      </c>
+      <c r="E63" s="101">
+        <v>14000</v>
+      </c>
+      <c r="F63" s="122"/>
+    </row>
+    <row r="64" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="101">
+        <v>46.3333333333333</v>
+      </c>
+      <c r="B64" s="101" t="s">
+        <v>763</v>
+      </c>
+      <c r="C64" s="101" t="s">
+        <v>764</v>
+      </c>
+      <c r="D64" s="101" t="s">
+        <v>595</v>
+      </c>
+      <c r="E64" s="101">
+        <v>609000</v>
+      </c>
+      <c r="F64" s="122" t="s">
+        <v>771</v>
+      </c>
+      <c r="G64" s="126" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="101">
+        <v>45.8333333333333</v>
+      </c>
+      <c r="B65" s="101" t="s">
+        <v>763</v>
+      </c>
+      <c r="C65" s="101" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="101" t="s">
+        <v>765</v>
+      </c>
+      <c r="E65" s="101">
+        <v>26000</v>
+      </c>
+      <c r="F65" s="122"/>
+    </row>
+    <row r="66" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="101">
+        <v>45.3333333333333</v>
+      </c>
+      <c r="B66" s="101" t="s">
+        <v>763</v>
+      </c>
+      <c r="C66" s="101" t="s">
+        <v>718</v>
+      </c>
+      <c r="D66" s="101" t="s">
+        <v>595</v>
+      </c>
+      <c r="E66" s="101">
+        <v>286000</v>
+      </c>
+      <c r="F66" s="122"/>
+    </row>
+    <row r="67" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="101">
+        <v>44.8333333333333</v>
+      </c>
+      <c r="B67" s="101" t="s">
+        <v>763</v>
+      </c>
+      <c r="C67" s="101" t="s">
+        <v>718</v>
+      </c>
+      <c r="D67" s="101" t="s">
+        <v>766</v>
+      </c>
+      <c r="E67" s="101">
+        <v>40000</v>
+      </c>
+      <c r="F67" s="122"/>
+    </row>
+    <row r="68" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="101">
+        <v>44.3333333333333</v>
+      </c>
+      <c r="B68" s="101" t="s">
+        <v>763</v>
+      </c>
+      <c r="C68" s="101" t="s">
+        <v>675</v>
+      </c>
+      <c r="D68" s="101" t="s">
+        <v>505</v>
+      </c>
+      <c r="E68" s="101">
+        <v>7500</v>
+      </c>
+      <c r="F68" s="122"/>
+    </row>
+    <row r="69" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="101">
+        <v>43.8333333333333</v>
+      </c>
+      <c r="B69" s="101" t="s">
+        <v>763</v>
+      </c>
+      <c r="C69" s="101" t="s">
+        <v>767</v>
+      </c>
+      <c r="D69" s="101" t="s">
+        <v>768</v>
+      </c>
+      <c r="E69" s="101">
+        <v>65000</v>
+      </c>
+      <c r="F69" s="122"/>
+    </row>
+    <row r="70" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E70" s="135">
+        <f>SUBTOTAL(9,E3:E69)</f>
+        <v>7519000</v>
+      </c>
+      <c r="F70" s="120"/>
+    </row>
+    <row r="71" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F71" s="120"/>
+    </row>
+    <row r="72" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F72" s="120"/>
+    </row>
+    <row r="73" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F73" s="120"/>
+    </row>
+    <row r="74" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F74" s="120"/>
+    </row>
+    <row r="75" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F75" s="120"/>
+    </row>
+    <row r="76" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F76" s="120"/>
+    </row>
+    <row r="77" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F77" s="120"/>
+    </row>
+    <row r="78" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F78" s="120"/>
+    </row>
+    <row r="79" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F79" s="120"/>
+    </row>
+    <row r="80" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F80" s="120"/>
+    </row>
+    <row r="81" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F81" s="120"/>
+    </row>
+    <row r="82" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F82" s="120"/>
+    </row>
+    <row r="83" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F83" s="120"/>
+    </row>
+    <row r="84" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F84" s="120"/>
+    </row>
+    <row r="85" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F85" s="120"/>
+    </row>
+    <row r="86" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F86" s="120"/>
+    </row>
+    <row r="87" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F87" s="120"/>
+    </row>
+    <row r="88" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F88" s="120"/>
+    </row>
+    <row r="89" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F89" s="120"/>
+    </row>
+    <row r="90" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F90" s="120"/>
+    </row>
+    <row r="91" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F91" s="120"/>
+    </row>
+    <row r="92" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F92" s="120"/>
+    </row>
+    <row r="93" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F93" s="120"/>
+    </row>
+    <row r="94" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F94" s="120"/>
+    </row>
+    <row r="95" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F95" s="120"/>
+    </row>
+    <row r="96" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F96" s="120"/>
+    </row>
+    <row r="97" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F97" s="120"/>
+    </row>
+    <row r="98" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F98" s="120"/>
+    </row>
+    <row r="99" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F99" s="120"/>
+    </row>
+    <row r="100" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F100" s="120"/>
+    </row>
+    <row r="101" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F101" s="120"/>
+    </row>
+    <row r="102" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F102" s="120"/>
+    </row>
+    <row r="103" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F103" s="120"/>
+    </row>
+    <row r="104" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F104" s="120"/>
+    </row>
+    <row r="105" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F105" s="120"/>
+    </row>
+    <row r="106" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F106" s="120"/>
+    </row>
+    <row r="107" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F107" s="120"/>
+    </row>
+    <row r="108" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F108" s="120"/>
+    </row>
+    <row r="109" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F109" s="120"/>
+    </row>
+    <row r="110" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F110" s="120"/>
+    </row>
+    <row r="111" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F111" s="120"/>
+    </row>
+    <row r="112" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F112" s="120"/>
+    </row>
+    <row r="113" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F113" s="120"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F69"/>
+  <pageMargins left="0.25" right="0.12" top="0.35" bottom="0.28999999999999998" header="0.3" footer="0.14000000000000001"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="120" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="120" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" style="120" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="120" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="120" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" style="120" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="126" customWidth="1"/>
+    <col min="6" max="6" width="21" style="126" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" style="120" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="120"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="135" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="135" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="133" t="s">
         <v>566</v>
       </c>
@@ -5893,1136 +7406,599 @@
         <v>672</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="101">
         <v>1</v>
       </c>
-      <c r="B2" s="101" t="s">
-        <v>669</v>
-      </c>
-      <c r="C2" s="101" t="s">
-        <v>670</v>
-      </c>
-      <c r="D2" s="101" t="s">
-        <v>590</v>
-      </c>
-      <c r="E2" s="101">
-        <v>297000</v>
-      </c>
-      <c r="F2" s="122" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="122"/>
+    </row>
+    <row r="3" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="101">
         <v>2</v>
       </c>
-      <c r="B3" s="101" t="s">
-        <v>669</v>
-      </c>
-      <c r="C3" s="101" t="s">
-        <v>671</v>
-      </c>
-      <c r="D3" s="101" t="s">
-        <v>585</v>
-      </c>
-      <c r="E3" s="101">
-        <v>42000</v>
-      </c>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
       <c r="F3" s="122"/>
       <c r="I3" s="121"/>
     </row>
-    <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="101">
         <v>3</v>
       </c>
-      <c r="B4" s="101" t="s">
-        <v>673</v>
-      </c>
-      <c r="C4" s="101" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="101" t="s">
-        <v>595</v>
-      </c>
-      <c r="E4" s="101">
-        <v>97500</v>
-      </c>
-      <c r="F4" s="122" t="s">
-        <v>724</v>
-      </c>
-      <c r="G4" s="126" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="126"/>
+    </row>
+    <row r="5" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="101">
         <v>4</v>
       </c>
-      <c r="B5" s="101" t="s">
-        <v>673</v>
-      </c>
-      <c r="C5" s="101" t="s">
-        <v>671</v>
-      </c>
-      <c r="D5" s="101" t="s">
-        <v>585</v>
-      </c>
-      <c r="E5" s="101">
-        <v>4500</v>
-      </c>
-      <c r="F5" s="122" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="122"/>
+    </row>
+    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="101">
         <v>5</v>
       </c>
-      <c r="B6" s="101" t="s">
-        <v>673</v>
-      </c>
-      <c r="C6" s="106" t="s">
-        <v>674</v>
-      </c>
-      <c r="D6" s="106" t="s">
-        <v>575</v>
-      </c>
-      <c r="E6" s="106">
-        <v>3000</v>
-      </c>
+      <c r="B6" s="101"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
       <c r="F6" s="125"/>
       <c r="I6" s="121"/>
       <c r="J6" s="121"/>
     </row>
-    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="101">
         <v>6</v>
       </c>
-      <c r="B7" s="101" t="s">
-        <v>673</v>
-      </c>
-      <c r="C7" s="101" t="s">
-        <v>675</v>
-      </c>
-      <c r="D7" s="101" t="s">
-        <v>505</v>
-      </c>
-      <c r="E7" s="101">
-        <v>15000</v>
-      </c>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
       <c r="F7" s="122"/>
     </row>
-    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="101">
         <v>7</v>
       </c>
-      <c r="B8" s="101" t="s">
-        <v>673</v>
-      </c>
-      <c r="C8" s="101" t="s">
-        <v>661</v>
-      </c>
-      <c r="D8" s="101" t="s">
-        <v>590</v>
-      </c>
-      <c r="E8" s="101">
-        <v>333500</v>
-      </c>
-      <c r="F8" s="122" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="122"/>
+    </row>
+    <row r="9" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="101">
         <v>8</v>
       </c>
-      <c r="B9" s="101" t="s">
-        <v>673</v>
-      </c>
-      <c r="C9" s="123" t="s">
-        <v>676</v>
-      </c>
-      <c r="D9" s="123" t="s">
-        <v>677</v>
-      </c>
-      <c r="E9" s="123">
-        <v>15500</v>
-      </c>
-      <c r="F9" s="122" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="101"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="122"/>
+    </row>
+    <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="101">
         <v>9</v>
       </c>
-      <c r="B10" s="101" t="s">
-        <v>682</v>
-      </c>
-      <c r="C10" s="101" t="s">
-        <v>683</v>
-      </c>
-      <c r="D10" s="101" t="s">
-        <v>677</v>
-      </c>
-      <c r="E10" s="101">
-        <v>26000</v>
-      </c>
-      <c r="F10" s="122" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="122"/>
+    </row>
+    <row r="11" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="101">
         <v>10</v>
       </c>
-      <c r="B11" s="101" t="s">
-        <v>682</v>
-      </c>
-      <c r="C11" s="101" t="s">
-        <v>684</v>
-      </c>
-      <c r="D11" s="101" t="s">
-        <v>677</v>
-      </c>
-      <c r="E11" s="101">
-        <v>26000</v>
-      </c>
-      <c r="F11" s="122" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="122"/>
+    </row>
+    <row r="12" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="101">
         <v>11</v>
       </c>
-      <c r="B12" s="101" t="s">
-        <v>682</v>
-      </c>
-      <c r="C12" s="123" t="s">
-        <v>685</v>
-      </c>
-      <c r="D12" s="123" t="s">
-        <v>677</v>
-      </c>
-      <c r="E12" s="123">
-        <v>150000</v>
-      </c>
-      <c r="F12" s="122" t="s">
-        <v>681</v>
-      </c>
+      <c r="B12" s="101"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="122"/>
       <c r="H12" s="121"/>
       <c r="I12" s="121"/>
       <c r="J12" s="121"/>
     </row>
-    <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="101">
         <v>12</v>
       </c>
-      <c r="B13" s="101" t="s">
-        <v>686</v>
-      </c>
-      <c r="C13" s="101" t="s">
-        <v>670</v>
-      </c>
-      <c r="D13" s="101" t="s">
-        <v>590</v>
-      </c>
-      <c r="E13" s="101">
-        <v>18000</v>
-      </c>
-      <c r="F13" s="122" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="122"/>
+    </row>
+    <row r="14" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="101">
         <v>13</v>
       </c>
-      <c r="B14" s="101" t="s">
-        <v>686</v>
-      </c>
-      <c r="C14" s="101" t="s">
-        <v>687</v>
-      </c>
-      <c r="D14" s="101" t="s">
-        <v>505</v>
-      </c>
-      <c r="E14" s="101">
-        <v>78500</v>
-      </c>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
       <c r="F14" s="122"/>
     </row>
-    <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="101">
         <v>14</v>
       </c>
-      <c r="B15" s="101" t="s">
-        <v>686</v>
-      </c>
-      <c r="C15" s="101" t="s">
-        <v>688</v>
-      </c>
-      <c r="D15" s="101" t="s">
-        <v>505</v>
-      </c>
-      <c r="E15" s="101">
-        <v>36000</v>
-      </c>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
       <c r="F15" s="122"/>
     </row>
-    <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="101">
         <v>15</v>
       </c>
-      <c r="B16" s="101" t="s">
-        <v>689</v>
-      </c>
-      <c r="C16" s="101" t="s">
-        <v>690</v>
-      </c>
-      <c r="D16" s="101" t="s">
-        <v>595</v>
-      </c>
-      <c r="E16" s="101">
-        <v>250000</v>
-      </c>
-      <c r="F16" s="122" t="s">
-        <v>694</v>
-      </c>
-      <c r="G16" s="140"/>
-    </row>
-    <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="137"/>
+    </row>
+    <row r="17" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="101">
         <v>16</v>
       </c>
-      <c r="B17" s="101" t="s">
-        <v>691</v>
-      </c>
-      <c r="C17" s="101" t="s">
-        <v>692</v>
-      </c>
-      <c r="D17" s="101" t="s">
-        <v>590</v>
-      </c>
-      <c r="E17" s="101">
-        <v>93000</v>
-      </c>
-      <c r="F17" s="122" t="s">
-        <v>694</v>
-      </c>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="122"/>
       <c r="I17" s="121"/>
     </row>
-    <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="101">
         <v>17</v>
       </c>
-      <c r="B18" s="101" t="s">
-        <v>691</v>
-      </c>
-      <c r="C18" s="101" t="s">
-        <v>693</v>
-      </c>
-      <c r="D18" s="101" t="s">
-        <v>585</v>
-      </c>
-      <c r="E18" s="101">
-        <v>16000</v>
-      </c>
-      <c r="F18" s="122" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="122"/>
+    </row>
+    <row r="19" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="101">
         <v>18</v>
       </c>
-      <c r="B19" s="101" t="s">
-        <v>698</v>
-      </c>
-      <c r="C19" s="101" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="101" t="s">
-        <v>590</v>
-      </c>
-      <c r="E19" s="101">
-        <v>662500</v>
-      </c>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
       <c r="F19" s="122"/>
     </row>
-    <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="101">
         <v>19</v>
       </c>
-      <c r="B20" s="101" t="s">
-        <v>698</v>
-      </c>
-      <c r="C20" s="101" t="s">
-        <v>700</v>
-      </c>
-      <c r="D20" s="101" t="s">
-        <v>590</v>
-      </c>
-      <c r="E20" s="101">
-        <v>114000</v>
-      </c>
-      <c r="F20" s="122" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="122"/>
+    </row>
+    <row r="21" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="101">
         <v>20</v>
       </c>
-      <c r="B21" s="101" t="s">
-        <v>698</v>
-      </c>
-      <c r="C21" s="101" t="s">
-        <v>699</v>
-      </c>
-      <c r="D21" s="101" t="s">
-        <v>701</v>
-      </c>
-      <c r="E21" s="101">
-        <v>10000</v>
-      </c>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
       <c r="F21" s="122"/>
     </row>
-    <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="101">
         <v>21</v>
       </c>
-      <c r="B22" s="101" t="s">
-        <v>703</v>
-      </c>
-      <c r="C22" s="141" t="s">
-        <v>704</v>
-      </c>
-      <c r="D22" s="101" t="s">
-        <v>677</v>
-      </c>
-      <c r="E22" s="101">
-        <v>8000</v>
-      </c>
-      <c r="F22" s="122" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="101"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="122"/>
+    </row>
+    <row r="23" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="101">
         <v>22</v>
       </c>
-      <c r="B23" s="101" t="s">
-        <v>707</v>
-      </c>
-      <c r="C23" s="101" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" s="101" t="s">
-        <v>708</v>
-      </c>
-      <c r="E23" s="101">
-        <v>1109500</v>
-      </c>
+      <c r="B23" s="101"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
       <c r="F23" s="122"/>
     </row>
-    <row r="24" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="101">
         <v>23</v>
       </c>
-      <c r="B24" s="101" t="s">
-        <v>707</v>
-      </c>
-      <c r="C24" s="101" t="s">
-        <v>675</v>
-      </c>
-      <c r="D24" s="101" t="s">
-        <v>505</v>
-      </c>
-      <c r="E24" s="101">
-        <v>51000</v>
-      </c>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
       <c r="F24" s="122"/>
     </row>
-    <row r="25" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="101">
         <v>24</v>
       </c>
-      <c r="B25" s="101" t="s">
-        <v>707</v>
-      </c>
-      <c r="C25" s="101" t="s">
-        <v>709</v>
-      </c>
-      <c r="D25" s="101" t="s">
-        <v>590</v>
-      </c>
-      <c r="E25" s="101">
-        <v>10000</v>
-      </c>
-      <c r="F25" s="122" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="101"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="122"/>
+    </row>
+    <row r="26" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="101">
         <v>25</v>
       </c>
-      <c r="B26" s="101" t="s">
-        <v>710</v>
-      </c>
-      <c r="C26" s="101" t="s">
-        <v>638</v>
-      </c>
-      <c r="D26" s="101" t="s">
-        <v>595</v>
-      </c>
-      <c r="E26" s="101">
-        <v>33000</v>
-      </c>
-      <c r="F26" s="122" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="101"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="122"/>
+    </row>
+    <row r="27" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="101">
         <v>26</v>
       </c>
-      <c r="B27" s="101" t="s">
-        <v>712</v>
-      </c>
-      <c r="C27" s="101" t="s">
-        <v>713</v>
-      </c>
-      <c r="D27" s="101" t="s">
-        <v>590</v>
-      </c>
-      <c r="E27" s="101">
-        <v>43000</v>
-      </c>
-      <c r="F27" s="122" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="101"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="122"/>
+    </row>
+    <row r="28" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="101">
         <v>27</v>
       </c>
-      <c r="B28" s="101" t="s">
-        <v>714</v>
-      </c>
-      <c r="C28" s="101" t="s">
-        <v>715</v>
-      </c>
-      <c r="D28" s="101" t="s">
-        <v>590</v>
-      </c>
-      <c r="E28" s="101">
-        <v>5000</v>
-      </c>
-      <c r="F28" s="122" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="101"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="122"/>
+    </row>
+    <row r="29" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="101">
         <v>28</v>
       </c>
       <c r="B29" s="101"/>
-      <c r="C29" s="101" t="s">
-        <v>716</v>
-      </c>
-      <c r="D29" s="101" t="s">
-        <v>595</v>
-      </c>
-      <c r="E29" s="101">
-        <v>25000</v>
-      </c>
-      <c r="F29" s="122" t="s">
-        <v>747</v>
-      </c>
-      <c r="G29" s="126" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="126"/>
+    </row>
+    <row r="30" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="101">
         <v>29</v>
       </c>
-      <c r="B30" s="101" t="s">
-        <v>718</v>
-      </c>
-      <c r="C30" s="101" t="s">
-        <v>719</v>
-      </c>
-      <c r="D30" s="101" t="s">
-        <v>590</v>
-      </c>
-      <c r="E30" s="101">
-        <v>290000</v>
-      </c>
-      <c r="F30" s="122" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="101"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="122"/>
+    </row>
+    <row r="31" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="101">
         <v>30</v>
       </c>
-      <c r="B31" s="101" t="s">
-        <v>718</v>
-      </c>
-      <c r="C31" s="101" t="s">
-        <v>720</v>
-      </c>
-      <c r="D31" s="101" t="s">
-        <v>595</v>
-      </c>
-      <c r="E31" s="101">
-        <v>407000</v>
-      </c>
+      <c r="B31" s="101"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
       <c r="F31" s="122"/>
     </row>
-    <row r="32" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="101">
         <v>31</v>
       </c>
-      <c r="B32" s="101" t="s">
-        <v>718</v>
-      </c>
-      <c r="C32" s="101" t="s">
-        <v>720</v>
-      </c>
-      <c r="D32" s="101" t="s">
-        <v>595</v>
-      </c>
-      <c r="E32" s="101">
-        <v>65000</v>
-      </c>
+      <c r="B32" s="101"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
       <c r="F32" s="122"/>
-      <c r="G32" s="120" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="101">
         <v>32</v>
       </c>
-      <c r="B33" s="101" t="s">
-        <v>718</v>
-      </c>
-      <c r="C33" s="101" t="s">
-        <v>721</v>
-      </c>
-      <c r="D33" s="101" t="s">
-        <v>595</v>
-      </c>
-      <c r="E33" s="101">
-        <v>15000</v>
-      </c>
-      <c r="F33" s="122" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="101"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="122"/>
+    </row>
+    <row r="34" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="101">
         <v>33</v>
       </c>
-      <c r="B34" s="101" t="s">
-        <v>726</v>
-      </c>
-      <c r="C34" s="101" t="s">
-        <v>727</v>
-      </c>
-      <c r="D34" s="101" t="s">
-        <v>147</v>
-      </c>
-      <c r="E34" s="101">
-        <v>184000</v>
-      </c>
+      <c r="B34" s="101"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
       <c r="F34" s="122"/>
     </row>
-    <row r="35" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="101">
         <v>34</v>
       </c>
-      <c r="B35" s="101" t="s">
-        <v>726</v>
-      </c>
-      <c r="C35" s="101" t="s">
-        <v>600</v>
-      </c>
-      <c r="D35" s="101" t="s">
-        <v>585</v>
-      </c>
-      <c r="E35" s="101">
-        <v>3500</v>
-      </c>
-      <c r="F35" s="122" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="101"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="122"/>
+    </row>
+    <row r="36" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="101">
         <v>35</v>
       </c>
-      <c r="B36" s="101" t="s">
-        <v>729</v>
-      </c>
-      <c r="C36" s="101" t="s">
-        <v>675</v>
-      </c>
-      <c r="D36" s="101" t="s">
-        <v>505</v>
-      </c>
-      <c r="E36" s="101">
-        <v>14000</v>
-      </c>
+      <c r="B36" s="101"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="101"/>
       <c r="F36" s="122"/>
     </row>
-    <row r="37" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="101">
         <v>36</v>
       </c>
-      <c r="B37" s="101" t="s">
-        <v>730</v>
-      </c>
-      <c r="C37" s="101" t="s">
-        <v>731</v>
-      </c>
-      <c r="D37" s="101" t="s">
-        <v>595</v>
-      </c>
-      <c r="E37" s="101">
-        <v>125000</v>
-      </c>
-      <c r="F37" s="122" t="s">
-        <v>739</v>
-      </c>
+      <c r="B37" s="101"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="122"/>
       <c r="G37" s="121"/>
       <c r="K37" s="121"/>
     </row>
-    <row r="38" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="101">
         <v>37</v>
       </c>
-      <c r="B38" s="101" t="s">
-        <v>730</v>
-      </c>
-      <c r="C38" s="101" t="s">
-        <v>732</v>
-      </c>
-      <c r="D38" s="101" t="s">
-        <v>585</v>
-      </c>
-      <c r="E38" s="101">
-        <v>12500</v>
-      </c>
-      <c r="F38" s="122" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="101"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="122"/>
+    </row>
+    <row r="39" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="101">
         <v>38</v>
       </c>
-      <c r="B39" s="101" t="s">
-        <v>730</v>
-      </c>
-      <c r="C39" s="101" t="s">
-        <v>579</v>
-      </c>
-      <c r="D39" s="101" t="s">
-        <v>585</v>
-      </c>
-      <c r="E39" s="101">
-        <v>4000</v>
-      </c>
+      <c r="B39" s="101"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="101"/>
       <c r="F39" s="122"/>
     </row>
-    <row r="40" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="101">
         <v>39</v>
       </c>
-      <c r="B40" s="101" t="s">
-        <v>733</v>
-      </c>
-      <c r="C40" s="101" t="s">
-        <v>149</v>
-      </c>
-      <c r="D40" s="101" t="s">
-        <v>590</v>
-      </c>
-      <c r="E40" s="101">
-        <v>25000</v>
-      </c>
-      <c r="F40" s="122" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="101"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="122"/>
+    </row>
+    <row r="41" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="101">
         <v>40</v>
       </c>
-      <c r="B41" s="101" t="s">
-        <v>733</v>
-      </c>
-      <c r="C41" s="101" t="s">
-        <v>734</v>
-      </c>
-      <c r="D41" s="101" t="s">
-        <v>590</v>
-      </c>
-      <c r="E41" s="101">
-        <v>70000</v>
-      </c>
-      <c r="F41" s="122" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="101"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="122"/>
+    </row>
+    <row r="42" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="101">
         <v>41</v>
       </c>
-      <c r="B42" s="101" t="s">
-        <v>733</v>
-      </c>
-      <c r="C42" s="101" t="s">
-        <v>735</v>
-      </c>
-      <c r="D42" s="101" t="s">
-        <v>585</v>
-      </c>
-      <c r="E42" s="101">
-        <v>210000</v>
-      </c>
+      <c r="B42" s="101"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="101"/>
       <c r="F42" s="122"/>
     </row>
-    <row r="43" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="101">
         <v>42</v>
       </c>
-      <c r="B43" s="101" t="s">
-        <v>733</v>
-      </c>
-      <c r="C43" s="101" t="s">
-        <v>736</v>
-      </c>
-      <c r="D43" s="101" t="s">
-        <v>585</v>
-      </c>
-      <c r="E43" s="101">
-        <v>68000</v>
-      </c>
+      <c r="B43" s="101"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="101"/>
       <c r="F43" s="122"/>
     </row>
-    <row r="44" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="101">
         <v>43</v>
       </c>
-      <c r="B44" s="101" t="s">
-        <v>733</v>
-      </c>
-      <c r="C44" s="101" t="s">
-        <v>737</v>
-      </c>
-      <c r="D44" s="101" t="s">
-        <v>585</v>
-      </c>
-      <c r="E44" s="101">
-        <v>100000</v>
-      </c>
-      <c r="F44" s="122" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="101"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
+      <c r="F44" s="122"/>
+    </row>
+    <row r="45" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="101">
         <v>44</v>
       </c>
-      <c r="B45" s="101" t="s">
-        <v>733</v>
-      </c>
-      <c r="C45" s="101" t="s">
-        <v>738</v>
-      </c>
-      <c r="D45" s="101" t="s">
-        <v>595</v>
-      </c>
-      <c r="E45" s="101">
-        <v>81500</v>
-      </c>
-      <c r="F45" s="122" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="101"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
+      <c r="F45" s="122"/>
+    </row>
+    <row r="46" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="101">
         <v>45</v>
       </c>
-      <c r="B46" s="101" t="s">
-        <v>740</v>
-      </c>
-      <c r="C46" s="101" t="s">
-        <v>741</v>
-      </c>
-      <c r="D46" s="101" t="s">
-        <v>595</v>
-      </c>
-      <c r="E46" s="101">
-        <v>32500</v>
-      </c>
+      <c r="B46" s="101"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="101"/>
       <c r="F46" s="122"/>
     </row>
-    <row r="47" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="101">
         <v>46</v>
       </c>
-      <c r="B47" s="101" t="s">
-        <v>742</v>
-      </c>
-      <c r="C47" s="101" t="s">
-        <v>743</v>
-      </c>
-      <c r="D47" s="101" t="s">
-        <v>585</v>
-      </c>
-      <c r="E47" s="101">
-        <v>79500</v>
-      </c>
-      <c r="F47" s="122" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="101"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="101"/>
+      <c r="E47" s="101"/>
+      <c r="F47" s="122"/>
+    </row>
+    <row r="48" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="101">
         <v>47</v>
       </c>
-      <c r="B48" s="101" t="s">
-        <v>742</v>
-      </c>
-      <c r="C48" s="101" t="s">
-        <v>744</v>
-      </c>
-      <c r="D48" s="101" t="s">
-        <v>585</v>
-      </c>
-      <c r="E48" s="101">
-        <v>500000</v>
-      </c>
+      <c r="B48" s="101"/>
+      <c r="C48" s="101"/>
+      <c r="D48" s="101"/>
+      <c r="E48" s="101"/>
       <c r="F48" s="122"/>
     </row>
-    <row r="49" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="101">
         <v>48</v>
       </c>
-      <c r="B49" s="101" t="s">
-        <v>742</v>
-      </c>
-      <c r="C49" s="101" t="s">
-        <v>745</v>
-      </c>
-      <c r="D49" s="101" t="s">
-        <v>590</v>
-      </c>
-      <c r="E49" s="101">
-        <v>32000</v>
-      </c>
-      <c r="F49" s="122" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="101"/>
+      <c r="C49" s="101"/>
+      <c r="D49" s="101"/>
+      <c r="E49" s="101"/>
+      <c r="F49" s="122"/>
+    </row>
+    <row r="50" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="101">
         <v>49</v>
       </c>
-      <c r="B50" s="101" t="s">
-        <v>749</v>
-      </c>
-      <c r="C50" s="101" t="s">
-        <v>693</v>
-      </c>
-      <c r="D50" s="101" t="s">
-        <v>585</v>
-      </c>
-      <c r="E50" s="101">
-        <v>88000</v>
-      </c>
-      <c r="F50" s="122" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="101"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="101"/>
+      <c r="F50" s="122"/>
+    </row>
+    <row r="51" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="101">
         <v>50</v>
       </c>
-      <c r="B51" s="101" t="s">
-        <v>749</v>
-      </c>
-      <c r="C51" s="101" t="s">
-        <v>688</v>
-      </c>
-      <c r="D51" s="101" t="s">
-        <v>505</v>
-      </c>
-      <c r="E51" s="101">
-        <v>50000</v>
-      </c>
+      <c r="B51" s="101"/>
+      <c r="C51" s="101"/>
+      <c r="D51" s="101"/>
+      <c r="E51" s="101"/>
       <c r="F51" s="122"/>
     </row>
-    <row r="52" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="101">
         <v>51</v>
       </c>
-      <c r="B52" s="101" t="s">
-        <v>751</v>
-      </c>
-      <c r="C52" s="101" t="s">
-        <v>752</v>
-      </c>
-      <c r="D52" s="101" t="s">
-        <v>585</v>
-      </c>
-      <c r="E52" s="101">
-        <v>55000</v>
-      </c>
+      <c r="B52" s="101"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="101"/>
       <c r="F52" s="122"/>
     </row>
-    <row r="53" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="101">
         <v>52</v>
       </c>
-      <c r="B53" s="101" t="s">
-        <v>751</v>
-      </c>
+      <c r="B53" s="101"/>
       <c r="C53" s="101"/>
-      <c r="D53" s="101" t="s">
-        <v>575</v>
-      </c>
-      <c r="E53" s="101">
-        <v>36000</v>
-      </c>
+      <c r="D53" s="101"/>
+      <c r="E53" s="101"/>
       <c r="F53" s="122"/>
     </row>
-    <row r="54" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="101">
         <v>51</v>
       </c>
-      <c r="B54" s="101" t="s">
-        <v>751</v>
-      </c>
-      <c r="C54" s="101" t="s">
-        <v>753</v>
-      </c>
-      <c r="D54" s="101" t="s">
-        <v>585</v>
-      </c>
-      <c r="E54" s="101">
-        <v>5000</v>
-      </c>
-      <c r="F54" s="122" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="101"/>
+      <c r="C54" s="101"/>
+      <c r="D54" s="101"/>
+      <c r="E54" s="101"/>
+      <c r="F54" s="122"/>
+    </row>
+    <row r="55" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="101">
         <v>51</v>
       </c>
-      <c r="B55" s="101" t="s">
-        <v>751</v>
-      </c>
-      <c r="C55" s="101" t="s">
-        <v>634</v>
-      </c>
-      <c r="D55" s="101" t="s">
-        <v>590</v>
-      </c>
-      <c r="E55" s="101">
-        <v>194000</v>
-      </c>
-      <c r="F55" s="122" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="101"/>
+      <c r="C55" s="101"/>
+      <c r="D55" s="101"/>
+      <c r="E55" s="101"/>
+      <c r="F55" s="122"/>
+    </row>
+    <row r="56" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="101">
         <v>50.3333333333333</v>
       </c>
-      <c r="B56" s="101" t="s">
-        <v>754</v>
-      </c>
-      <c r="C56" s="101" t="s">
-        <v>675</v>
-      </c>
-      <c r="D56" s="101" t="s">
-        <v>505</v>
-      </c>
-      <c r="E56" s="101">
-        <v>45500</v>
-      </c>
+      <c r="B56" s="101"/>
+      <c r="C56" s="101"/>
+      <c r="D56" s="101"/>
+      <c r="E56" s="101"/>
       <c r="F56" s="122"/>
     </row>
-    <row r="57" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="101">
         <v>49.8333333333333</v>
       </c>
-      <c r="B57" s="101" t="s">
-        <v>754</v>
-      </c>
-      <c r="C57" s="101" t="s">
-        <v>755</v>
-      </c>
-      <c r="D57" s="101" t="s">
-        <v>590</v>
-      </c>
-      <c r="E57" s="101">
-        <v>104000</v>
-      </c>
-      <c r="F57" s="122" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="101"/>
+      <c r="C57" s="101"/>
+      <c r="D57" s="101"/>
+      <c r="E57" s="101"/>
+      <c r="F57" s="122"/>
+    </row>
+    <row r="58" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="101">
         <v>49.3333333333333</v>
       </c>
-      <c r="B58" s="101" t="s">
-        <v>757</v>
-      </c>
-      <c r="C58" s="101" t="s">
-        <v>758</v>
-      </c>
-      <c r="D58" s="101" t="s">
-        <v>585</v>
-      </c>
-      <c r="E58" s="101">
-        <v>58000</v>
-      </c>
+      <c r="B58" s="101"/>
+      <c r="C58" s="101"/>
+      <c r="D58" s="101"/>
+      <c r="E58" s="101"/>
       <c r="F58" s="122"/>
     </row>
-    <row r="59" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="101">
         <v>48.8333333333333</v>
       </c>
-      <c r="B59" s="101" t="s">
-        <v>760</v>
-      </c>
-      <c r="C59" s="101" t="s">
-        <v>761</v>
-      </c>
-      <c r="D59" s="101" t="s">
-        <v>585</v>
-      </c>
-      <c r="E59" s="101">
-        <v>40000</v>
-      </c>
-      <c r="F59" s="122" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="101"/>
+      <c r="C59" s="101"/>
+      <c r="D59" s="101"/>
+      <c r="E59" s="101"/>
+      <c r="F59" s="122"/>
+    </row>
+    <row r="60" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="101">
         <v>48.3333333333333</v>
       </c>
@@ -7032,7 +8008,7 @@
       <c r="E60" s="101"/>
       <c r="F60" s="122"/>
     </row>
-    <row r="61" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="101">
         <v>47.8333333333333</v>
       </c>
@@ -7042,7 +8018,7 @@
       <c r="E61" s="101"/>
       <c r="F61" s="122"/>
     </row>
-    <row r="62" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="101">
         <v>47.3333333333333</v>
       </c>
@@ -7052,7 +8028,7 @@
       <c r="E62" s="101"/>
       <c r="F62" s="122"/>
     </row>
-    <row r="63" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="101">
         <v>46.8333333333333</v>
       </c>
@@ -7062,7 +8038,7 @@
       <c r="E63" s="101"/>
       <c r="F63" s="122"/>
     </row>
-    <row r="64" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="101">
         <v>46.3333333333333</v>
       </c>
@@ -7072,7 +8048,7 @@
       <c r="E64" s="101"/>
       <c r="F64" s="122"/>
     </row>
-    <row r="65" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="101">
         <v>45.8333333333333</v>
       </c>
@@ -7082,7 +8058,7 @@
       <c r="E65" s="101"/>
       <c r="F65" s="122"/>
     </row>
-    <row r="66" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="101">
         <v>45.3333333333333</v>
       </c>
@@ -7092,7 +8068,7 @@
       <c r="E66" s="101"/>
       <c r="F66" s="122"/>
     </row>
-    <row r="67" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="101">
         <v>44.8333333333333</v>
       </c>
@@ -7102,7 +8078,7 @@
       <c r="E67" s="101"/>
       <c r="F67" s="122"/>
     </row>
-    <row r="68" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="101">
         <v>44.3333333333333</v>
       </c>
@@ -7112,7 +8088,7 @@
       <c r="E68" s="101"/>
       <c r="F68" s="122"/>
     </row>
-    <row r="69" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="101">
         <v>43.8333333333333</v>
       </c>
@@ -7122,7 +8098,7 @@
       <c r="E69" s="101"/>
       <c r="F69" s="122"/>
     </row>
-    <row r="70" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="101">
         <v>43.3333333333333</v>
       </c>
@@ -7132,7 +8108,7 @@
       <c r="E70" s="101"/>
       <c r="F70" s="122"/>
     </row>
-    <row r="71" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="101">
         <v>42.8333333333333</v>
       </c>
@@ -7142,330 +8118,154 @@
       <c r="E71" s="101"/>
       <c r="F71" s="122"/>
     </row>
-    <row r="72" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E72" s="120">
-        <f>SUBTOTAL(9,E3:E71)</f>
-        <v>6269500</v>
-      </c>
+    <row r="72" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F72" s="120"/>
     </row>
-    <row r="73" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F73" s="120"/>
     </row>
-    <row r="74" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F74" s="120"/>
     </row>
-    <row r="75" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F75" s="120"/>
     </row>
-    <row r="76" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F76" s="120"/>
     </row>
-    <row r="77" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F77" s="120"/>
     </row>
-    <row r="78" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F78" s="120"/>
     </row>
-    <row r="79" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F79" s="120"/>
     </row>
-    <row r="80" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F80" s="120"/>
     </row>
-    <row r="81" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F81" s="120"/>
     </row>
-    <row r="82" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F82" s="120"/>
     </row>
-    <row r="83" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F83" s="120"/>
     </row>
-    <row r="84" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F84" s="120"/>
     </row>
-    <row r="85" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F85" s="120"/>
     </row>
-    <row r="86" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F86" s="120"/>
     </row>
-    <row r="87" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F87" s="120"/>
     </row>
-    <row r="88" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F88" s="120"/>
     </row>
-    <row r="89" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F89" s="120"/>
     </row>
-    <row r="90" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F90" s="120"/>
     </row>
-    <row r="91" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F91" s="120"/>
     </row>
-    <row r="92" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F92" s="120"/>
     </row>
-    <row r="93" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F93" s="120"/>
     </row>
-    <row r="94" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F94" s="120"/>
     </row>
-    <row r="95" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F95" s="120"/>
     </row>
-    <row r="96" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F96" s="120"/>
     </row>
-    <row r="97" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F97" s="120"/>
     </row>
-    <row r="98" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F98" s="120"/>
     </row>
-    <row r="99" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F99" s="120"/>
     </row>
-    <row r="100" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F100" s="120"/>
     </row>
-    <row r="101" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F101" s="120"/>
     </row>
-    <row r="102" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F102" s="120"/>
     </row>
-    <row r="103" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F103" s="120"/>
     </row>
-    <row r="104" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F104" s="120"/>
     </row>
-    <row r="105" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F105" s="120"/>
     </row>
-    <row r="106" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F106" s="120"/>
     </row>
-    <row r="107" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F107" s="120"/>
     </row>
-    <row r="108" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F108" s="120"/>
     </row>
-    <row r="109" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F109" s="120"/>
     </row>
-    <row r="110" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F110" s="120"/>
     </row>
-    <row r="111" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F111" s="120"/>
     </row>
-    <row r="112" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F112" s="120"/>
     </row>
-    <row r="113" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F113" s="120"/>
     </row>
-    <row r="114" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F114" s="120"/>
     </row>
-    <row r="115" spans="6:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F115" s="120"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F71"/>
+  <autoFilter ref="A1:F1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="11" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="11" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="180" t="s">
-        <v>697</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-    </row>
-    <row r="2" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="138" t="s">
-        <v>488</v>
-      </c>
-      <c r="B2" s="138" t="s">
-        <v>491</v>
-      </c>
-      <c r="C2" s="101">
-        <v>101500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="138" t="s">
-        <v>520</v>
-      </c>
-      <c r="B3" s="138" t="s">
-        <v>523</v>
-      </c>
-      <c r="C3" s="101">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="138" t="s">
-        <v>520</v>
-      </c>
-      <c r="B4" s="138" t="s">
-        <v>524</v>
-      </c>
-      <c r="C4" s="101">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="123" t="s">
-        <v>591</v>
-      </c>
-      <c r="B5" s="123" t="s">
-        <v>593</v>
-      </c>
-      <c r="C5" s="123">
-        <v>158000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="101" t="s">
-        <v>619</v>
-      </c>
-      <c r="B6" s="101" t="s">
-        <v>620</v>
-      </c>
-      <c r="C6" s="101">
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="101" t="s">
-        <v>619</v>
-      </c>
-      <c r="B7" s="101" t="s">
-        <v>621</v>
-      </c>
-      <c r="C7" s="101">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="101" t="s">
-        <v>623</v>
-      </c>
-      <c r="B8" s="101" t="s">
-        <v>624</v>
-      </c>
-      <c r="C8" s="101">
-        <v>236000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="101" t="s">
-        <v>635</v>
-      </c>
-      <c r="B9" s="101" t="s">
-        <v>631</v>
-      </c>
-      <c r="C9" s="101">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="101" t="s">
-        <v>696</v>
-      </c>
-      <c r="B10" s="101" t="s">
-        <v>541</v>
-      </c>
-      <c r="C10" s="101">
-        <v>87000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="101" t="s">
-        <v>654</v>
-      </c>
-      <c r="B11" s="101" t="s">
-        <v>631</v>
-      </c>
-      <c r="C11" s="101">
-        <v>73500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="101" t="s">
-        <v>669</v>
-      </c>
-      <c r="B12" s="101" t="s">
-        <v>671</v>
-      </c>
-      <c r="C12" s="101">
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="101" t="s">
-        <v>673</v>
-      </c>
-      <c r="B13" s="101" t="s">
-        <v>671</v>
-      </c>
-      <c r="C13" s="101">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="101" t="s">
-        <v>691</v>
-      </c>
-      <c r="B14" s="101" t="s">
-        <v>693</v>
-      </c>
-      <c r="C14" s="101">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="137" t="s">
-        <v>572</v>
-      </c>
-      <c r="C15" s="139">
-        <f>SUM(C2:C14)</f>
-        <v>996500</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="11" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7489,18 +8289,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
     </row>
     <row r="2" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
     </row>
     <row r="3" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
@@ -7880,11 +8680,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="142" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
     </row>
     <row r="2" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -8246,21 +9046,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="142" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="E1" s="146" t="s">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="E1" s="143" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="J1" s="147" t="s">
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="J1" s="144" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
     </row>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -8924,21 +9724,21 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="145" t="s">
+      <c r="A4" s="142" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="E4" s="146" t="s">
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
+      <c r="E4" s="143" t="s">
         <v>129</v>
       </c>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="J4" s="147" t="s">
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="J4" s="144" t="s">
         <v>147</v>
       </c>
-      <c r="K4" s="147"/>
-      <c r="L4" s="147"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
     </row>
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
@@ -9702,34 +10502,34 @@
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
-      <c r="I3" s="150" t="s">
+      <c r="I3" s="147" t="s">
         <v>231</v>
       </c>
-      <c r="J3" s="150"/>
+      <c r="J3" s="147"/>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="157" t="s">
+      <c r="A4" s="154" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="157"/>
+      <c r="B4" s="154"/>
       <c r="C4" s="47"/>
       <c r="D4" s="29"/>
-      <c r="E4" s="158" t="s">
+      <c r="E4" s="155" t="s">
         <v>230</v>
       </c>
-      <c r="F4" s="158"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="156"/>
-      <c r="O4" s="156"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="153"/>
+      <c r="O4" s="153"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="159" t="s">
+      <c r="A5" s="156" t="s">
         <v>240</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -9773,7 +10573,7 @@
       <c r="S5" s="29"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="160"/>
+      <c r="A6" s="157"/>
       <c r="B6" s="30" t="s">
         <v>242</v>
       </c>
@@ -9807,7 +10607,7 @@
       <c r="S6" s="27"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="161"/>
+      <c r="A7" s="158"/>
       <c r="B7" s="31" t="s">
         <v>243</v>
       </c>
@@ -9896,7 +10696,7 @@
       <c r="S9" s="27"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="153" t="s">
+      <c r="A10" s="150" t="s">
         <v>248</v>
       </c>
       <c r="B10" s="30" t="s">
@@ -9924,7 +10724,7 @@
       <c r="S10" s="27"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="155"/>
+      <c r="A11" s="152"/>
       <c r="B11" s="31" t="s">
         <v>32</v>
       </c>
@@ -9954,7 +10754,7 @@
       <c r="S11" s="27"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="153" t="s">
+      <c r="A12" s="150" t="s">
         <v>250</v>
       </c>
       <c r="B12" s="30" t="s">
@@ -9984,7 +10784,7 @@
       <c r="S12" s="27"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="154"/>
+      <c r="A13" s="151"/>
       <c r="B13" s="31" t="s">
         <v>183</v>
       </c>
@@ -10010,7 +10810,7 @@
       <c r="S13" s="27"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="155"/>
+      <c r="A14" s="152"/>
       <c r="B14" s="31" t="s">
         <v>90</v>
       </c>
@@ -10092,7 +10892,7 @@
       <c r="S16" s="27"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="153" t="s">
+      <c r="A17" s="150" t="s">
         <v>255</v>
       </c>
       <c r="B17" s="30" t="s">
@@ -10120,7 +10920,7 @@
       <c r="S17" s="27"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="154"/>
+      <c r="A18" s="151"/>
       <c r="B18" s="31" t="s">
         <v>249</v>
       </c>
@@ -10146,7 +10946,7 @@
       <c r="S18" s="27"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="155"/>
+      <c r="A19" s="152"/>
       <c r="B19" s="31" t="s">
         <v>14</v>
       </c>
@@ -10172,7 +10972,7 @@
       <c r="S19" s="27"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="164" t="s">
+      <c r="A20" s="161" t="s">
         <v>263</v>
       </c>
       <c r="B20" s="30" t="s">
@@ -10200,7 +11000,7 @@
       <c r="S20" s="27"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="165"/>
+      <c r="A21" s="162"/>
       <c r="B21" s="30" t="s">
         <v>215</v>
       </c>
@@ -10225,7 +11025,7 @@
       <c r="S21" s="27"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="165"/>
+      <c r="A22" s="162"/>
       <c r="B22" s="30" t="s">
         <v>264</v>
       </c>
@@ -10251,7 +11051,7 @@
       <c r="S22" s="27"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="166"/>
+      <c r="A23" s="163"/>
       <c r="B23" s="30" t="s">
         <v>265</v>
       </c>
@@ -10350,10 +11150,10 @@
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="39"/>
-      <c r="F27" s="151" t="s">
+      <c r="F27" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="G27" s="151"/>
+      <c r="G27" s="148"/>
       <c r="H27" s="45"/>
       <c r="K27" s="57" t="s">
         <v>280</v>
@@ -10365,7 +11165,7 @@
       <c r="C28" s="12"/>
       <c r="D28" s="32"/>
       <c r="E28" s="39"/>
-      <c r="F28" s="162" t="s">
+      <c r="F28" s="159" t="s">
         <v>233</v>
       </c>
       <c r="G28" s="41" t="s">
@@ -10399,7 +11199,7 @@
       <c r="C29" s="12"/>
       <c r="D29" s="32"/>
       <c r="E29" s="27"/>
-      <c r="F29" s="163"/>
+      <c r="F29" s="160"/>
       <c r="G29" s="40" t="s">
         <v>235</v>
       </c>
@@ -10749,10 +11549,10 @@
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C49" s="58"/>
       <c r="G49" s="59"/>
-      <c r="H49" s="148">
+      <c r="H49" s="145">
         <v>325000</v>
       </c>
-      <c r="I49" s="149"/>
+      <c r="I49" s="146"/>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E53" s="4" t="s">
@@ -10806,21 +11606,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="166" t="s">
         <v>304</v>
       </c>
-      <c r="C1" s="169"/>
+      <c r="C1" s="166"/>
       <c r="G1" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="L1" s="169" t="s">
+      <c r="L1" s="166" t="s">
         <v>305</v>
       </c>
-      <c r="M1" s="169"/>
-      <c r="Q1" s="169" t="s">
+      <c r="M1" s="166"/>
+      <c r="Q1" s="166" t="s">
         <v>306</v>
       </c>
-      <c r="R1" s="169"/>
+      <c r="R1" s="166"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
@@ -11807,16 +12607,16 @@
       <c r="S30" s="2"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C36" s="169" t="s">
+      <c r="C36" s="166" t="s">
         <v>232</v>
       </c>
-      <c r="D36" s="169"/>
+      <c r="D36" s="166"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="167" t="s">
+      <c r="A37" s="164" t="s">
         <v>308</v>
       </c>
-      <c r="B37" s="168"/>
+      <c r="B37" s="165"/>
       <c r="C37" s="2" t="s">
         <v>309</v>
       </c>
@@ -11836,8 +12636,8 @@
       <c r="N37" s="76"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="167"/>
-      <c r="B38" s="168"/>
+      <c r="A38" s="164"/>
+      <c r="B38" s="165"/>
       <c r="C38" s="10" t="s">
         <v>311</v>
       </c>
@@ -11857,10 +12657,10 @@
       <c r="N38" s="76"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="167" t="s">
+      <c r="A39" s="164" t="s">
         <v>312</v>
       </c>
-      <c r="B39" s="168"/>
+      <c r="B39" s="165"/>
       <c r="C39" s="2" t="s">
         <v>313</v>
       </c>
@@ -11880,10 +12680,10 @@
       <c r="N39" s="76"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="170" t="s">
+      <c r="A40" s="167" t="s">
         <v>339</v>
       </c>
-      <c r="B40" s="171"/>
+      <c r="B40" s="168"/>
       <c r="C40" s="2" t="s">
         <v>316</v>
       </c>
@@ -11903,10 +12703,10 @@
       <c r="N40" s="76"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="167" t="s">
+      <c r="A41" s="164" t="s">
         <v>321</v>
       </c>
-      <c r="B41" s="168"/>
+      <c r="B41" s="165"/>
       <c r="C41" s="2" t="s">
         <v>320</v>
       </c>
@@ -11926,10 +12726,10 @@
       <c r="N41" s="76"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="167" t="s">
+      <c r="A42" s="164" t="s">
         <v>331</v>
       </c>
-      <c r="B42" s="168"/>
+      <c r="B42" s="165"/>
       <c r="C42" s="2" t="s">
         <v>332</v>
       </c>
@@ -11946,10 +12746,10 @@
       <c r="N42" s="76"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="167" t="s">
+      <c r="A43" s="164" t="s">
         <v>335</v>
       </c>
-      <c r="B43" s="168"/>
+      <c r="B43" s="165"/>
       <c r="C43" s="2" t="s">
         <v>336</v>
       </c>
@@ -11966,10 +12766,10 @@
       <c r="N43" s="76"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="167" t="s">
+      <c r="A44" s="164" t="s">
         <v>341</v>
       </c>
-      <c r="B44" s="168"/>
+      <c r="B44" s="165"/>
       <c r="C44" s="2" t="s">
         <v>342</v>
       </c>
@@ -12029,10 +12829,10 @@
       <c r="N46" s="76"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="167" t="s">
+      <c r="A47" s="164" t="s">
         <v>346</v>
       </c>
-      <c r="B47" s="168"/>
+      <c r="B47" s="165"/>
       <c r="C47" s="2" t="s">
         <v>347</v>
       </c>
@@ -12047,10 +12847,10 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="167" t="s">
+      <c r="A48" s="164" t="s">
         <v>351</v>
       </c>
-      <c r="B48" s="168"/>
+      <c r="B48" s="165"/>
       <c r="C48" s="2" t="s">
         <v>350</v>
       </c>
@@ -12062,10 +12862,10 @@
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A49" s="167" t="s">
+      <c r="A49" s="164" t="s">
         <v>362</v>
       </c>
-      <c r="B49" s="168"/>
+      <c r="B49" s="165"/>
       <c r="C49" s="2" t="s">
         <v>372</v>
       </c>
@@ -12077,10 +12877,10 @@
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" s="167" t="s">
+      <c r="A50" s="164" t="s">
         <v>371</v>
       </c>
-      <c r="B50" s="168"/>
+      <c r="B50" s="165"/>
       <c r="C50" s="10" t="s">
         <v>375</v>
       </c>
@@ -12092,10 +12892,10 @@
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" s="167" t="s">
+      <c r="A51" s="164" t="s">
         <v>378</v>
       </c>
-      <c r="B51" s="168"/>
+      <c r="B51" s="165"/>
       <c r="C51" s="2" t="s">
         <v>379</v>
       </c>
@@ -12107,10 +12907,10 @@
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="167" t="s">
+      <c r="A52" s="164" t="s">
         <v>386</v>
       </c>
-      <c r="B52" s="168"/>
+      <c r="B52" s="165"/>
       <c r="C52" s="2" t="s">
         <v>387</v>
       </c>
@@ -12128,8 +12928,8 @@
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A53" s="167"/>
-      <c r="B53" s="168"/>
+      <c r="A53" s="164"/>
+      <c r="B53" s="165"/>
       <c r="C53" s="2"/>
       <c r="D53" s="80" t="s">
         <v>388</v>
@@ -12154,8 +12954,8 @@
       <c r="V53" s="76"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="167"/>
-      <c r="B54" s="168"/>
+      <c r="A54" s="164"/>
+      <c r="B54" s="165"/>
       <c r="C54" s="2"/>
       <c r="D54" s="78"/>
       <c r="E54" s="77"/>
@@ -12178,8 +12978,8 @@
       <c r="V54" s="76"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="167"/>
-      <c r="B55" s="168"/>
+      <c r="A55" s="164"/>
+      <c r="B55" s="165"/>
       <c r="C55" s="2"/>
       <c r="D55" s="75"/>
       <c r="E55" s="75"/>
@@ -12187,23 +12987,23 @@
       <c r="I55" s="76"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" s="167"/>
-      <c r="B56" s="168"/>
+      <c r="A56" s="164"/>
+      <c r="B56" s="165"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="H56" s="76"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A57" s="167"/>
-      <c r="B57" s="168"/>
+      <c r="A57" s="164"/>
+      <c r="B57" s="165"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A58" s="167"/>
-      <c r="B58" s="168"/>
+      <c r="A58" s="164"/>
+      <c r="B58" s="165"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2">
@@ -12942,8 +13742,8 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="172"/>
-      <c r="D30" s="173"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="170"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="P34" s="11"/>
@@ -13034,16 +13834,16 @@
       <c r="S37" s="2"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="174" t="s">
+      <c r="A38" s="171" t="s">
         <v>392</v>
       </c>
       <c r="B38" s="73" t="s">
         <v>303</v>
       </c>
-      <c r="C38" s="174" t="s">
+      <c r="C38" s="171" t="s">
         <v>302</v>
       </c>
-      <c r="D38" s="174"/>
+      <c r="D38" s="171"/>
       <c r="G38" s="2" t="s">
         <v>398</v>
       </c>
@@ -13079,10 +13879,10 @@
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="175"/>
+      <c r="A39" s="172"/>
       <c r="B39" s="73"/>
-      <c r="C39" s="175"/>
-      <c r="D39" s="175"/>
+      <c r="C39" s="172"/>
+      <c r="D39" s="172"/>
       <c r="G39" s="2" t="s">
         <v>409</v>
       </c>
@@ -13696,8 +14496,8 @@
   </sheetPr>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13716,36 +14516,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="173" t="s">
         <v>487</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
     </row>
     <row r="2" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="176" t="s">
         <v>484</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="E2" s="146" t="s">
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="E2" s="143" t="s">
         <v>485</v>
       </c>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="I2" s="147" t="s">
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="I2" s="144" t="s">
         <v>147</v>
       </c>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
     </row>
     <row r="3" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="87" t="s">
@@ -14303,16 +15103,16 @@
       <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="177" t="s">
+      <c r="E25" s="174" t="s">
         <v>483</v>
       </c>
-      <c r="F25" s="177"/>
-      <c r="G25" s="177"/>
-      <c r="I25" s="178" t="s">
+      <c r="F25" s="174"/>
+      <c r="G25" s="174"/>
+      <c r="I25" s="175" t="s">
         <v>505</v>
       </c>
-      <c r="J25" s="178"/>
-      <c r="K25" s="178"/>
+      <c r="J25" s="175"/>
+      <c r="K25" s="175"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
@@ -14370,7 +15170,7 @@
         <v>101500</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="I27" s="112"/>
       <c r="J27" s="2" t="s">
@@ -14494,7 +15294,7 @@
         <v>5000</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
@@ -14525,7 +15325,7 @@
         <v>25000</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">

--- a/1 MONTH CREDIT.xlsx
+++ b/1 MONTH CREDIT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="930" windowWidth="18195" windowHeight="10965" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="930" windowWidth="18195" windowHeight="10965" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Oct;2017" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="780">
   <si>
     <t>Date</t>
   </si>
@@ -2580,16 +2580,37 @@
     <t>Premium W.W</t>
   </si>
   <si>
-    <t>Paid 3.9.2018/</t>
-  </si>
-  <si>
-    <t>340500/Bl 322000</t>
-  </si>
-  <si>
     <t>Paid 3.9.2018</t>
   </si>
   <si>
     <t>Discount-119000</t>
+  </si>
+  <si>
+    <t>1.9.2018</t>
+  </si>
+  <si>
+    <t>5K-4338/-</t>
+  </si>
+  <si>
+    <t>3.9.2018</t>
+  </si>
+  <si>
+    <t>3M-8468/Honda</t>
+  </si>
+  <si>
+    <t>1L-1249/Probox</t>
+  </si>
+  <si>
+    <t>5.9.2018</t>
+  </si>
+  <si>
+    <t>5H-7789/Probox</t>
+  </si>
+  <si>
+    <t>5.9.2019</t>
+  </si>
+  <si>
+    <t>Paid 3.9.2018/6.9.18</t>
   </si>
 </sst>
 </file>
@@ -4360,9 +4381,9 @@
   </sheetPr>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
+      <selection pane="bottomLeft" activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5861,9 +5882,9 @@
   </sheetPr>
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5873,7 +5894,7 @@
     <col min="3" max="3" width="25.42578125" style="120" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" style="120" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" style="120" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="126" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" style="126" customWidth="1"/>
     <col min="7" max="7" width="20" style="120" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="120"/>
   </cols>
@@ -6252,15 +6273,13 @@
       <c r="D19" s="101" t="s">
         <v>590</v>
       </c>
-      <c r="E19" s="122">
+      <c r="E19" s="101">
         <v>662500</v>
       </c>
       <c r="F19" s="122" t="s">
-        <v>769</v>
-      </c>
-      <c r="G19" s="126" t="s">
-        <v>770</v>
-      </c>
+        <v>779</v>
+      </c>
+      <c r="G19" s="126"/>
     </row>
     <row r="20" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="101">
@@ -7067,7 +7086,7 @@
         <v>149000</v>
       </c>
       <c r="F61" s="122" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -7123,10 +7142,10 @@
         <v>609000</v>
       </c>
       <c r="F64" s="122" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="G64" s="126" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -7370,8 +7389,8 @@
   <dimension ref="A1:K115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7410,20 +7429,36 @@
       <c r="A2" s="101">
         <v>1</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
+      <c r="B2" s="101" t="s">
+        <v>771</v>
+      </c>
+      <c r="C2" s="101" t="s">
+        <v>772</v>
+      </c>
+      <c r="D2" s="101" t="s">
+        <v>505</v>
+      </c>
+      <c r="E2" s="101">
+        <v>45000</v>
+      </c>
       <c r="F2" s="122"/>
     </row>
     <row r="3" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="101">
         <v>2</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
+      <c r="B3" s="101" t="s">
+        <v>773</v>
+      </c>
+      <c r="C3" s="101" t="s">
+        <v>774</v>
+      </c>
+      <c r="D3" s="101" t="s">
+        <v>585</v>
+      </c>
+      <c r="E3" s="101">
+        <v>360500</v>
+      </c>
       <c r="F3" s="122"/>
       <c r="I3" s="121"/>
     </row>
@@ -7431,10 +7466,18 @@
       <c r="A4" s="101">
         <v>3</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
+      <c r="B4" s="101" t="s">
+        <v>773</v>
+      </c>
+      <c r="C4" s="101" t="s">
+        <v>775</v>
+      </c>
+      <c r="D4" s="101" t="s">
+        <v>575</v>
+      </c>
+      <c r="E4" s="101">
+        <v>47000</v>
+      </c>
       <c r="F4" s="122"/>
       <c r="G4" s="126"/>
     </row>
@@ -7442,20 +7485,36 @@
       <c r="A5" s="101">
         <v>4</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
+      <c r="B5" s="101" t="s">
+        <v>776</v>
+      </c>
+      <c r="C5" s="101" t="s">
+        <v>777</v>
+      </c>
+      <c r="D5" s="101" t="s">
+        <v>575</v>
+      </c>
+      <c r="E5" s="101">
+        <v>62000</v>
+      </c>
       <c r="F5" s="122"/>
     </row>
     <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="101">
         <v>5</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
+      <c r="B6" s="101" t="s">
+        <v>778</v>
+      </c>
+      <c r="C6" s="106" t="s">
+        <v>690</v>
+      </c>
+      <c r="D6" s="106" t="s">
+        <v>595</v>
+      </c>
+      <c r="E6" s="106">
+        <v>50000</v>
+      </c>
       <c r="F6" s="125"/>
       <c r="I6" s="121"/>
       <c r="J6" s="121"/>
@@ -13051,7 +13110,7 @@
   </sheetPr>
   <dimension ref="A1:U67"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
@@ -14496,7 +14555,7 @@
   </sheetPr>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>

--- a/1 MONTH CREDIT.xlsx
+++ b/1 MONTH CREDIT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="930" windowWidth="18195" windowHeight="10965" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="930" windowWidth="18195" windowHeight="10965" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Oct;2017" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="800">
   <si>
     <t>Date</t>
   </si>
@@ -2611,6 +2611,66 @@
   </si>
   <si>
     <t>Paid 3.9.2018/6.9.18</t>
+  </si>
+  <si>
+    <t>Paid 6.9.2018</t>
+  </si>
+  <si>
+    <t>6.9.2018</t>
+  </si>
+  <si>
+    <t>8B-9657/Light Truck</t>
+  </si>
+  <si>
+    <t>1Q-9016/Yairs</t>
+  </si>
+  <si>
+    <t>Ko Maw Oo</t>
+  </si>
+  <si>
+    <t>9G-1976/Dyna</t>
+  </si>
+  <si>
+    <t>7.9.2018</t>
+  </si>
+  <si>
+    <t>3I-9236/Probox</t>
+  </si>
+  <si>
+    <t>6J-2897/Dyna</t>
+  </si>
+  <si>
+    <t>BB-3765/Caldina</t>
+  </si>
+  <si>
+    <t>Paid 11.9.2018</t>
+  </si>
+  <si>
+    <t>8.9.2018</t>
+  </si>
+  <si>
+    <t>9J-2394/Isuzu</t>
+  </si>
+  <si>
+    <t>Sunny Co.,</t>
+  </si>
+  <si>
+    <t>9.9.2018</t>
+  </si>
+  <si>
+    <t>9K-9343/</t>
+  </si>
+  <si>
+    <t>10.9.2018</t>
+  </si>
+  <si>
+    <t>9K-1620/Hiace</t>
+  </si>
+  <si>
+    <t>5G-3619/Canter</t>
+  </si>
+  <si>
+    <t>Paid 10.9.2018</t>
   </si>
 </sst>
 </file>
@@ -4382,7 +4442,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
@@ -5882,8 +5942,8 @@
   </sheetPr>
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -7386,21 +7446,21 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="120" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="120" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="120" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="120" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="120" customWidth="1"/>
-    <col min="6" max="6" width="21" style="126" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="120" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="120" customWidth="1"/>
+    <col min="4" max="4" width="20" style="120" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="120" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="126" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" style="120" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="120"/>
   </cols>
@@ -7448,19 +7508,18 @@
         <v>2</v>
       </c>
       <c r="B3" s="101" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C3" s="101" t="s">
-        <v>774</v>
+        <v>789</v>
       </c>
       <c r="D3" s="101" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="E3" s="101">
-        <v>360500</v>
+        <v>3000</v>
       </c>
       <c r="F3" s="122"/>
-      <c r="I3" s="121"/>
     </row>
     <row r="4" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="101">
@@ -7470,158 +7529,244 @@
         <v>773</v>
       </c>
       <c r="C4" s="101" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D4" s="101" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="E4" s="101">
-        <v>47000</v>
+        <v>360500</v>
       </c>
       <c r="F4" s="122"/>
-      <c r="G4" s="126"/>
+      <c r="I4" s="121"/>
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="101">
         <v>4</v>
       </c>
       <c r="B5" s="101" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C5" s="101" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D5" s="101" t="s">
         <v>575</v>
       </c>
       <c r="E5" s="101">
-        <v>62000</v>
+        <v>47000</v>
       </c>
       <c r="F5" s="122"/>
+      <c r="G5" s="126"/>
     </row>
     <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="101">
         <v>5</v>
       </c>
       <c r="B6" s="101" t="s">
-        <v>778</v>
-      </c>
-      <c r="C6" s="106" t="s">
-        <v>690</v>
-      </c>
-      <c r="D6" s="106" t="s">
-        <v>595</v>
-      </c>
-      <c r="E6" s="106">
-        <v>50000</v>
-      </c>
-      <c r="F6" s="125"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
+        <v>776</v>
+      </c>
+      <c r="C6" s="101" t="s">
+        <v>777</v>
+      </c>
+      <c r="D6" s="101" t="s">
+        <v>575</v>
+      </c>
+      <c r="E6" s="101">
+        <v>62000</v>
+      </c>
+      <c r="F6" s="122"/>
     </row>
     <row r="7" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="101">
         <v>6</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="122"/>
+      <c r="B7" s="101" t="s">
+        <v>778</v>
+      </c>
+      <c r="C7" s="106" t="s">
+        <v>690</v>
+      </c>
+      <c r="D7" s="106" t="s">
+        <v>595</v>
+      </c>
+      <c r="E7" s="106">
+        <v>50000</v>
+      </c>
+      <c r="F7" s="125" t="s">
+        <v>780</v>
+      </c>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
     </row>
     <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="101">
         <v>7</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
+      <c r="B8" s="101" t="s">
+        <v>781</v>
+      </c>
+      <c r="C8" s="101" t="s">
+        <v>782</v>
+      </c>
+      <c r="D8" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="101">
+        <v>125500</v>
+      </c>
       <c r="F8" s="122"/>
     </row>
     <row r="9" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="101">
         <v>8</v>
       </c>
-      <c r="B9" s="101"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="122"/>
+      <c r="B9" s="101" t="s">
+        <v>781</v>
+      </c>
+      <c r="C9" s="101" t="s">
+        <v>783</v>
+      </c>
+      <c r="D9" s="101" t="s">
+        <v>784</v>
+      </c>
+      <c r="E9" s="101">
+        <v>198000</v>
+      </c>
+      <c r="F9" s="122" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="101">
         <v>9</v>
       </c>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
+      <c r="B10" s="101" t="s">
+        <v>781</v>
+      </c>
+      <c r="C10" s="123" t="s">
+        <v>785</v>
+      </c>
+      <c r="D10" s="123" t="s">
+        <v>768</v>
+      </c>
+      <c r="E10" s="123">
+        <v>33000</v>
+      </c>
       <c r="F10" s="122"/>
     </row>
     <row r="11" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="101">
         <v>10</v>
       </c>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="122"/>
+      <c r="B11" s="101" t="s">
+        <v>786</v>
+      </c>
+      <c r="C11" s="101" t="s">
+        <v>787</v>
+      </c>
+      <c r="D11" s="101" t="s">
+        <v>595</v>
+      </c>
+      <c r="E11" s="101">
+        <v>130000</v>
+      </c>
+      <c r="F11" s="122" t="s">
+        <v>799</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="101">
         <v>11</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="B12" s="101" t="s">
+        <v>786</v>
+      </c>
+      <c r="C12" s="101" t="s">
+        <v>788</v>
+      </c>
+      <c r="D12" s="101" t="s">
+        <v>766</v>
+      </c>
+      <c r="E12" s="101">
+        <v>10000</v>
+      </c>
       <c r="F12" s="122"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
     </row>
     <row r="13" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="101">
         <v>12</v>
       </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
+      <c r="B13" s="101" t="s">
+        <v>791</v>
+      </c>
+      <c r="C13" s="123" t="s">
+        <v>792</v>
+      </c>
+      <c r="D13" s="123" t="s">
+        <v>793</v>
+      </c>
+      <c r="E13" s="123">
+        <v>6200</v>
+      </c>
       <c r="F13" s="122"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="101">
         <v>13</v>
       </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
+      <c r="B14" s="101" t="s">
+        <v>794</v>
+      </c>
+      <c r="C14" s="101" t="s">
+        <v>795</v>
+      </c>
+      <c r="D14" s="101" t="s">
+        <v>505</v>
+      </c>
+      <c r="E14" s="101">
+        <v>15000</v>
+      </c>
       <c r="F14" s="122"/>
     </row>
     <row r="15" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="101">
         <v>14</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
+      <c r="B15" s="101" t="s">
+        <v>796</v>
+      </c>
+      <c r="C15" s="101" t="s">
+        <v>797</v>
+      </c>
+      <c r="D15" s="101" t="s">
+        <v>768</v>
+      </c>
+      <c r="E15" s="101">
+        <v>143000</v>
+      </c>
       <c r="F15" s="122"/>
     </row>
     <row r="16" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="101">
         <v>15</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
+      <c r="B16" s="101" t="s">
+        <v>796</v>
+      </c>
+      <c r="C16" s="101" t="s">
+        <v>798</v>
+      </c>
+      <c r="D16" s="101" t="s">
+        <v>768</v>
+      </c>
+      <c r="E16" s="101">
+        <v>101000</v>
+      </c>
       <c r="F16" s="122"/>
-      <c r="G16" s="137"/>
     </row>
     <row r="17" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="101">
@@ -7632,7 +7777,7 @@
       <c r="D17" s="101"/>
       <c r="E17" s="101"/>
       <c r="F17" s="122"/>
-      <c r="I17" s="121"/>
+      <c r="G17" s="137"/>
     </row>
     <row r="18" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="101">
@@ -7643,6 +7788,7 @@
       <c r="D18" s="101"/>
       <c r="E18" s="101"/>
       <c r="F18" s="122"/>
+      <c r="I18" s="121"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="101">
@@ -7679,7 +7825,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="101"/>
-      <c r="C22" s="138"/>
+      <c r="C22" s="101"/>
       <c r="D22" s="101"/>
       <c r="E22" s="101"/>
       <c r="F22" s="122"/>
@@ -7689,7 +7835,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="101"/>
-      <c r="C23" s="101"/>
+      <c r="C23" s="138"/>
       <c r="D23" s="101"/>
       <c r="E23" s="101"/>
       <c r="F23" s="122"/>
@@ -7753,7 +7899,6 @@
       <c r="D29" s="101"/>
       <c r="E29" s="101"/>
       <c r="F29" s="122"/>
-      <c r="G29" s="126"/>
     </row>
     <row r="30" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="101">
@@ -7764,6 +7909,7 @@
       <c r="D30" s="101"/>
       <c r="E30" s="101"/>
       <c r="F30" s="122"/>
+      <c r="G30" s="126"/>
     </row>
     <row r="31" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="101">
@@ -7834,8 +7980,6 @@
       <c r="D37" s="101"/>
       <c r="E37" s="101"/>
       <c r="F37" s="122"/>
-      <c r="G37" s="121"/>
-      <c r="K37" s="121"/>
     </row>
     <row r="38" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="101">
@@ -7846,6 +7990,8 @@
       <c r="D38" s="101"/>
       <c r="E38" s="101"/>
       <c r="F38" s="122"/>
+      <c r="G38" s="121"/>
+      <c r="K38" s="121"/>
     </row>
     <row r="39" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="101">
@@ -7999,7 +8145,7 @@
     </row>
     <row r="54" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="101">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B54" s="101"/>
       <c r="C54" s="101"/>
@@ -8009,7 +8155,7 @@
     </row>
     <row r="55" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="101">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B55" s="101"/>
       <c r="C55" s="101"/>
@@ -8019,7 +8165,7 @@
     </row>
     <row r="56" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="101">
-        <v>50.3333333333333</v>
+        <v>55</v>
       </c>
       <c r="B56" s="101"/>
       <c r="C56" s="101"/>
@@ -8029,7 +8175,7 @@
     </row>
     <row r="57" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="101">
-        <v>49.8333333333333</v>
+        <v>56</v>
       </c>
       <c r="B57" s="101"/>
       <c r="C57" s="101"/>
@@ -8039,7 +8185,7 @@
     </row>
     <row r="58" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="101">
-        <v>49.3333333333333</v>
+        <v>57</v>
       </c>
       <c r="B58" s="101"/>
       <c r="C58" s="101"/>
@@ -8049,7 +8195,7 @@
     </row>
     <row r="59" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="101">
-        <v>48.8333333333333</v>
+        <v>58</v>
       </c>
       <c r="B59" s="101"/>
       <c r="C59" s="101"/>
@@ -8059,7 +8205,7 @@
     </row>
     <row r="60" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="101">
-        <v>48.3333333333333</v>
+        <v>59</v>
       </c>
       <c r="B60" s="101"/>
       <c r="C60" s="101"/>
@@ -8069,7 +8215,7 @@
     </row>
     <row r="61" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="101">
-        <v>47.8333333333333</v>
+        <v>60</v>
       </c>
       <c r="B61" s="101"/>
       <c r="C61" s="101"/>
@@ -8079,7 +8225,7 @@
     </row>
     <row r="62" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="101">
-        <v>47.3333333333333</v>
+        <v>61</v>
       </c>
       <c r="B62" s="101"/>
       <c r="C62" s="101"/>
@@ -8089,7 +8235,7 @@
     </row>
     <row r="63" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="101">
-        <v>46.8333333333333</v>
+        <v>62</v>
       </c>
       <c r="B63" s="101"/>
       <c r="C63" s="101"/>
@@ -8099,7 +8245,7 @@
     </row>
     <row r="64" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="101">
-        <v>46.3333333333333</v>
+        <v>63</v>
       </c>
       <c r="B64" s="101"/>
       <c r="C64" s="101"/>
@@ -8109,7 +8255,7 @@
     </row>
     <row r="65" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="101">
-        <v>45.8333333333333</v>
+        <v>64</v>
       </c>
       <c r="B65" s="101"/>
       <c r="C65" s="101"/>
@@ -8119,7 +8265,7 @@
     </row>
     <row r="66" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="101">
-        <v>45.3333333333333</v>
+        <v>65</v>
       </c>
       <c r="B66" s="101"/>
       <c r="C66" s="101"/>
@@ -8129,7 +8275,7 @@
     </row>
     <row r="67" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="101">
-        <v>44.8333333333333</v>
+        <v>66</v>
       </c>
       <c r="B67" s="101"/>
       <c r="C67" s="101"/>
@@ -8139,7 +8285,7 @@
     </row>
     <row r="68" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="101">
-        <v>44.3333333333333</v>
+        <v>67</v>
       </c>
       <c r="B68" s="101"/>
       <c r="C68" s="101"/>
@@ -8149,7 +8295,7 @@
     </row>
     <row r="69" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="101">
-        <v>43.8333333333333</v>
+        <v>68</v>
       </c>
       <c r="B69" s="101"/>
       <c r="C69" s="101"/>
@@ -8159,7 +8305,7 @@
     </row>
     <row r="70" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="101">
-        <v>43.3333333333333</v>
+        <v>69</v>
       </c>
       <c r="B70" s="101"/>
       <c r="C70" s="101"/>
@@ -8169,7 +8315,7 @@
     </row>
     <row r="71" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="101">
-        <v>42.8333333333333</v>
+        <v>70</v>
       </c>
       <c r="B71" s="101"/>
       <c r="C71" s="101"/>
@@ -8178,7 +8324,14 @@
       <c r="F71" s="122"/>
     </row>
     <row r="72" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F72" s="120"/>
+      <c r="A72" s="101">
+        <v>71</v>
+      </c>
+      <c r="B72" s="101"/>
+      <c r="C72" s="101"/>
+      <c r="D72" s="101"/>
+      <c r="E72" s="101"/>
+      <c r="F72" s="122"/>
     </row>
     <row r="73" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F73" s="120"/>
@@ -8308,6 +8461,9 @@
     </row>
     <row r="115" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F115" s="120"/>
+    </row>
+    <row r="116" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F116" s="120"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1"/>
@@ -13110,7 +13266,7 @@
   </sheetPr>
   <dimension ref="A1:U67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>

--- a/1 MONTH CREDIT.xlsx
+++ b/1 MONTH CREDIT.xlsx
@@ -270,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="802">
   <si>
     <t>Date</t>
   </si>
@@ -2671,6 +2671,12 @@
   </si>
   <si>
     <t>Paid 10.9.2018</t>
+  </si>
+  <si>
+    <t>Paid 12.9.2018</t>
+  </si>
+  <si>
+    <t>Nil</t>
   </si>
 </sst>
 </file>
@@ -3576,30 +3582,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3631,6 +3613,30 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4442,8 +4448,8 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H69" sqref="H69"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5551,7 +5557,9 @@
       <c r="E55" s="101">
         <v>3000</v>
       </c>
-      <c r="F55" s="122"/>
+      <c r="F55" s="122" t="s">
+        <v>800</v>
+      </c>
     </row>
     <row r="56" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="101">
@@ -5943,8 +5951,8 @@
   <dimension ref="A1:K113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6628,7 +6636,9 @@
       <c r="E34" s="101">
         <v>184000</v>
       </c>
-      <c r="F34" s="122"/>
+      <c r="F34" s="122" t="s">
+        <v>800</v>
+      </c>
     </row>
     <row r="35" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="101">
@@ -7449,8 +7459,8 @@
   <dimension ref="A1:K116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7615,7 +7625,9 @@
       <c r="E8" s="101">
         <v>125500</v>
       </c>
-      <c r="F8" s="122"/>
+      <c r="F8" s="122" t="s">
+        <v>800</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="101">
@@ -10717,34 +10729,34 @@
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
-      <c r="I3" s="147" t="s">
+      <c r="I3" s="158" t="s">
         <v>231</v>
       </c>
-      <c r="J3" s="147"/>
+      <c r="J3" s="158"/>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="146" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="154"/>
+      <c r="B4" s="146"/>
       <c r="C4" s="47"/>
       <c r="D4" s="29"/>
-      <c r="E4" s="155" t="s">
+      <c r="E4" s="147" t="s">
         <v>230</v>
       </c>
-      <c r="F4" s="155"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="M4" s="153"/>
-      <c r="N4" s="153"/>
-      <c r="O4" s="153"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="145"/>
+      <c r="O4" s="145"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="156" t="s">
+      <c r="A5" s="148" t="s">
         <v>240</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -10788,7 +10800,7 @@
       <c r="S5" s="29"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="157"/>
+      <c r="A6" s="149"/>
       <c r="B6" s="30" t="s">
         <v>242</v>
       </c>
@@ -10822,7 +10834,7 @@
       <c r="S6" s="27"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="158"/>
+      <c r="A7" s="150"/>
       <c r="B7" s="31" t="s">
         <v>243</v>
       </c>
@@ -10911,7 +10923,7 @@
       <c r="S9" s="27"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="150" t="s">
+      <c r="A10" s="161" t="s">
         <v>248</v>
       </c>
       <c r="B10" s="30" t="s">
@@ -10939,7 +10951,7 @@
       <c r="S10" s="27"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="152"/>
+      <c r="A11" s="163"/>
       <c r="B11" s="31" t="s">
         <v>32</v>
       </c>
@@ -10969,7 +10981,7 @@
       <c r="S11" s="27"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="150" t="s">
+      <c r="A12" s="161" t="s">
         <v>250</v>
       </c>
       <c r="B12" s="30" t="s">
@@ -10999,7 +11011,7 @@
       <c r="S12" s="27"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="151"/>
+      <c r="A13" s="162"/>
       <c r="B13" s="31" t="s">
         <v>183</v>
       </c>
@@ -11025,7 +11037,7 @@
       <c r="S13" s="27"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="152"/>
+      <c r="A14" s="163"/>
       <c r="B14" s="31" t="s">
         <v>90</v>
       </c>
@@ -11107,7 +11119,7 @@
       <c r="S16" s="27"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="150" t="s">
+      <c r="A17" s="161" t="s">
         <v>255</v>
       </c>
       <c r="B17" s="30" t="s">
@@ -11135,7 +11147,7 @@
       <c r="S17" s="27"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="151"/>
+      <c r="A18" s="162"/>
       <c r="B18" s="31" t="s">
         <v>249</v>
       </c>
@@ -11161,7 +11173,7 @@
       <c r="S18" s="27"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="152"/>
+      <c r="A19" s="163"/>
       <c r="B19" s="31" t="s">
         <v>14</v>
       </c>
@@ -11187,7 +11199,7 @@
       <c r="S19" s="27"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="161" t="s">
+      <c r="A20" s="153" t="s">
         <v>263</v>
       </c>
       <c r="B20" s="30" t="s">
@@ -11215,7 +11227,7 @@
       <c r="S20" s="27"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="162"/>
+      <c r="A21" s="154"/>
       <c r="B21" s="30" t="s">
         <v>215</v>
       </c>
@@ -11240,7 +11252,7 @@
       <c r="S21" s="27"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="162"/>
+      <c r="A22" s="154"/>
       <c r="B22" s="30" t="s">
         <v>264</v>
       </c>
@@ -11266,7 +11278,7 @@
       <c r="S22" s="27"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="163"/>
+      <c r="A23" s="155"/>
       <c r="B23" s="30" t="s">
         <v>265</v>
       </c>
@@ -11365,10 +11377,10 @@
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="39"/>
-      <c r="F27" s="148" t="s">
+      <c r="F27" s="159" t="s">
         <v>232</v>
       </c>
-      <c r="G27" s="148"/>
+      <c r="G27" s="159"/>
       <c r="H27" s="45"/>
       <c r="K27" s="57" t="s">
         <v>280</v>
@@ -11380,7 +11392,7 @@
       <c r="C28" s="12"/>
       <c r="D28" s="32"/>
       <c r="E28" s="39"/>
-      <c r="F28" s="159" t="s">
+      <c r="F28" s="151" t="s">
         <v>233</v>
       </c>
       <c r="G28" s="41" t="s">
@@ -11414,7 +11426,7 @@
       <c r="C29" s="12"/>
       <c r="D29" s="32"/>
       <c r="E29" s="27"/>
-      <c r="F29" s="160"/>
+      <c r="F29" s="152"/>
       <c r="G29" s="40" t="s">
         <v>235</v>
       </c>
@@ -11764,10 +11776,10 @@
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C49" s="58"/>
       <c r="G49" s="59"/>
-      <c r="H49" s="145">
+      <c r="H49" s="156">
         <v>325000</v>
       </c>
-      <c r="I49" s="146"/>
+      <c r="I49" s="157"/>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E53" s="4" t="s">
@@ -11776,12 +11788,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="F27:G27"/>
@@ -11789,6 +11795,12 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A17:A19"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A20:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -13228,6 +13240,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="L1:M1"/>
@@ -13240,18 +13264,6 @@
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -14711,8 +14723,8 @@
   </sheetPr>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14720,7 +14732,7 @@
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
@@ -15090,8 +15102,11 @@
       <c r="J12" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="K12" s="99">
+      <c r="K12" s="104">
         <v>71500</v>
+      </c>
+      <c r="L12" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -15119,7 +15134,9 @@
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="7"/>
+      <c r="K13" s="99" t="s">
+        <v>801</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">

--- a/1 MONTH CREDIT.xlsx
+++ b/1 MONTH CREDIT.xlsx
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">' July.2018'!$B$1:$F$67</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'August-2018'!$A$1:$F$69</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Sept;2018'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Sept;2018'!$A$1:$F$72</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -270,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="809">
   <si>
     <t>Date</t>
   </si>
@@ -2677,6 +2677,27 @@
   </si>
   <si>
     <t>Nil</t>
+  </si>
+  <si>
+    <t>11.9.2018</t>
+  </si>
+  <si>
+    <t>3D-7309/Mark2</t>
+  </si>
+  <si>
+    <t>12.9.2018</t>
+  </si>
+  <si>
+    <t>4M-9322/Porter2</t>
+  </si>
+  <si>
+    <t>13.9.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3B-2464/Canter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2L/4623/Canter </t>
   </si>
 </sst>
 </file>
@@ -4448,8 +4469,8 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G69" sqref="G69"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5951,7 +5972,7 @@
   <dimension ref="A1:K113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
@@ -7459,8 +7480,8 @@
   <dimension ref="A1:K116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7784,21 +7805,39 @@
       <c r="A17" s="101">
         <v>16</v>
       </c>
-      <c r="B17" s="101"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="122"/>
+      <c r="B17" s="101" t="s">
+        <v>802</v>
+      </c>
+      <c r="C17" s="122" t="s">
+        <v>803</v>
+      </c>
+      <c r="D17" s="122" t="s">
+        <v>595</v>
+      </c>
+      <c r="E17" s="122">
+        <v>481500</v>
+      </c>
+      <c r="F17" s="122" t="s">
+        <v>668</v>
+      </c>
       <c r="G17" s="137"/>
     </row>
     <row r="18" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="101">
         <v>17</v>
       </c>
-      <c r="B18" s="101"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
+      <c r="B18" s="101" t="s">
+        <v>804</v>
+      </c>
+      <c r="C18" s="101" t="s">
+        <v>798</v>
+      </c>
+      <c r="D18" s="101" t="s">
+        <v>768</v>
+      </c>
+      <c r="E18" s="101">
+        <v>11000</v>
+      </c>
       <c r="F18" s="122"/>
       <c r="I18" s="121"/>
     </row>
@@ -7806,50 +7845,90 @@
       <c r="A19" s="101">
         <v>18</v>
       </c>
-      <c r="B19" s="101"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
+      <c r="B19" s="101" t="s">
+        <v>804</v>
+      </c>
+      <c r="C19" s="101" t="s">
+        <v>805</v>
+      </c>
+      <c r="D19" s="101" t="s">
+        <v>595</v>
+      </c>
+      <c r="E19" s="101">
+        <v>230000</v>
+      </c>
       <c r="F19" s="122"/>
     </row>
     <row r="20" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="101">
         <v>19</v>
       </c>
-      <c r="B20" s="101"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
+      <c r="B20" s="101" t="s">
+        <v>806</v>
+      </c>
+      <c r="C20" s="101" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="101" t="s">
+        <v>706</v>
+      </c>
+      <c r="E20" s="101">
+        <v>43000</v>
+      </c>
       <c r="F20" s="122"/>
     </row>
     <row r="21" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="101">
         <v>20</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
+      <c r="B21" s="101" t="s">
+        <v>806</v>
+      </c>
+      <c r="C21" s="101" t="s">
+        <v>807</v>
+      </c>
+      <c r="D21" s="101" t="s">
+        <v>575</v>
+      </c>
+      <c r="E21" s="101">
+        <v>53000</v>
+      </c>
       <c r="F21" s="122"/>
     </row>
     <row r="22" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="101">
         <v>21</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
+      <c r="B22" s="101" t="s">
+        <v>806</v>
+      </c>
+      <c r="C22" s="101" t="s">
+        <v>808</v>
+      </c>
+      <c r="D22" s="101" t="s">
+        <v>590</v>
+      </c>
+      <c r="E22" s="101">
+        <v>5000</v>
+      </c>
       <c r="F22" s="122"/>
     </row>
     <row r="23" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="101">
         <v>22</v>
       </c>
-      <c r="B23" s="101"/>
-      <c r="C23" s="138"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
+      <c r="B23" s="101" t="s">
+        <v>806</v>
+      </c>
+      <c r="C23" s="138" t="s">
+        <v>782</v>
+      </c>
+      <c r="D23" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="101">
+        <v>85000</v>
+      </c>
       <c r="F23" s="122"/>
     </row>
     <row r="24" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -8346,6 +8425,10 @@
       <c r="F72" s="122"/>
     </row>
     <row r="73" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E73" s="120">
+        <f>SUBTOTAL(9,E2:E72)</f>
+        <v>2237700</v>
+      </c>
       <c r="F73" s="120"/>
     </row>
     <row r="74" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -8478,7 +8561,7 @@
       <c r="F116" s="120"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
+  <autoFilter ref="A1:F72"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="11" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -13278,7 +13361,7 @@
   </sheetPr>
   <dimension ref="A1:U67"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
@@ -14724,7 +14807,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/1 MONTH CREDIT.xlsx
+++ b/1 MONTH CREDIT.xlsx
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">' July.2018'!$B$1:$F$67</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'August-2018'!$A$1:$F$69</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Sept;2018'!$A$1:$F$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Sept;2018'!$A$1:$F$73</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -270,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="826">
   <si>
     <t>Date</t>
   </si>
@@ -2698,6 +2698,57 @@
   </si>
   <si>
     <t xml:space="preserve">2L/4623/Canter </t>
+  </si>
+  <si>
+    <t>15.9.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8K-9716/Canter </t>
+  </si>
+  <si>
+    <t>16.9.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2H-7969/Fielder </t>
+  </si>
+  <si>
+    <t>5P-3077/Suzuki</t>
+  </si>
+  <si>
+    <t>17.9.2018</t>
+  </si>
+  <si>
+    <t>8I-5529/Hiace</t>
+  </si>
+  <si>
+    <t>6F-7959/Fit</t>
+  </si>
+  <si>
+    <t>Samparoo Co.,</t>
+  </si>
+  <si>
+    <t>Paid 16.9.2018</t>
+  </si>
+  <si>
+    <t>18.9.2018</t>
+  </si>
+  <si>
+    <t>19.9.2018</t>
+  </si>
+  <si>
+    <t>5K-4338/Forton</t>
+  </si>
+  <si>
+    <t>4K-4637/Alphard</t>
+  </si>
+  <si>
+    <t>3F-5092/Canter</t>
+  </si>
+  <si>
+    <t>Paid 20.9.2018</t>
+  </si>
+  <si>
+    <t>Balance -435000</t>
   </si>
 </sst>
 </file>
@@ -3603,6 +3654,30 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3634,30 +3709,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7477,22 +7528,22 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K116"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="120" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="120" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="120" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" style="120" customWidth="1"/>
     <col min="4" max="4" width="20" style="120" customWidth="1"/>
     <col min="5" max="5" width="16.140625" style="120" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" style="126" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="120" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="120" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="120"/>
   </cols>
   <sheetData>
@@ -7929,137 +7980,252 @@
       <c r="E23" s="101">
         <v>85000</v>
       </c>
-      <c r="F23" s="122"/>
+      <c r="F23" s="122" t="s">
+        <v>824</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="101">
         <v>23</v>
       </c>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
+      <c r="B24" s="101" t="s">
+        <v>809</v>
+      </c>
+      <c r="C24" s="101" t="s">
+        <v>810</v>
+      </c>
+      <c r="D24" s="101" t="s">
+        <v>793</v>
+      </c>
+      <c r="E24" s="101">
+        <v>5000</v>
+      </c>
       <c r="F24" s="122"/>
     </row>
     <row r="25" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="101">
         <v>24</v>
       </c>
-      <c r="B25" s="101"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="122"/>
+      <c r="B25" s="101" t="s">
+        <v>809</v>
+      </c>
+      <c r="C25" s="101" t="s">
+        <v>675</v>
+      </c>
+      <c r="D25" s="101" t="s">
+        <v>505</v>
+      </c>
+      <c r="E25" s="101">
+        <v>50000</v>
+      </c>
+      <c r="F25" s="122" t="s">
+        <v>818</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="101">
         <v>25</v>
       </c>
-      <c r="B26" s="101"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
+      <c r="B26" s="101" t="s">
+        <v>811</v>
+      </c>
+      <c r="C26" s="101" t="s">
+        <v>812</v>
+      </c>
+      <c r="D26" s="101" t="s">
+        <v>768</v>
+      </c>
+      <c r="E26" s="101">
+        <v>32500</v>
+      </c>
       <c r="F26" s="122"/>
     </row>
     <row r="27" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="101">
         <v>26</v>
       </c>
-      <c r="B27" s="101"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
+      <c r="B27" s="101" t="s">
+        <v>811</v>
+      </c>
+      <c r="C27" s="101" t="s">
+        <v>812</v>
+      </c>
+      <c r="D27" s="101" t="s">
+        <v>766</v>
+      </c>
+      <c r="E27" s="101">
+        <v>35000</v>
+      </c>
       <c r="F27" s="122"/>
     </row>
     <row r="28" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="101">
         <v>27</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="122"/>
+      <c r="B28" s="101" t="s">
+        <v>811</v>
+      </c>
+      <c r="C28" s="101" t="s">
+        <v>813</v>
+      </c>
+      <c r="D28" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="101">
+        <v>121000</v>
+      </c>
+      <c r="F28" s="122" t="s">
+        <v>824</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="101">
         <v>28</v>
       </c>
-      <c r="B29" s="101"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
+      <c r="B29" s="101" t="s">
+        <v>811</v>
+      </c>
+      <c r="C29" s="101" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="101" t="s">
+        <v>706</v>
+      </c>
+      <c r="E29" s="101">
+        <v>37000</v>
+      </c>
       <c r="F29" s="122"/>
     </row>
     <row r="30" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="101">
         <v>29</v>
       </c>
-      <c r="B30" s="101"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="126"/>
+      <c r="B30" s="101" t="s">
+        <v>814</v>
+      </c>
+      <c r="C30" s="101" t="s">
+        <v>815</v>
+      </c>
+      <c r="D30" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="101">
+        <v>611000</v>
+      </c>
+      <c r="F30" s="122" t="s">
+        <v>824</v>
+      </c>
+      <c r="G30" s="126" t="s">
+        <v>825</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="101">
         <v>30</v>
       </c>
-      <c r="B31" s="101"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
+      <c r="B31" s="101" t="s">
+        <v>814</v>
+      </c>
+      <c r="C31" s="101" t="s">
+        <v>816</v>
+      </c>
+      <c r="D31" s="101" t="s">
+        <v>817</v>
+      </c>
+      <c r="E31" s="101">
+        <v>3000</v>
+      </c>
       <c r="F31" s="122"/>
+      <c r="G31" s="126"/>
     </row>
     <row r="32" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="101">
         <v>31</v>
       </c>
-      <c r="B32" s="101"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
+      <c r="B32" s="101" t="s">
+        <v>814</v>
+      </c>
+      <c r="C32" s="101" t="s">
+        <v>812</v>
+      </c>
+      <c r="D32" s="101" t="s">
+        <v>768</v>
+      </c>
+      <c r="E32" s="101">
+        <v>39500</v>
+      </c>
       <c r="F32" s="122"/>
     </row>
     <row r="33" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="101">
         <v>32</v>
       </c>
-      <c r="B33" s="101"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
+      <c r="B33" s="101" t="s">
+        <v>819</v>
+      </c>
+      <c r="C33" s="101" t="s">
+        <v>785</v>
+      </c>
+      <c r="D33" s="101" t="s">
+        <v>768</v>
+      </c>
+      <c r="E33" s="101">
+        <v>328500</v>
+      </c>
       <c r="F33" s="122"/>
     </row>
     <row r="34" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="101">
         <v>33</v>
       </c>
-      <c r="B34" s="101"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
+      <c r="B34" s="101" t="s">
+        <v>820</v>
+      </c>
+      <c r="C34" s="101" t="s">
+        <v>821</v>
+      </c>
+      <c r="D34" s="101" t="s">
+        <v>505</v>
+      </c>
+      <c r="E34" s="101">
+        <v>36000</v>
+      </c>
       <c r="F34" s="122"/>
     </row>
     <row r="35" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="101">
         <v>34</v>
       </c>
-      <c r="B35" s="101"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
+      <c r="B35" s="101" t="s">
+        <v>820</v>
+      </c>
+      <c r="C35" s="101" t="s">
+        <v>822</v>
+      </c>
+      <c r="D35" s="101" t="s">
+        <v>768</v>
+      </c>
+      <c r="E35" s="101">
+        <v>150000</v>
+      </c>
       <c r="F35" s="122"/>
     </row>
     <row r="36" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="101">
         <v>35</v>
       </c>
-      <c r="B36" s="101"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101"/>
+      <c r="B36" s="101" t="s">
+        <v>820</v>
+      </c>
+      <c r="C36" s="101" t="s">
+        <v>823</v>
+      </c>
+      <c r="D36" s="101" t="s">
+        <v>575</v>
+      </c>
+      <c r="E36" s="101">
+        <v>260000</v>
+      </c>
       <c r="F36" s="122"/>
     </row>
     <row r="37" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -8081,8 +8247,6 @@
       <c r="D38" s="101"/>
       <c r="E38" s="101"/>
       <c r="F38" s="122"/>
-      <c r="G38" s="121"/>
-      <c r="K38" s="121"/>
     </row>
     <row r="39" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="101">
@@ -8093,6 +8257,8 @@
       <c r="D39" s="101"/>
       <c r="E39" s="101"/>
       <c r="F39" s="122"/>
+      <c r="G39" s="121"/>
+      <c r="K39" s="121"/>
     </row>
     <row r="40" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="101">
@@ -8425,13 +8591,20 @@
       <c r="F72" s="122"/>
     </row>
     <row r="73" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E73" s="120">
-        <f>SUBTOTAL(9,E2:E72)</f>
-        <v>2237700</v>
-      </c>
-      <c r="F73" s="120"/>
+      <c r="A73" s="101">
+        <v>72</v>
+      </c>
+      <c r="B73" s="101"/>
+      <c r="C73" s="101"/>
+      <c r="D73" s="101"/>
+      <c r="E73" s="101"/>
+      <c r="F73" s="122"/>
     </row>
     <row r="74" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E74" s="120">
+        <f>SUBTOTAL(9,E2:E73)</f>
+        <v>3946200</v>
+      </c>
       <c r="F74" s="120"/>
     </row>
     <row r="75" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -8560,8 +8733,11 @@
     <row r="116" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F116" s="120"/>
     </row>
+    <row r="117" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F117" s="120"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F72"/>
+  <autoFilter ref="A1:F73"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="11" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -10812,34 +10988,34 @@
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
-      <c r="I3" s="158" t="s">
+      <c r="I3" s="147" t="s">
         <v>231</v>
       </c>
-      <c r="J3" s="158"/>
+      <c r="J3" s="147"/>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="154" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="146"/>
+      <c r="B4" s="154"/>
       <c r="C4" s="47"/>
       <c r="D4" s="29"/>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="155" t="s">
         <v>230</v>
       </c>
-      <c r="F4" s="147"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="M4" s="145"/>
-      <c r="N4" s="145"/>
-      <c r="O4" s="145"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="153"/>
+      <c r="O4" s="153"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="156" t="s">
         <v>240</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -10883,7 +11059,7 @@
       <c r="S5" s="29"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="149"/>
+      <c r="A6" s="157"/>
       <c r="B6" s="30" t="s">
         <v>242</v>
       </c>
@@ -10917,7 +11093,7 @@
       <c r="S6" s="27"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="150"/>
+      <c r="A7" s="158"/>
       <c r="B7" s="31" t="s">
         <v>243</v>
       </c>
@@ -11006,7 +11182,7 @@
       <c r="S9" s="27"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="161" t="s">
+      <c r="A10" s="150" t="s">
         <v>248</v>
       </c>
       <c r="B10" s="30" t="s">
@@ -11034,7 +11210,7 @@
       <c r="S10" s="27"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="163"/>
+      <c r="A11" s="152"/>
       <c r="B11" s="31" t="s">
         <v>32</v>
       </c>
@@ -11064,7 +11240,7 @@
       <c r="S11" s="27"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="161" t="s">
+      <c r="A12" s="150" t="s">
         <v>250</v>
       </c>
       <c r="B12" s="30" t="s">
@@ -11094,7 +11270,7 @@
       <c r="S12" s="27"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="162"/>
+      <c r="A13" s="151"/>
       <c r="B13" s="31" t="s">
         <v>183</v>
       </c>
@@ -11120,7 +11296,7 @@
       <c r="S13" s="27"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="163"/>
+      <c r="A14" s="152"/>
       <c r="B14" s="31" t="s">
         <v>90</v>
       </c>
@@ -11202,7 +11378,7 @@
       <c r="S16" s="27"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="161" t="s">
+      <c r="A17" s="150" t="s">
         <v>255</v>
       </c>
       <c r="B17" s="30" t="s">
@@ -11230,7 +11406,7 @@
       <c r="S17" s="27"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="162"/>
+      <c r="A18" s="151"/>
       <c r="B18" s="31" t="s">
         <v>249</v>
       </c>
@@ -11256,7 +11432,7 @@
       <c r="S18" s="27"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="163"/>
+      <c r="A19" s="152"/>
       <c r="B19" s="31" t="s">
         <v>14</v>
       </c>
@@ -11282,7 +11458,7 @@
       <c r="S19" s="27"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="153" t="s">
+      <c r="A20" s="161" t="s">
         <v>263</v>
       </c>
       <c r="B20" s="30" t="s">
@@ -11310,7 +11486,7 @@
       <c r="S20" s="27"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="154"/>
+      <c r="A21" s="162"/>
       <c r="B21" s="30" t="s">
         <v>215</v>
       </c>
@@ -11335,7 +11511,7 @@
       <c r="S21" s="27"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="154"/>
+      <c r="A22" s="162"/>
       <c r="B22" s="30" t="s">
         <v>264</v>
       </c>
@@ -11361,7 +11537,7 @@
       <c r="S22" s="27"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="155"/>
+      <c r="A23" s="163"/>
       <c r="B23" s="30" t="s">
         <v>265</v>
       </c>
@@ -11460,10 +11636,10 @@
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="39"/>
-      <c r="F27" s="159" t="s">
+      <c r="F27" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="G27" s="159"/>
+      <c r="G27" s="148"/>
       <c r="H27" s="45"/>
       <c r="K27" s="57" t="s">
         <v>280</v>
@@ -11475,7 +11651,7 @@
       <c r="C28" s="12"/>
       <c r="D28" s="32"/>
       <c r="E28" s="39"/>
-      <c r="F28" s="151" t="s">
+      <c r="F28" s="159" t="s">
         <v>233</v>
       </c>
       <c r="G28" s="41" t="s">
@@ -11509,7 +11685,7 @@
       <c r="C29" s="12"/>
       <c r="D29" s="32"/>
       <c r="E29" s="27"/>
-      <c r="F29" s="152"/>
+      <c r="F29" s="160"/>
       <c r="G29" s="40" t="s">
         <v>235</v>
       </c>
@@ -11859,10 +12035,10 @@
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C49" s="58"/>
       <c r="G49" s="59"/>
-      <c r="H49" s="156">
+      <c r="H49" s="145">
         <v>325000</v>
       </c>
-      <c r="I49" s="157"/>
+      <c r="I49" s="146"/>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E53" s="4" t="s">
@@ -11871,6 +12047,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="F27:G27"/>
@@ -11878,12 +12060,6 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A20:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -13323,6 +13499,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A48:B48"/>
@@ -13335,18 +13523,6 @@
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/1 MONTH CREDIT.xlsx
+++ b/1 MONTH CREDIT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="930" windowWidth="18195" windowHeight="10965" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="480" yWindow="990" windowWidth="18195" windowHeight="10905" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Oct;2017" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">' July.2018'!$B$1:$F$67</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'August-2018'!$A$1:$F$69</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Sept;2018'!$A$1:$F$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Sept;2018'!$A$1:$F$74</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -270,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="841">
   <si>
     <t>Date</t>
   </si>
@@ -2749,6 +2749,51 @@
   </si>
   <si>
     <t>Balance -435000</t>
+  </si>
+  <si>
+    <t>Paid 18.9.2018</t>
+  </si>
+  <si>
+    <t>20.9.2018</t>
+  </si>
+  <si>
+    <t>21.9.2018</t>
+  </si>
+  <si>
+    <t>22.9.2018</t>
+  </si>
+  <si>
+    <t>1F-6195/AD Van</t>
+  </si>
+  <si>
+    <t>1F-6195/AD Van(Ko Zin Ko)</t>
+  </si>
+  <si>
+    <t>23.9.2018</t>
+  </si>
+  <si>
+    <t>9G-1670/Canter</t>
+  </si>
+  <si>
+    <t>9K-7343/-(Ko Zin Ko)</t>
+  </si>
+  <si>
+    <t>24.9.2018</t>
+  </si>
+  <si>
+    <t>9K-1620/Hiace(KZK-5000)</t>
+  </si>
+  <si>
+    <t>1Q-5416/Canter(KZK-165000)</t>
+  </si>
+  <si>
+    <t>Paid 24.9.2018</t>
+  </si>
+  <si>
+    <t>Paid 25.9.2018</t>
+  </si>
+  <si>
+    <t>2H-7969/Fielder (Ko Zin Ko)</t>
   </si>
 </sst>
 </file>
@@ -3402,7 +3447,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3654,30 +3699,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3709,6 +3730,30 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3748,6 +3793,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4520,8 +4571,8 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I76" sqref="I76"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5658,10 +5709,7 @@
       <c r="B57" s="101"/>
       <c r="C57" s="101"/>
       <c r="D57" s="101"/>
-      <c r="E57" s="101">
-        <f>SUBTOTAL(9,E11:E56)</f>
-        <v>4603000</v>
-      </c>
+      <c r="E57" s="101"/>
       <c r="F57" s="122"/>
     </row>
     <row r="58" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6023,8 +6071,8 @@
   <dimension ref="A1:K113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7375,7 +7423,7 @@
       <c r="D69" s="101" t="s">
         <v>768</v>
       </c>
-      <c r="E69" s="101">
+      <c r="E69" s="177">
         <v>65000</v>
       </c>
       <c r="F69" s="122"/>
@@ -7525,21 +7573,21 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K117"/>
+  <dimension ref="A1:K118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G75" sqref="G75"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="120" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="120" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" style="120" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" style="120" customWidth="1"/>
     <col min="4" max="4" width="20" style="120" customWidth="1"/>
     <col min="5" max="5" width="16.140625" style="120" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" style="126" customWidth="1"/>
@@ -7567,7 +7615,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="101">
         <v>1</v>
       </c>
@@ -7585,7 +7633,7 @@
       </c>
       <c r="F2" s="122"/>
     </row>
-    <row r="3" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="101">
         <v>2</v>
       </c>
@@ -7603,7 +7651,7 @@
       </c>
       <c r="F3" s="122"/>
     </row>
-    <row r="4" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="101">
         <v>3</v>
       </c>
@@ -7622,7 +7670,7 @@
       <c r="F4" s="122"/>
       <c r="I4" s="121"/>
     </row>
-    <row r="5" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="101">
         <v>4</v>
       </c>
@@ -7641,7 +7689,7 @@
       <c r="F5" s="122"/>
       <c r="G5" s="126"/>
     </row>
-    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="101">
         <v>5</v>
       </c>
@@ -7659,7 +7707,7 @@
       </c>
       <c r="F6" s="122"/>
     </row>
-    <row r="7" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="101">
         <v>6</v>
       </c>
@@ -7681,7 +7729,7 @@
       <c r="I7" s="121"/>
       <c r="J7" s="121"/>
     </row>
-    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="101">
         <v>7</v>
       </c>
@@ -7701,7 +7749,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="101">
         <v>8</v>
       </c>
@@ -7734,12 +7782,12 @@
       <c r="D10" s="123" t="s">
         <v>768</v>
       </c>
-      <c r="E10" s="123">
+      <c r="E10" s="178">
         <v>33000</v>
       </c>
       <c r="F10" s="122"/>
     </row>
-    <row r="11" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="101">
         <v>10</v>
       </c>
@@ -7759,7 +7807,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="101">
         <v>11</v>
       </c>
@@ -7777,7 +7825,7 @@
       </c>
       <c r="F12" s="122"/>
     </row>
-    <row r="13" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="101">
         <v>12</v>
       </c>
@@ -7798,7 +7846,7 @@
       <c r="I13" s="121"/>
       <c r="J13" s="121"/>
     </row>
-    <row r="14" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="101">
         <v>13</v>
       </c>
@@ -7829,7 +7877,7 @@
       <c r="D15" s="101" t="s">
         <v>768</v>
       </c>
-      <c r="E15" s="101">
+      <c r="E15" s="177">
         <v>143000</v>
       </c>
       <c r="F15" s="122"/>
@@ -7842,17 +7890,17 @@
         <v>796</v>
       </c>
       <c r="C16" s="101" t="s">
-        <v>798</v>
+        <v>55</v>
       </c>
       <c r="D16" s="101" t="s">
         <v>768</v>
       </c>
-      <c r="E16" s="101">
+      <c r="E16" s="177">
         <v>101000</v>
       </c>
       <c r="F16" s="122"/>
     </row>
-    <row r="17" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="101">
         <v>16</v>
       </c>
@@ -7886,13 +7934,13 @@
       <c r="D18" s="101" t="s">
         <v>768</v>
       </c>
-      <c r="E18" s="101">
+      <c r="E18" s="177">
         <v>11000</v>
       </c>
       <c r="F18" s="122"/>
       <c r="I18" s="121"/>
     </row>
-    <row r="19" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="101">
         <v>18</v>
       </c>
@@ -7910,7 +7958,7 @@
       </c>
       <c r="F19" s="122"/>
     </row>
-    <row r="20" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="101">
         <v>19</v>
       </c>
@@ -7928,7 +7976,7 @@
       </c>
       <c r="F20" s="122"/>
     </row>
-    <row r="21" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="101">
         <v>20</v>
       </c>
@@ -7946,7 +7994,7 @@
       </c>
       <c r="F21" s="122"/>
     </row>
-    <row r="22" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="101">
         <v>21</v>
       </c>
@@ -7962,9 +8010,11 @@
       <c r="E22" s="101">
         <v>5000</v>
       </c>
-      <c r="F22" s="122"/>
-    </row>
-    <row r="23" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="122" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="101">
         <v>22</v>
       </c>
@@ -7984,7 +8034,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="101">
         <v>23</v>
       </c>
@@ -8002,7 +8052,7 @@
       </c>
       <c r="F24" s="122"/>
     </row>
-    <row r="25" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="101">
         <v>24</v>
       </c>
@@ -8035,7 +8085,7 @@
       <c r="D26" s="101" t="s">
         <v>768</v>
       </c>
-      <c r="E26" s="101">
+      <c r="E26" s="177">
         <v>32500</v>
       </c>
       <c r="F26" s="122"/>
@@ -8048,17 +8098,17 @@
         <v>811</v>
       </c>
       <c r="C27" s="101" t="s">
-        <v>812</v>
+        <v>840</v>
       </c>
       <c r="D27" s="101" t="s">
-        <v>766</v>
-      </c>
-      <c r="E27" s="101">
+        <v>768</v>
+      </c>
+      <c r="E27" s="177">
         <v>35000</v>
       </c>
       <c r="F27" s="122"/>
     </row>
-    <row r="28" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="101">
         <v>27</v>
       </c>
@@ -8078,7 +8128,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="101">
         <v>28</v>
       </c>
@@ -8089,14 +8139,16 @@
         <v>131</v>
       </c>
       <c r="D29" s="101" t="s">
-        <v>706</v>
+        <v>766</v>
       </c>
       <c r="E29" s="101">
         <v>37000</v>
       </c>
-      <c r="F29" s="122"/>
-    </row>
-    <row r="30" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="122" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="101">
         <v>29</v>
       </c>
@@ -8119,7 +8171,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="101">
         <v>30</v>
       </c>
@@ -8151,7 +8203,7 @@
       <c r="D32" s="101" t="s">
         <v>768</v>
       </c>
-      <c r="E32" s="101">
+      <c r="E32" s="177">
         <v>39500</v>
       </c>
       <c r="F32" s="122"/>
@@ -8169,12 +8221,12 @@
       <c r="D33" s="101" t="s">
         <v>768</v>
       </c>
-      <c r="E33" s="101">
+      <c r="E33" s="177">
         <v>328500</v>
       </c>
       <c r="F33" s="122"/>
     </row>
-    <row r="34" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="101">
         <v>33</v>
       </c>
@@ -8210,7 +8262,7 @@
       </c>
       <c r="F35" s="122"/>
     </row>
-    <row r="36" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="101">
         <v>35</v>
       </c>
@@ -8232,105 +8284,187 @@
       <c r="A37" s="101">
         <v>36</v>
       </c>
-      <c r="B37" s="101"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="101"/>
+      <c r="B37" s="101" t="s">
+        <v>827</v>
+      </c>
+      <c r="C37" s="101" t="s">
+        <v>797</v>
+      </c>
+      <c r="D37" s="101" t="s">
+        <v>768</v>
+      </c>
+      <c r="E37" s="177">
+        <v>50500</v>
+      </c>
       <c r="F37" s="122"/>
     </row>
     <row r="38" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="101">
         <v>37</v>
       </c>
-      <c r="B38" s="101"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="101"/>
-      <c r="E38" s="101"/>
+      <c r="B38" s="101" t="s">
+        <v>827</v>
+      </c>
+      <c r="C38" s="101" t="s">
+        <v>785</v>
+      </c>
+      <c r="D38" s="101" t="s">
+        <v>768</v>
+      </c>
+      <c r="E38" s="177">
+        <v>6000</v>
+      </c>
       <c r="F38" s="122"/>
     </row>
-    <row r="39" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="101">
         <v>38</v>
       </c>
-      <c r="B39" s="101"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="122"/>
-      <c r="G39" s="121"/>
-      <c r="K39" s="121"/>
-    </row>
-    <row r="40" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="101" t="s">
+        <v>827</v>
+      </c>
+      <c r="C39" s="101" t="s">
+        <v>834</v>
+      </c>
+      <c r="D39" s="101" t="s">
+        <v>505</v>
+      </c>
+      <c r="E39" s="101">
+        <v>26000</v>
+      </c>
+      <c r="F39" s="122" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="101">
         <v>39</v>
       </c>
-      <c r="B40" s="101"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
+      <c r="B40" s="101" t="s">
+        <v>828</v>
+      </c>
+      <c r="C40" s="101" t="s">
+        <v>553</v>
+      </c>
+      <c r="D40" s="101" t="s">
+        <v>575</v>
+      </c>
+      <c r="E40" s="101">
+        <v>4000</v>
+      </c>
       <c r="F40" s="122"/>
-    </row>
-    <row r="41" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="121"/>
+      <c r="K40" s="121"/>
+    </row>
+    <row r="41" spans="1:11" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="101">
         <v>40</v>
       </c>
-      <c r="B41" s="101"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
+      <c r="B41" s="101" t="s">
+        <v>829</v>
+      </c>
+      <c r="C41" s="101" t="s">
+        <v>831</v>
+      </c>
+      <c r="D41" s="101" t="s">
+        <v>575</v>
+      </c>
+      <c r="E41" s="101">
+        <v>6500</v>
+      </c>
       <c r="F41" s="122"/>
     </row>
-    <row r="42" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="101">
         <v>41</v>
       </c>
-      <c r="B42" s="101"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
+      <c r="B42" s="101" t="s">
+        <v>829</v>
+      </c>
+      <c r="C42" s="101" t="s">
+        <v>830</v>
+      </c>
+      <c r="D42" s="101" t="s">
+        <v>575</v>
+      </c>
+      <c r="E42" s="101">
+        <v>44000</v>
+      </c>
       <c r="F42" s="122"/>
     </row>
-    <row r="43" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="101">
         <v>42</v>
       </c>
-      <c r="B43" s="101"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="101"/>
-      <c r="E43" s="101"/>
+      <c r="B43" s="101" t="s">
+        <v>832</v>
+      </c>
+      <c r="C43" s="101" t="s">
+        <v>782</v>
+      </c>
+      <c r="D43" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" s="101">
+        <v>10000</v>
+      </c>
       <c r="F43" s="122"/>
     </row>
     <row r="44" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="101">
         <v>43</v>
       </c>
-      <c r="B44" s="101"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="101"/>
+      <c r="B44" s="101" t="s">
+        <v>832</v>
+      </c>
+      <c r="C44" s="101" t="s">
+        <v>837</v>
+      </c>
+      <c r="D44" s="101" t="s">
+        <v>768</v>
+      </c>
+      <c r="E44" s="101">
+        <v>245000</v>
+      </c>
       <c r="F44" s="122"/>
     </row>
     <row r="45" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="101">
         <v>44</v>
       </c>
-      <c r="B45" s="101"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="101"/>
-      <c r="E45" s="101"/>
+      <c r="B45" s="101" t="s">
+        <v>832</v>
+      </c>
+      <c r="C45" s="101" t="s">
+        <v>833</v>
+      </c>
+      <c r="D45" s="101" t="s">
+        <v>768</v>
+      </c>
+      <c r="E45" s="101">
+        <v>10000</v>
+      </c>
       <c r="F45" s="122"/>
     </row>
     <row r="46" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="101">
         <v>45</v>
       </c>
-      <c r="B46" s="101"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="101"/>
+      <c r="B46" s="101" t="s">
+        <v>835</v>
+      </c>
+      <c r="C46" s="101" t="s">
+        <v>836</v>
+      </c>
+      <c r="D46" s="101" t="s">
+        <v>768</v>
+      </c>
+      <c r="E46" s="101">
+        <v>270000</v>
+      </c>
       <c r="F46" s="122"/>
     </row>
-    <row r="47" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="101">
         <v>46</v>
       </c>
@@ -8340,7 +8474,7 @@
       <c r="E47" s="101"/>
       <c r="F47" s="122"/>
     </row>
-    <row r="48" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="101">
         <v>47</v>
       </c>
@@ -8350,7 +8484,7 @@
       <c r="E48" s="101"/>
       <c r="F48" s="122"/>
     </row>
-    <row r="49" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="101">
         <v>48</v>
       </c>
@@ -8360,7 +8494,7 @@
       <c r="E49" s="101"/>
       <c r="F49" s="122"/>
     </row>
-    <row r="50" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="101">
         <v>49</v>
       </c>
@@ -8370,7 +8504,7 @@
       <c r="E50" s="101"/>
       <c r="F50" s="122"/>
     </row>
-    <row r="51" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="101">
         <v>50</v>
       </c>
@@ -8380,7 +8514,7 @@
       <c r="E51" s="101"/>
       <c r="F51" s="122"/>
     </row>
-    <row r="52" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="101">
         <v>51</v>
       </c>
@@ -8390,7 +8524,7 @@
       <c r="E52" s="101"/>
       <c r="F52" s="122"/>
     </row>
-    <row r="53" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="101">
         <v>52</v>
       </c>
@@ -8400,7 +8534,7 @@
       <c r="E53" s="101"/>
       <c r="F53" s="122"/>
     </row>
-    <row r="54" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="101">
         <v>53</v>
       </c>
@@ -8410,7 +8544,7 @@
       <c r="E54" s="101"/>
       <c r="F54" s="122"/>
     </row>
-    <row r="55" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="101">
         <v>54</v>
       </c>
@@ -8420,7 +8554,7 @@
       <c r="E55" s="101"/>
       <c r="F55" s="122"/>
     </row>
-    <row r="56" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="101">
         <v>55</v>
       </c>
@@ -8430,7 +8564,7 @@
       <c r="E56" s="101"/>
       <c r="F56" s="122"/>
     </row>
-    <row r="57" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="101">
         <v>56</v>
       </c>
@@ -8440,7 +8574,7 @@
       <c r="E57" s="101"/>
       <c r="F57" s="122"/>
     </row>
-    <row r="58" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="101">
         <v>57</v>
       </c>
@@ -8450,7 +8584,7 @@
       <c r="E58" s="101"/>
       <c r="F58" s="122"/>
     </row>
-    <row r="59" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="101">
         <v>58</v>
       </c>
@@ -8460,7 +8594,7 @@
       <c r="E59" s="101"/>
       <c r="F59" s="122"/>
     </row>
-    <row r="60" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="101">
         <v>59</v>
       </c>
@@ -8470,7 +8604,7 @@
       <c r="E60" s="101"/>
       <c r="F60" s="122"/>
     </row>
-    <row r="61" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="101">
         <v>60</v>
       </c>
@@ -8480,7 +8614,7 @@
       <c r="E61" s="101"/>
       <c r="F61" s="122"/>
     </row>
-    <row r="62" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="101">
         <v>61</v>
       </c>
@@ -8490,7 +8624,7 @@
       <c r="E62" s="101"/>
       <c r="F62" s="122"/>
     </row>
-    <row r="63" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="101">
         <v>62</v>
       </c>
@@ -8500,7 +8634,7 @@
       <c r="E63" s="101"/>
       <c r="F63" s="122"/>
     </row>
-    <row r="64" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="101">
         <v>63</v>
       </c>
@@ -8510,7 +8644,7 @@
       <c r="E64" s="101"/>
       <c r="F64" s="122"/>
     </row>
-    <row r="65" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="101">
         <v>64</v>
       </c>
@@ -8520,7 +8654,7 @@
       <c r="E65" s="101"/>
       <c r="F65" s="122"/>
     </row>
-    <row r="66" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="101">
         <v>65</v>
       </c>
@@ -8530,7 +8664,7 @@
       <c r="E66" s="101"/>
       <c r="F66" s="122"/>
     </row>
-    <row r="67" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="101">
         <v>66</v>
       </c>
@@ -8540,7 +8674,7 @@
       <c r="E67" s="101"/>
       <c r="F67" s="122"/>
     </row>
-    <row r="68" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="101">
         <v>67</v>
       </c>
@@ -8550,7 +8684,7 @@
       <c r="E68" s="101"/>
       <c r="F68" s="122"/>
     </row>
-    <row r="69" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="101">
         <v>68</v>
       </c>
@@ -8560,7 +8694,7 @@
       <c r="E69" s="101"/>
       <c r="F69" s="122"/>
     </row>
-    <row r="70" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="101">
         <v>69</v>
       </c>
@@ -8570,7 +8704,7 @@
       <c r="E70" s="101"/>
       <c r="F70" s="122"/>
     </row>
-    <row r="71" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="101">
         <v>70</v>
       </c>
@@ -8580,7 +8714,7 @@
       <c r="E71" s="101"/>
       <c r="F71" s="122"/>
     </row>
-    <row r="72" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="101">
         <v>71</v>
       </c>
@@ -8590,7 +8724,7 @@
       <c r="E72" s="101"/>
       <c r="F72" s="122"/>
     </row>
-    <row r="73" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="101">
         <v>72</v>
       </c>
@@ -8600,14 +8734,21 @@
       <c r="E73" s="101"/>
       <c r="F73" s="122"/>
     </row>
-    <row r="74" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E74" s="120">
-        <f>SUBTOTAL(9,E2:E73)</f>
-        <v>3946200</v>
-      </c>
-      <c r="F74" s="120"/>
+    <row r="74" spans="1:6" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="101">
+        <v>73</v>
+      </c>
+      <c r="B74" s="101"/>
+      <c r="C74" s="101"/>
+      <c r="D74" s="101"/>
+      <c r="E74" s="101"/>
+      <c r="F74" s="122"/>
     </row>
     <row r="75" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E75" s="120">
+        <f>SUBTOTAL(9,E2:E74)</f>
+        <v>1455000</v>
+      </c>
       <c r="F75" s="120"/>
     </row>
     <row r="76" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -8736,8 +8877,17 @@
     <row r="117" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F117" s="120"/>
     </row>
+    <row r="118" spans="6:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F118" s="120"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F73"/>
+  <autoFilter ref="A1:F74">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Premium W.W"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="11" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -10988,34 +11138,34 @@
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
-      <c r="I3" s="147" t="s">
+      <c r="I3" s="158" t="s">
         <v>231</v>
       </c>
-      <c r="J3" s="147"/>
+      <c r="J3" s="158"/>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="146" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="154"/>
+      <c r="B4" s="146"/>
       <c r="C4" s="47"/>
       <c r="D4" s="29"/>
-      <c r="E4" s="155" t="s">
+      <c r="E4" s="147" t="s">
         <v>230</v>
       </c>
-      <c r="F4" s="155"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="M4" s="153"/>
-      <c r="N4" s="153"/>
-      <c r="O4" s="153"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="145"/>
+      <c r="O4" s="145"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="156" t="s">
+      <c r="A5" s="148" t="s">
         <v>240</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -11059,7 +11209,7 @@
       <c r="S5" s="29"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="157"/>
+      <c r="A6" s="149"/>
       <c r="B6" s="30" t="s">
         <v>242</v>
       </c>
@@ -11093,7 +11243,7 @@
       <c r="S6" s="27"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="158"/>
+      <c r="A7" s="150"/>
       <c r="B7" s="31" t="s">
         <v>243</v>
       </c>
@@ -11182,7 +11332,7 @@
       <c r="S9" s="27"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="150" t="s">
+      <c r="A10" s="161" t="s">
         <v>248</v>
       </c>
       <c r="B10" s="30" t="s">
@@ -11210,7 +11360,7 @@
       <c r="S10" s="27"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="152"/>
+      <c r="A11" s="163"/>
       <c r="B11" s="31" t="s">
         <v>32</v>
       </c>
@@ -11240,7 +11390,7 @@
       <c r="S11" s="27"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="150" t="s">
+      <c r="A12" s="161" t="s">
         <v>250</v>
       </c>
       <c r="B12" s="30" t="s">
@@ -11270,7 +11420,7 @@
       <c r="S12" s="27"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="151"/>
+      <c r="A13" s="162"/>
       <c r="B13" s="31" t="s">
         <v>183</v>
       </c>
@@ -11296,7 +11446,7 @@
       <c r="S13" s="27"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="152"/>
+      <c r="A14" s="163"/>
       <c r="B14" s="31" t="s">
         <v>90</v>
       </c>
@@ -11378,7 +11528,7 @@
       <c r="S16" s="27"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="150" t="s">
+      <c r="A17" s="161" t="s">
         <v>255</v>
       </c>
       <c r="B17" s="30" t="s">
@@ -11406,7 +11556,7 @@
       <c r="S17" s="27"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="151"/>
+      <c r="A18" s="162"/>
       <c r="B18" s="31" t="s">
         <v>249</v>
       </c>
@@ -11432,7 +11582,7 @@
       <c r="S18" s="27"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="152"/>
+      <c r="A19" s="163"/>
       <c r="B19" s="31" t="s">
         <v>14</v>
       </c>
@@ -11458,7 +11608,7 @@
       <c r="S19" s="27"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="161" t="s">
+      <c r="A20" s="153" t="s">
         <v>263</v>
       </c>
       <c r="B20" s="30" t="s">
@@ -11486,7 +11636,7 @@
       <c r="S20" s="27"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="162"/>
+      <c r="A21" s="154"/>
       <c r="B21" s="30" t="s">
         <v>215</v>
       </c>
@@ -11511,7 +11661,7 @@
       <c r="S21" s="27"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="162"/>
+      <c r="A22" s="154"/>
       <c r="B22" s="30" t="s">
         <v>264</v>
       </c>
@@ -11537,7 +11687,7 @@
       <c r="S22" s="27"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="163"/>
+      <c r="A23" s="155"/>
       <c r="B23" s="30" t="s">
         <v>265</v>
       </c>
@@ -11636,10 +11786,10 @@
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="39"/>
-      <c r="F27" s="148" t="s">
+      <c r="F27" s="159" t="s">
         <v>232</v>
       </c>
-      <c r="G27" s="148"/>
+      <c r="G27" s="159"/>
       <c r="H27" s="45"/>
       <c r="K27" s="57" t="s">
         <v>280</v>
@@ -11651,7 +11801,7 @@
       <c r="C28" s="12"/>
       <c r="D28" s="32"/>
       <c r="E28" s="39"/>
-      <c r="F28" s="159" t="s">
+      <c r="F28" s="151" t="s">
         <v>233</v>
       </c>
       <c r="G28" s="41" t="s">
@@ -11685,7 +11835,7 @@
       <c r="C29" s="12"/>
       <c r="D29" s="32"/>
       <c r="E29" s="27"/>
-      <c r="F29" s="160"/>
+      <c r="F29" s="152"/>
       <c r="G29" s="40" t="s">
         <v>235</v>
       </c>
@@ -12035,10 +12185,10 @@
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C49" s="58"/>
       <c r="G49" s="59"/>
-      <c r="H49" s="145">
+      <c r="H49" s="156">
         <v>325000</v>
       </c>
-      <c r="I49" s="146"/>
+      <c r="I49" s="157"/>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E53" s="4" t="s">
@@ -12047,12 +12197,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="F27:G27"/>
@@ -12060,6 +12204,12 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A17:A19"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A20:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -13499,6 +13649,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="L1:M1"/>
@@ -13511,18 +13673,6 @@
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
